--- a/KnowledgeBaseFilkom_eval.xlsx
+++ b/KnowledgeBaseFilkom_eval.xlsx
@@ -453,7 +453,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,19 +470,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -540,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -548,35 +542,26 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,9 +873,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="63.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="182.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="63.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="182.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -904,146 +889,146 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="27">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="75">
-      <c r="A5" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75">
-      <c r="A6" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="93.75">
-      <c r="A8" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="73.5" customFormat="1" s="1">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="69.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="93.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1054,7 +1039,7 @@
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1065,7 +1050,7 @@
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1076,7 +1061,7 @@
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1087,7 +1072,7 @@
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1098,7 +1083,7 @@
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1109,7 +1094,7 @@
       <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1120,7 +1105,7 @@
       <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1131,7 +1116,7 @@
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1142,7 +1127,7 @@
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1153,7 +1138,7 @@
       <c r="B24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1164,7 +1149,7 @@
       <c r="B25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1175,7 +1160,7 @@
       <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1186,7 +1171,7 @@
       <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1197,7 +1182,7 @@
       <c r="B28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1208,7 +1193,7 @@
       <c r="B29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1219,7 +1204,7 @@
       <c r="B30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1230,7 +1215,7 @@
       <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1241,7 +1226,7 @@
       <c r="B32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1252,7 +1237,7 @@
       <c r="B33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1263,7 +1248,7 @@
       <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1274,7 +1259,7 @@
       <c r="B35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1285,7 +1270,7 @@
       <c r="B36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1296,7 +1281,7 @@
       <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1307,7 +1292,7 @@
       <c r="B38" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1318,7 +1303,7 @@
       <c r="B39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1329,7 +1314,7 @@
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1340,7 +1325,7 @@
       <c r="B41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1351,7 +1336,7 @@
       <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1362,18 +1347,18 @@
       <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1384,7 +1369,7 @@
       <c r="B45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1395,7 +1380,7 @@
       <c r="B46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1406,7 +1391,7 @@
       <c r="B47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1417,7 +1402,7 @@
       <c r="B48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1428,7 +1413,7 @@
       <c r="B49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1439,3924 +1424,3924 @@
       <c r="B50" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A52" s="10"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A53" s="10"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="10"/>
+      <c r="C56" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="10"/>
+      <c r="C57" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="10"/>
+      <c r="C58" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="10"/>
+      <c r="C59" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="10"/>
+      <c r="C60" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A61" s="10"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="10"/>
+      <c r="C61" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A62" s="10"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A63" s="10"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="10"/>
+      <c r="C63" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A64" s="10"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A65" s="10"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="10"/>
+      <c r="C65" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A66" s="10"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="10"/>
+      <c r="C66" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A67" s="10"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="10"/>
+      <c r="C67" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A68" s="10"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="10"/>
+      <c r="C68" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A69" s="10"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="10"/>
+      <c r="C69" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A70" s="10"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="10"/>
+      <c r="C70" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A71" s="10"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="10"/>
+      <c r="C71" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A72" s="10"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="10"/>
+      <c r="C72" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A73" s="10"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="10"/>
+      <c r="C73" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A74" s="10"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A75" s="10"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="10"/>
+      <c r="C75" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A76" s="10"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="10"/>
+      <c r="C76" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A77" s="10"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="10"/>
+      <c r="C77" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A78" s="10"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="10"/>
+      <c r="C78" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A79" s="10"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="10"/>
+      <c r="C79" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A80" s="10"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="10"/>
+      <c r="C80" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A81" s="10"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="10"/>
+      <c r="C81" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A82" s="10"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="10"/>
+      <c r="C82" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A83" s="10"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="10"/>
+      <c r="C83" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A84" s="10"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="10"/>
+      <c r="C84" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A85" s="10"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="10"/>
+      <c r="C85" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A86" s="10"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="10"/>
+      <c r="C86" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A87" s="10"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="10"/>
+      <c r="C87" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A88" s="10"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="10"/>
+      <c r="C88" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A89" s="10"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="10"/>
+      <c r="C89" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A90" s="10"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="10"/>
+      <c r="C90" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A91" s="10"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="10"/>
+      <c r="C91" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A92" s="10"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="10"/>
+      <c r="C92" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A93" s="10"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="10"/>
+      <c r="C93" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A94" s="10"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="10"/>
+      <c r="C94" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A95" s="10"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="10"/>
+      <c r="C95" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A96" s="10"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="10"/>
+      <c r="C96" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A97" s="10"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="10"/>
+      <c r="C97" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A98" s="10"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="10"/>
+      <c r="C98" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A99" s="10"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="10"/>
+      <c r="C99" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A100" s="10"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="10"/>
+      <c r="C100" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A101" s="10"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="10"/>
+      <c r="C101" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A102" s="10"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="10"/>
+      <c r="C102" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A103" s="10"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="10"/>
+      <c r="C103" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A104" s="10"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="10"/>
+      <c r="C104" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A105" s="10"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="10"/>
+      <c r="C105" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A106" s="10"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="10"/>
+      <c r="C106" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A107" s="10"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="10"/>
+      <c r="C107" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A108" s="10"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="10"/>
+      <c r="C108" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A109" s="10"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="10"/>
+      <c r="C109" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A110" s="10"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="10"/>
+      <c r="C110" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A111" s="10"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="10"/>
+      <c r="C111" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A112" s="10"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="10"/>
+      <c r="C112" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A113" s="10"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="10"/>
+      <c r="C113" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A114" s="10"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="10"/>
+      <c r="C114" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A115" s="10"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="10"/>
+      <c r="C115" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A116" s="10"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="10"/>
+      <c r="C116" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A117" s="10"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="10"/>
+      <c r="C117" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A118" s="10"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="10"/>
+      <c r="C118" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A119" s="10"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="10"/>
+      <c r="C119" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A120" s="10"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="10"/>
+      <c r="C120" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A121" s="10"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="10"/>
+      <c r="C121" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A122" s="10"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="10"/>
+      <c r="C122" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A123" s="10"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="10"/>
+      <c r="C123" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A124" s="10"/>
+      <c r="A124" s="7"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="10"/>
+      <c r="C124" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A125" s="10"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="10"/>
+      <c r="C125" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A126" s="10"/>
+      <c r="A126" s="7"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="10"/>
+      <c r="C126" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A127" s="10"/>
+      <c r="A127" s="7"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="10"/>
+      <c r="C127" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A128" s="10"/>
+      <c r="A128" s="7"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="10"/>
+      <c r="C128" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A129" s="10"/>
+      <c r="A129" s="7"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="10"/>
+      <c r="C129" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A130" s="10"/>
+      <c r="A130" s="7"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="10"/>
+      <c r="C130" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A131" s="10"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="10"/>
+      <c r="C131" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A132" s="10"/>
+      <c r="A132" s="7"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="10"/>
+      <c r="C132" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A133" s="10"/>
+      <c r="A133" s="7"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="10"/>
+      <c r="C133" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A134" s="10"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="10"/>
+      <c r="C134" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A135" s="10"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="10"/>
+      <c r="C135" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A136" s="10"/>
+      <c r="A136" s="7"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="10"/>
+      <c r="C136" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A137" s="10"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="10"/>
+      <c r="C137" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A138" s="10"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="10"/>
+      <c r="C138" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A139" s="10"/>
+      <c r="A139" s="7"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="10"/>
+      <c r="C139" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A140" s="10"/>
+      <c r="A140" s="7"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="10"/>
+      <c r="C140" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A141" s="10"/>
+      <c r="A141" s="7"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="10"/>
+      <c r="C141" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A142" s="10"/>
+      <c r="A142" s="7"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="10"/>
+      <c r="C142" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A143" s="10"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="10"/>
+      <c r="C143" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A144" s="10"/>
+      <c r="A144" s="7"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="10"/>
+      <c r="C144" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A145" s="10"/>
+      <c r="A145" s="7"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="10"/>
+      <c r="C145" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A146" s="10"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="10"/>
+      <c r="C146" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A147" s="10"/>
+      <c r="A147" s="7"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="10"/>
+      <c r="C147" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A148" s="10"/>
+      <c r="A148" s="7"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="10"/>
+      <c r="C148" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A149" s="10"/>
+      <c r="A149" s="7"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="10"/>
+      <c r="C149" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A150" s="10"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="10"/>
+      <c r="C150" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A151" s="10"/>
+      <c r="A151" s="7"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="10"/>
+      <c r="C151" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A152" s="10"/>
+      <c r="A152" s="7"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="10"/>
+      <c r="C152" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A153" s="10"/>
+      <c r="A153" s="7"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="10"/>
+      <c r="C153" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A154" s="10"/>
+      <c r="A154" s="7"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="10"/>
+      <c r="C154" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A155" s="10"/>
+      <c r="A155" s="7"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="10"/>
+      <c r="C155" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A156" s="10"/>
+      <c r="A156" s="7"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="10"/>
+      <c r="C156" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A157" s="10"/>
+      <c r="A157" s="7"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="10"/>
+      <c r="C157" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A158" s="10"/>
+      <c r="A158" s="7"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="10"/>
+      <c r="C158" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A159" s="10"/>
+      <c r="A159" s="7"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="10"/>
+      <c r="C159" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A160" s="10"/>
+      <c r="A160" s="7"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="10"/>
+      <c r="C160" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A161" s="10"/>
+      <c r="A161" s="7"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="10"/>
+      <c r="C161" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A162" s="10"/>
+      <c r="A162" s="7"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="10"/>
+      <c r="C162" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A163" s="10"/>
+      <c r="A163" s="7"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="10"/>
+      <c r="C163" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A164" s="10"/>
+      <c r="A164" s="7"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="10"/>
+      <c r="C164" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A165" s="10"/>
+      <c r="A165" s="7"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="10"/>
+      <c r="C165" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A166" s="10"/>
+      <c r="A166" s="7"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="10"/>
+      <c r="C166" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A167" s="10"/>
+      <c r="A167" s="7"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="10"/>
+      <c r="C167" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A168" s="10"/>
+      <c r="A168" s="7"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="10"/>
+      <c r="C168" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A169" s="10"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="10"/>
+      <c r="C169" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A170" s="10"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="10"/>
+      <c r="C170" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A171" s="10"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="10"/>
+      <c r="C171" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A172" s="10"/>
+      <c r="A172" s="7"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="10"/>
+      <c r="C172" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A173" s="10"/>
+      <c r="A173" s="7"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="10"/>
+      <c r="C173" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A174" s="10"/>
+      <c r="A174" s="7"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="10"/>
+      <c r="C174" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A175" s="10"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="10"/>
+      <c r="C175" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A176" s="10"/>
+      <c r="A176" s="7"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="10"/>
+      <c r="C176" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A177" s="10"/>
+      <c r="A177" s="7"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="10"/>
+      <c r="C177" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A178" s="10"/>
+      <c r="A178" s="7"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="10"/>
+      <c r="C178" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A179" s="10"/>
+      <c r="A179" s="7"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="10"/>
+      <c r="C179" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A180" s="10"/>
+      <c r="A180" s="7"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="10"/>
+      <c r="C180" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A181" s="10"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="10"/>
+      <c r="C181" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A182" s="10"/>
+      <c r="A182" s="7"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="10"/>
+      <c r="C182" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A183" s="10"/>
+      <c r="A183" s="7"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="10"/>
+      <c r="C183" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A184" s="10"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="10"/>
+      <c r="C184" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A185" s="10"/>
+      <c r="A185" s="7"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="10"/>
+      <c r="C185" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A186" s="10"/>
+      <c r="A186" s="7"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="10"/>
+      <c r="C186" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A187" s="10"/>
+      <c r="A187" s="7"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="10"/>
+      <c r="C187" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A188" s="10"/>
+      <c r="A188" s="7"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="10"/>
+      <c r="C188" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A189" s="10"/>
+      <c r="A189" s="7"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="10"/>
+      <c r="C189" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A190" s="10"/>
+      <c r="A190" s="7"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="10"/>
+      <c r="C190" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A191" s="10"/>
+      <c r="A191" s="7"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="10"/>
+      <c r="C191" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A192" s="10"/>
+      <c r="A192" s="7"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="10"/>
+      <c r="C192" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A193" s="10"/>
+      <c r="A193" s="7"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="10"/>
+      <c r="C193" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A194" s="10"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="10"/>
+      <c r="C194" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A195" s="10"/>
+      <c r="A195" s="7"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="10"/>
+      <c r="C195" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A196" s="10"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="10"/>
+      <c r="C196" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A197" s="10"/>
+      <c r="A197" s="7"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="10"/>
+      <c r="C197" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A198" s="10"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="10"/>
+      <c r="C198" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A199" s="10"/>
+      <c r="A199" s="7"/>
       <c r="B199" s="3"/>
-      <c r="C199" s="10"/>
+      <c r="C199" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A200" s="10"/>
+      <c r="A200" s="7"/>
       <c r="B200" s="3"/>
-      <c r="C200" s="10"/>
+      <c r="C200" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A201" s="10"/>
+      <c r="A201" s="7"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="10"/>
+      <c r="C201" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A202" s="10"/>
+      <c r="A202" s="7"/>
       <c r="B202" s="3"/>
-      <c r="C202" s="10"/>
+      <c r="C202" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A203" s="10"/>
+      <c r="A203" s="7"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="10"/>
+      <c r="C203" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A204" s="10"/>
+      <c r="A204" s="7"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="10"/>
+      <c r="C204" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A205" s="10"/>
+      <c r="A205" s="7"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="10"/>
+      <c r="C205" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A206" s="10"/>
+      <c r="A206" s="7"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="10"/>
+      <c r="C206" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A207" s="10"/>
+      <c r="A207" s="7"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="10"/>
+      <c r="C207" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A208" s="10"/>
+      <c r="A208" s="7"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="10"/>
+      <c r="C208" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A209" s="10"/>
+      <c r="A209" s="7"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="10"/>
+      <c r="C209" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A210" s="10"/>
+      <c r="A210" s="7"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="10"/>
+      <c r="C210" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A211" s="10"/>
+      <c r="A211" s="7"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="10"/>
+      <c r="C211" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A212" s="10"/>
+      <c r="A212" s="7"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="10"/>
+      <c r="C212" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A213" s="10"/>
+      <c r="A213" s="7"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="10"/>
+      <c r="C213" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A214" s="10"/>
+      <c r="A214" s="7"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="10"/>
+      <c r="C214" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A215" s="10"/>
+      <c r="A215" s="7"/>
       <c r="B215" s="3"/>
-      <c r="C215" s="10"/>
+      <c r="C215" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A216" s="10"/>
+      <c r="A216" s="7"/>
       <c r="B216" s="3"/>
-      <c r="C216" s="10"/>
+      <c r="C216" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A217" s="10"/>
+      <c r="A217" s="7"/>
       <c r="B217" s="3"/>
-      <c r="C217" s="10"/>
+      <c r="C217" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A218" s="10"/>
+      <c r="A218" s="7"/>
       <c r="B218" s="3"/>
-      <c r="C218" s="10"/>
+      <c r="C218" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A219" s="10"/>
+      <c r="A219" s="7"/>
       <c r="B219" s="3"/>
-      <c r="C219" s="10"/>
+      <c r="C219" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A220" s="10"/>
+      <c r="A220" s="7"/>
       <c r="B220" s="3"/>
-      <c r="C220" s="10"/>
+      <c r="C220" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A221" s="10"/>
+      <c r="A221" s="7"/>
       <c r="B221" s="3"/>
-      <c r="C221" s="10"/>
+      <c r="C221" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A222" s="10"/>
+      <c r="A222" s="7"/>
       <c r="B222" s="3"/>
-      <c r="C222" s="10"/>
+      <c r="C222" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A223" s="10"/>
+      <c r="A223" s="7"/>
       <c r="B223" s="3"/>
-      <c r="C223" s="10"/>
+      <c r="C223" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A224" s="10"/>
+      <c r="A224" s="7"/>
       <c r="B224" s="3"/>
-      <c r="C224" s="10"/>
+      <c r="C224" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A225" s="10"/>
+      <c r="A225" s="7"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="10"/>
+      <c r="C225" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A226" s="10"/>
+      <c r="A226" s="7"/>
       <c r="B226" s="3"/>
-      <c r="C226" s="10"/>
+      <c r="C226" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A227" s="10"/>
+      <c r="A227" s="7"/>
       <c r="B227" s="3"/>
-      <c r="C227" s="10"/>
+      <c r="C227" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A228" s="10"/>
+      <c r="A228" s="7"/>
       <c r="B228" s="3"/>
-      <c r="C228" s="10"/>
+      <c r="C228" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A229" s="10"/>
+      <c r="A229" s="7"/>
       <c r="B229" s="3"/>
-      <c r="C229" s="10"/>
+      <c r="C229" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A230" s="10"/>
+      <c r="A230" s="7"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="10"/>
+      <c r="C230" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A231" s="10"/>
+      <c r="A231" s="7"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="10"/>
+      <c r="C231" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A232" s="10"/>
+      <c r="A232" s="7"/>
       <c r="B232" s="3"/>
-      <c r="C232" s="10"/>
+      <c r="C232" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A233" s="10"/>
+      <c r="A233" s="7"/>
       <c r="B233" s="3"/>
-      <c r="C233" s="10"/>
+      <c r="C233" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A234" s="10"/>
+      <c r="A234" s="7"/>
       <c r="B234" s="3"/>
-      <c r="C234" s="10"/>
+      <c r="C234" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A235" s="10"/>
+      <c r="A235" s="7"/>
       <c r="B235" s="3"/>
-      <c r="C235" s="10"/>
+      <c r="C235" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A236" s="10"/>
+      <c r="A236" s="7"/>
       <c r="B236" s="3"/>
-      <c r="C236" s="10"/>
+      <c r="C236" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A237" s="10"/>
+      <c r="A237" s="7"/>
       <c r="B237" s="3"/>
-      <c r="C237" s="10"/>
+      <c r="C237" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A238" s="10"/>
+      <c r="A238" s="7"/>
       <c r="B238" s="3"/>
-      <c r="C238" s="10"/>
+      <c r="C238" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A239" s="10"/>
+      <c r="A239" s="7"/>
       <c r="B239" s="3"/>
-      <c r="C239" s="10"/>
+      <c r="C239" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A240" s="10"/>
+      <c r="A240" s="7"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="10"/>
+      <c r="C240" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A241" s="10"/>
+      <c r="A241" s="7"/>
       <c r="B241" s="3"/>
-      <c r="C241" s="10"/>
+      <c r="C241" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A242" s="10"/>
+      <c r="A242" s="7"/>
       <c r="B242" s="3"/>
-      <c r="C242" s="10"/>
+      <c r="C242" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A243" s="10"/>
+      <c r="A243" s="7"/>
       <c r="B243" s="3"/>
-      <c r="C243" s="10"/>
+      <c r="C243" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A244" s="10"/>
+      <c r="A244" s="7"/>
       <c r="B244" s="3"/>
-      <c r="C244" s="10"/>
+      <c r="C244" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A245" s="10"/>
+      <c r="A245" s="7"/>
       <c r="B245" s="3"/>
-      <c r="C245" s="10"/>
+      <c r="C245" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A246" s="10"/>
+      <c r="A246" s="7"/>
       <c r="B246" s="3"/>
-      <c r="C246" s="10"/>
+      <c r="C246" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A247" s="10"/>
+      <c r="A247" s="7"/>
       <c r="B247" s="3"/>
-      <c r="C247" s="10"/>
+      <c r="C247" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A248" s="10"/>
+      <c r="A248" s="7"/>
       <c r="B248" s="3"/>
-      <c r="C248" s="10"/>
+      <c r="C248" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A249" s="10"/>
+      <c r="A249" s="7"/>
       <c r="B249" s="3"/>
-      <c r="C249" s="10"/>
+      <c r="C249" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A250" s="10"/>
+      <c r="A250" s="7"/>
       <c r="B250" s="3"/>
-      <c r="C250" s="10"/>
+      <c r="C250" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A251" s="10"/>
+      <c r="A251" s="7"/>
       <c r="B251" s="3"/>
-      <c r="C251" s="10"/>
+      <c r="C251" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A252" s="10"/>
+      <c r="A252" s="7"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="10"/>
+      <c r="C252" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A253" s="10"/>
+      <c r="A253" s="7"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="10"/>
+      <c r="C253" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A254" s="10"/>
+      <c r="A254" s="7"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="10"/>
+      <c r="C254" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A255" s="10"/>
+      <c r="A255" s="7"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="10"/>
+      <c r="C255" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A256" s="10"/>
+      <c r="A256" s="7"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="10"/>
+      <c r="C256" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A257" s="10"/>
+      <c r="A257" s="7"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="10"/>
+      <c r="C257" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A258" s="10"/>
+      <c r="A258" s="7"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="10"/>
+      <c r="C258" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A259" s="10"/>
+      <c r="A259" s="7"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="10"/>
+      <c r="C259" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A260" s="10"/>
+      <c r="A260" s="7"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="10"/>
+      <c r="C260" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A261" s="10"/>
+      <c r="A261" s="7"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="10"/>
+      <c r="C261" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A262" s="10"/>
+      <c r="A262" s="7"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="10"/>
+      <c r="C262" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A263" s="10"/>
+      <c r="A263" s="7"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="10"/>
+      <c r="C263" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A264" s="10"/>
+      <c r="A264" s="7"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="10"/>
+      <c r="C264" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A265" s="10"/>
+      <c r="A265" s="7"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="10"/>
+      <c r="C265" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A266" s="10"/>
+      <c r="A266" s="7"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="10"/>
+      <c r="C266" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A267" s="10"/>
+      <c r="A267" s="7"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="10"/>
+      <c r="C267" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A268" s="10"/>
+      <c r="A268" s="7"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="10"/>
+      <c r="C268" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A269" s="10"/>
+      <c r="A269" s="7"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="10"/>
+      <c r="C269" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A270" s="10"/>
+      <c r="A270" s="7"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="10"/>
+      <c r="C270" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A271" s="10"/>
+      <c r="A271" s="7"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="10"/>
+      <c r="C271" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A272" s="10"/>
+      <c r="A272" s="7"/>
       <c r="B272" s="3"/>
-      <c r="C272" s="10"/>
+      <c r="C272" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A273" s="10"/>
+      <c r="A273" s="7"/>
       <c r="B273" s="3"/>
-      <c r="C273" s="10"/>
+      <c r="C273" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A274" s="10"/>
+      <c r="A274" s="7"/>
       <c r="B274" s="3"/>
-      <c r="C274" s="10"/>
+      <c r="C274" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A275" s="10"/>
+      <c r="A275" s="7"/>
       <c r="B275" s="3"/>
-      <c r="C275" s="10"/>
+      <c r="C275" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A276" s="10"/>
+      <c r="A276" s="7"/>
       <c r="B276" s="3"/>
-      <c r="C276" s="10"/>
+      <c r="C276" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A277" s="10"/>
+      <c r="A277" s="7"/>
       <c r="B277" s="3"/>
-      <c r="C277" s="10"/>
+      <c r="C277" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A278" s="10"/>
+      <c r="A278" s="7"/>
       <c r="B278" s="3"/>
-      <c r="C278" s="10"/>
+      <c r="C278" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A279" s="10"/>
+      <c r="A279" s="7"/>
       <c r="B279" s="3"/>
-      <c r="C279" s="10"/>
+      <c r="C279" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A280" s="10"/>
+      <c r="A280" s="7"/>
       <c r="B280" s="3"/>
-      <c r="C280" s="10"/>
+      <c r="C280" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A281" s="10"/>
+      <c r="A281" s="7"/>
       <c r="B281" s="3"/>
-      <c r="C281" s="10"/>
+      <c r="C281" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A282" s="10"/>
+      <c r="A282" s="7"/>
       <c r="B282" s="3"/>
-      <c r="C282" s="10"/>
+      <c r="C282" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A283" s="10"/>
+      <c r="A283" s="7"/>
       <c r="B283" s="3"/>
-      <c r="C283" s="10"/>
+      <c r="C283" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A284" s="10"/>
+      <c r="A284" s="7"/>
       <c r="B284" s="3"/>
-      <c r="C284" s="10"/>
+      <c r="C284" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A285" s="10"/>
+      <c r="A285" s="7"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="10"/>
+      <c r="C285" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A286" s="10"/>
+      <c r="A286" s="7"/>
       <c r="B286" s="3"/>
-      <c r="C286" s="10"/>
+      <c r="C286" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A287" s="10"/>
+      <c r="A287" s="7"/>
       <c r="B287" s="3"/>
-      <c r="C287" s="10"/>
+      <c r="C287" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A288" s="10"/>
+      <c r="A288" s="7"/>
       <c r="B288" s="3"/>
-      <c r="C288" s="10"/>
+      <c r="C288" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A289" s="10"/>
+      <c r="A289" s="7"/>
       <c r="B289" s="3"/>
-      <c r="C289" s="10"/>
+      <c r="C289" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A290" s="10"/>
+      <c r="A290" s="7"/>
       <c r="B290" s="3"/>
-      <c r="C290" s="10"/>
+      <c r="C290" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A291" s="10"/>
+      <c r="A291" s="7"/>
       <c r="B291" s="3"/>
-      <c r="C291" s="10"/>
+      <c r="C291" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A292" s="10"/>
+      <c r="A292" s="7"/>
       <c r="B292" s="3"/>
-      <c r="C292" s="10"/>
+      <c r="C292" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A293" s="10"/>
+      <c r="A293" s="7"/>
       <c r="B293" s="3"/>
-      <c r="C293" s="10"/>
+      <c r="C293" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A294" s="10"/>
+      <c r="A294" s="7"/>
       <c r="B294" s="3"/>
-      <c r="C294" s="10"/>
+      <c r="C294" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A295" s="10"/>
+      <c r="A295" s="7"/>
       <c r="B295" s="3"/>
-      <c r="C295" s="10"/>
+      <c r="C295" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A296" s="10"/>
+      <c r="A296" s="7"/>
       <c r="B296" s="3"/>
-      <c r="C296" s="10"/>
+      <c r="C296" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A297" s="10"/>
+      <c r="A297" s="7"/>
       <c r="B297" s="3"/>
-      <c r="C297" s="10"/>
+      <c r="C297" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A298" s="10"/>
+      <c r="A298" s="7"/>
       <c r="B298" s="3"/>
-      <c r="C298" s="10"/>
+      <c r="C298" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A299" s="10"/>
+      <c r="A299" s="7"/>
       <c r="B299" s="3"/>
-      <c r="C299" s="10"/>
+      <c r="C299" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A300" s="10"/>
+      <c r="A300" s="7"/>
       <c r="B300" s="3"/>
-      <c r="C300" s="10"/>
+      <c r="C300" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A301" s="10"/>
+      <c r="A301" s="7"/>
       <c r="B301" s="3"/>
-      <c r="C301" s="10"/>
+      <c r="C301" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A302" s="10"/>
+      <c r="A302" s="7"/>
       <c r="B302" s="3"/>
-      <c r="C302" s="10"/>
+      <c r="C302" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A303" s="10"/>
+      <c r="A303" s="7"/>
       <c r="B303" s="3"/>
-      <c r="C303" s="10"/>
+      <c r="C303" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A304" s="10"/>
+      <c r="A304" s="7"/>
       <c r="B304" s="3"/>
-      <c r="C304" s="10"/>
+      <c r="C304" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A305" s="10"/>
+      <c r="A305" s="7"/>
       <c r="B305" s="3"/>
-      <c r="C305" s="10"/>
+      <c r="C305" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A306" s="10"/>
+      <c r="A306" s="7"/>
       <c r="B306" s="3"/>
-      <c r="C306" s="10"/>
+      <c r="C306" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A307" s="10"/>
+      <c r="A307" s="7"/>
       <c r="B307" s="3"/>
-      <c r="C307" s="10"/>
+      <c r="C307" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A308" s="10"/>
+      <c r="A308" s="7"/>
       <c r="B308" s="3"/>
-      <c r="C308" s="10"/>
+      <c r="C308" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A309" s="10"/>
+      <c r="A309" s="7"/>
       <c r="B309" s="3"/>
-      <c r="C309" s="10"/>
+      <c r="C309" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A310" s="10"/>
+      <c r="A310" s="7"/>
       <c r="B310" s="3"/>
-      <c r="C310" s="10"/>
+      <c r="C310" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A311" s="10"/>
+      <c r="A311" s="7"/>
       <c r="B311" s="3"/>
-      <c r="C311" s="10"/>
+      <c r="C311" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A312" s="10"/>
+      <c r="A312" s="7"/>
       <c r="B312" s="3"/>
-      <c r="C312" s="10"/>
+      <c r="C312" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A313" s="10"/>
+      <c r="A313" s="7"/>
       <c r="B313" s="3"/>
-      <c r="C313" s="10"/>
+      <c r="C313" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A314" s="10"/>
+      <c r="A314" s="7"/>
       <c r="B314" s="3"/>
-      <c r="C314" s="10"/>
+      <c r="C314" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A315" s="10"/>
+      <c r="A315" s="7"/>
       <c r="B315" s="3"/>
-      <c r="C315" s="10"/>
+      <c r="C315" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A316" s="10"/>
+      <c r="A316" s="7"/>
       <c r="B316" s="3"/>
-      <c r="C316" s="10"/>
+      <c r="C316" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A317" s="10"/>
+      <c r="A317" s="7"/>
       <c r="B317" s="3"/>
-      <c r="C317" s="10"/>
+      <c r="C317" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A318" s="10"/>
+      <c r="A318" s="7"/>
       <c r="B318" s="3"/>
-      <c r="C318" s="10"/>
+      <c r="C318" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A319" s="10"/>
+      <c r="A319" s="7"/>
       <c r="B319" s="3"/>
-      <c r="C319" s="10"/>
+      <c r="C319" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A320" s="10"/>
+      <c r="A320" s="7"/>
       <c r="B320" s="3"/>
-      <c r="C320" s="10"/>
+      <c r="C320" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A321" s="10"/>
+      <c r="A321" s="7"/>
       <c r="B321" s="3"/>
-      <c r="C321" s="10"/>
+      <c r="C321" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A322" s="10"/>
+      <c r="A322" s="7"/>
       <c r="B322" s="3"/>
-      <c r="C322" s="10"/>
+      <c r="C322" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A323" s="10"/>
+      <c r="A323" s="7"/>
       <c r="B323" s="3"/>
-      <c r="C323" s="10"/>
+      <c r="C323" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A324" s="10"/>
+      <c r="A324" s="7"/>
       <c r="B324" s="3"/>
-      <c r="C324" s="10"/>
+      <c r="C324" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A325" s="10"/>
+      <c r="A325" s="7"/>
       <c r="B325" s="3"/>
-      <c r="C325" s="10"/>
+      <c r="C325" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A326" s="10"/>
+      <c r="A326" s="7"/>
       <c r="B326" s="3"/>
-      <c r="C326" s="10"/>
+      <c r="C326" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A327" s="10"/>
+      <c r="A327" s="7"/>
       <c r="B327" s="3"/>
-      <c r="C327" s="10"/>
+      <c r="C327" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A328" s="10"/>
+      <c r="A328" s="7"/>
       <c r="B328" s="3"/>
-      <c r="C328" s="10"/>
+      <c r="C328" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A329" s="10"/>
+      <c r="A329" s="7"/>
       <c r="B329" s="3"/>
-      <c r="C329" s="10"/>
+      <c r="C329" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A330" s="10"/>
+      <c r="A330" s="7"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="10"/>
+      <c r="C330" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A331" s="10"/>
+      <c r="A331" s="7"/>
       <c r="B331" s="3"/>
-      <c r="C331" s="10"/>
+      <c r="C331" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A332" s="10"/>
+      <c r="A332" s="7"/>
       <c r="B332" s="3"/>
-      <c r="C332" s="10"/>
+      <c r="C332" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A333" s="10"/>
+      <c r="A333" s="7"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="10"/>
+      <c r="C333" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A334" s="10"/>
+      <c r="A334" s="7"/>
       <c r="B334" s="3"/>
-      <c r="C334" s="10"/>
+      <c r="C334" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A335" s="10"/>
+      <c r="A335" s="7"/>
       <c r="B335" s="3"/>
-      <c r="C335" s="10"/>
+      <c r="C335" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A336" s="10"/>
+      <c r="A336" s="7"/>
       <c r="B336" s="3"/>
-      <c r="C336" s="10"/>
+      <c r="C336" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A337" s="10"/>
+      <c r="A337" s="7"/>
       <c r="B337" s="3"/>
-      <c r="C337" s="10"/>
+      <c r="C337" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A338" s="10"/>
+      <c r="A338" s="7"/>
       <c r="B338" s="3"/>
-      <c r="C338" s="10"/>
+      <c r="C338" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A339" s="10"/>
+      <c r="A339" s="7"/>
       <c r="B339" s="3"/>
-      <c r="C339" s="10"/>
+      <c r="C339" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A340" s="10"/>
+      <c r="A340" s="7"/>
       <c r="B340" s="3"/>
-      <c r="C340" s="10"/>
+      <c r="C340" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A341" s="10"/>
+      <c r="A341" s="7"/>
       <c r="B341" s="3"/>
-      <c r="C341" s="10"/>
+      <c r="C341" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A342" s="10"/>
+      <c r="A342" s="7"/>
       <c r="B342" s="3"/>
-      <c r="C342" s="10"/>
+      <c r="C342" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A343" s="10"/>
+      <c r="A343" s="7"/>
       <c r="B343" s="3"/>
-      <c r="C343" s="10"/>
+      <c r="C343" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A344" s="10"/>
+      <c r="A344" s="7"/>
       <c r="B344" s="3"/>
-      <c r="C344" s="10"/>
+      <c r="C344" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A345" s="10"/>
+      <c r="A345" s="7"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="10"/>
+      <c r="C345" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A346" s="10"/>
+      <c r="A346" s="7"/>
       <c r="B346" s="3"/>
-      <c r="C346" s="10"/>
+      <c r="C346" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A347" s="10"/>
+      <c r="A347" s="7"/>
       <c r="B347" s="3"/>
-      <c r="C347" s="10"/>
+      <c r="C347" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A348" s="10"/>
+      <c r="A348" s="7"/>
       <c r="B348" s="3"/>
-      <c r="C348" s="10"/>
+      <c r="C348" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A349" s="10"/>
+      <c r="A349" s="7"/>
       <c r="B349" s="3"/>
-      <c r="C349" s="10"/>
+      <c r="C349" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A350" s="10"/>
+      <c r="A350" s="7"/>
       <c r="B350" s="3"/>
-      <c r="C350" s="10"/>
+      <c r="C350" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A351" s="10"/>
+      <c r="A351" s="7"/>
       <c r="B351" s="3"/>
-      <c r="C351" s="10"/>
+      <c r="C351" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A352" s="10"/>
+      <c r="A352" s="7"/>
       <c r="B352" s="3"/>
-      <c r="C352" s="10"/>
+      <c r="C352" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A353" s="10"/>
+      <c r="A353" s="7"/>
       <c r="B353" s="3"/>
-      <c r="C353" s="10"/>
+      <c r="C353" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A354" s="10"/>
+      <c r="A354" s="7"/>
       <c r="B354" s="3"/>
-      <c r="C354" s="10"/>
+      <c r="C354" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A355" s="10"/>
+      <c r="A355" s="7"/>
       <c r="B355" s="3"/>
-      <c r="C355" s="10"/>
+      <c r="C355" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A356" s="10"/>
+      <c r="A356" s="7"/>
       <c r="B356" s="3"/>
-      <c r="C356" s="10"/>
+      <c r="C356" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A357" s="10"/>
+      <c r="A357" s="7"/>
       <c r="B357" s="3"/>
-      <c r="C357" s="10"/>
+      <c r="C357" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A358" s="10"/>
+      <c r="A358" s="7"/>
       <c r="B358" s="3"/>
-      <c r="C358" s="10"/>
+      <c r="C358" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A359" s="10"/>
+      <c r="A359" s="7"/>
       <c r="B359" s="3"/>
-      <c r="C359" s="10"/>
+      <c r="C359" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A360" s="10"/>
+      <c r="A360" s="7"/>
       <c r="B360" s="3"/>
-      <c r="C360" s="10"/>
+      <c r="C360" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A361" s="10"/>
+      <c r="A361" s="7"/>
       <c r="B361" s="3"/>
-      <c r="C361" s="10"/>
+      <c r="C361" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A362" s="10"/>
+      <c r="A362" s="7"/>
       <c r="B362" s="3"/>
-      <c r="C362" s="10"/>
+      <c r="C362" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A363" s="10"/>
+      <c r="A363" s="7"/>
       <c r="B363" s="3"/>
-      <c r="C363" s="10"/>
+      <c r="C363" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A364" s="10"/>
+      <c r="A364" s="7"/>
       <c r="B364" s="3"/>
-      <c r="C364" s="10"/>
+      <c r="C364" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A365" s="10"/>
+      <c r="A365" s="7"/>
       <c r="B365" s="3"/>
-      <c r="C365" s="10"/>
+      <c r="C365" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A366" s="10"/>
+      <c r="A366" s="7"/>
       <c r="B366" s="3"/>
-      <c r="C366" s="10"/>
+      <c r="C366" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A367" s="10"/>
+      <c r="A367" s="7"/>
       <c r="B367" s="3"/>
-      <c r="C367" s="10"/>
+      <c r="C367" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A368" s="10"/>
+      <c r="A368" s="7"/>
       <c r="B368" s="3"/>
-      <c r="C368" s="10"/>
+      <c r="C368" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A369" s="10"/>
+      <c r="A369" s="7"/>
       <c r="B369" s="3"/>
-      <c r="C369" s="10"/>
+      <c r="C369" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A370" s="10"/>
+      <c r="A370" s="7"/>
       <c r="B370" s="3"/>
-      <c r="C370" s="10"/>
+      <c r="C370" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A371" s="10"/>
+      <c r="A371" s="7"/>
       <c r="B371" s="3"/>
-      <c r="C371" s="10"/>
+      <c r="C371" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A372" s="10"/>
+      <c r="A372" s="7"/>
       <c r="B372" s="3"/>
-      <c r="C372" s="10"/>
+      <c r="C372" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A373" s="10"/>
+      <c r="A373" s="7"/>
       <c r="B373" s="3"/>
-      <c r="C373" s="10"/>
+      <c r="C373" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A374" s="10"/>
+      <c r="A374" s="7"/>
       <c r="B374" s="3"/>
-      <c r="C374" s="10"/>
+      <c r="C374" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A375" s="10"/>
+      <c r="A375" s="7"/>
       <c r="B375" s="3"/>
-      <c r="C375" s="10"/>
+      <c r="C375" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A376" s="10"/>
+      <c r="A376" s="7"/>
       <c r="B376" s="3"/>
-      <c r="C376" s="10"/>
+      <c r="C376" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A377" s="10"/>
+      <c r="A377" s="7"/>
       <c r="B377" s="3"/>
-      <c r="C377" s="10"/>
+      <c r="C377" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A378" s="10"/>
+      <c r="A378" s="7"/>
       <c r="B378" s="3"/>
-      <c r="C378" s="10"/>
+      <c r="C378" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A379" s="10"/>
+      <c r="A379" s="7"/>
       <c r="B379" s="3"/>
-      <c r="C379" s="10"/>
+      <c r="C379" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A380" s="10"/>
+      <c r="A380" s="7"/>
       <c r="B380" s="3"/>
-      <c r="C380" s="10"/>
+      <c r="C380" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A381" s="10"/>
+      <c r="A381" s="7"/>
       <c r="B381" s="3"/>
-      <c r="C381" s="10"/>
+      <c r="C381" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A382" s="10"/>
+      <c r="A382" s="7"/>
       <c r="B382" s="3"/>
-      <c r="C382" s="10"/>
+      <c r="C382" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A383" s="10"/>
+      <c r="A383" s="7"/>
       <c r="B383" s="3"/>
-      <c r="C383" s="10"/>
+      <c r="C383" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A384" s="10"/>
+      <c r="A384" s="7"/>
       <c r="B384" s="3"/>
-      <c r="C384" s="10"/>
+      <c r="C384" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A385" s="10"/>
+      <c r="A385" s="7"/>
       <c r="B385" s="3"/>
-      <c r="C385" s="10"/>
+      <c r="C385" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A386" s="10"/>
+      <c r="A386" s="7"/>
       <c r="B386" s="3"/>
-      <c r="C386" s="10"/>
+      <c r="C386" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A387" s="10"/>
+      <c r="A387" s="7"/>
       <c r="B387" s="3"/>
-      <c r="C387" s="10"/>
+      <c r="C387" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A388" s="10"/>
+      <c r="A388" s="7"/>
       <c r="B388" s="3"/>
-      <c r="C388" s="10"/>
+      <c r="C388" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A389" s="10"/>
+      <c r="A389" s="7"/>
       <c r="B389" s="3"/>
-      <c r="C389" s="10"/>
+      <c r="C389" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A390" s="10"/>
+      <c r="A390" s="7"/>
       <c r="B390" s="3"/>
-      <c r="C390" s="10"/>
+      <c r="C390" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A391" s="10"/>
+      <c r="A391" s="7"/>
       <c r="B391" s="3"/>
-      <c r="C391" s="10"/>
+      <c r="C391" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A392" s="10"/>
+      <c r="A392" s="7"/>
       <c r="B392" s="3"/>
-      <c r="C392" s="10"/>
+      <c r="C392" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A393" s="10"/>
+      <c r="A393" s="7"/>
       <c r="B393" s="3"/>
-      <c r="C393" s="10"/>
+      <c r="C393" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A394" s="10"/>
+      <c r="A394" s="7"/>
       <c r="B394" s="3"/>
-      <c r="C394" s="10"/>
+      <c r="C394" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A395" s="10"/>
+      <c r="A395" s="7"/>
       <c r="B395" s="3"/>
-      <c r="C395" s="10"/>
+      <c r="C395" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A396" s="10"/>
+      <c r="A396" s="7"/>
       <c r="B396" s="3"/>
-      <c r="C396" s="10"/>
+      <c r="C396" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A397" s="10"/>
+      <c r="A397" s="7"/>
       <c r="B397" s="3"/>
-      <c r="C397" s="10"/>
+      <c r="C397" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A398" s="10"/>
+      <c r="A398" s="7"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="10"/>
+      <c r="C398" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A399" s="10"/>
+      <c r="A399" s="7"/>
       <c r="B399" s="3"/>
-      <c r="C399" s="10"/>
+      <c r="C399" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A400" s="10"/>
+      <c r="A400" s="7"/>
       <c r="B400" s="3"/>
-      <c r="C400" s="10"/>
+      <c r="C400" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A401" s="10"/>
+      <c r="A401" s="7"/>
       <c r="B401" s="3"/>
-      <c r="C401" s="10"/>
+      <c r="C401" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A402" s="10"/>
+      <c r="A402" s="7"/>
       <c r="B402" s="3"/>
-      <c r="C402" s="10"/>
+      <c r="C402" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A403" s="10"/>
+      <c r="A403" s="7"/>
       <c r="B403" s="3"/>
-      <c r="C403" s="10"/>
+      <c r="C403" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A404" s="10"/>
+      <c r="A404" s="7"/>
       <c r="B404" s="3"/>
-      <c r="C404" s="10"/>
+      <c r="C404" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A405" s="10"/>
+      <c r="A405" s="7"/>
       <c r="B405" s="3"/>
-      <c r="C405" s="10"/>
+      <c r="C405" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A406" s="10"/>
+      <c r="A406" s="7"/>
       <c r="B406" s="3"/>
-      <c r="C406" s="10"/>
+      <c r="C406" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A407" s="10"/>
+      <c r="A407" s="7"/>
       <c r="B407" s="3"/>
-      <c r="C407" s="10"/>
+      <c r="C407" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A408" s="10"/>
+      <c r="A408" s="7"/>
       <c r="B408" s="3"/>
-      <c r="C408" s="10"/>
+      <c r="C408" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A409" s="10"/>
+      <c r="A409" s="7"/>
       <c r="B409" s="3"/>
-      <c r="C409" s="10"/>
+      <c r="C409" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A410" s="10"/>
+      <c r="A410" s="7"/>
       <c r="B410" s="3"/>
-      <c r="C410" s="10"/>
+      <c r="C410" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A411" s="10"/>
+      <c r="A411" s="7"/>
       <c r="B411" s="3"/>
-      <c r="C411" s="10"/>
+      <c r="C411" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A412" s="10"/>
+      <c r="A412" s="7"/>
       <c r="B412" s="3"/>
-      <c r="C412" s="10"/>
+      <c r="C412" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A413" s="10"/>
+      <c r="A413" s="7"/>
       <c r="B413" s="3"/>
-      <c r="C413" s="10"/>
+      <c r="C413" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A414" s="10"/>
+      <c r="A414" s="7"/>
       <c r="B414" s="3"/>
-      <c r="C414" s="10"/>
+      <c r="C414" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A415" s="10"/>
+      <c r="A415" s="7"/>
       <c r="B415" s="3"/>
-      <c r="C415" s="10"/>
+      <c r="C415" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A416" s="10"/>
+      <c r="A416" s="7"/>
       <c r="B416" s="3"/>
-      <c r="C416" s="10"/>
+      <c r="C416" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A417" s="10"/>
+      <c r="A417" s="7"/>
       <c r="B417" s="3"/>
-      <c r="C417" s="10"/>
+      <c r="C417" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A418" s="10"/>
+      <c r="A418" s="7"/>
       <c r="B418" s="3"/>
-      <c r="C418" s="10"/>
+      <c r="C418" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A419" s="10"/>
+      <c r="A419" s="7"/>
       <c r="B419" s="3"/>
-      <c r="C419" s="10"/>
+      <c r="C419" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A420" s="10"/>
+      <c r="A420" s="7"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="10"/>
+      <c r="C420" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A421" s="10"/>
+      <c r="A421" s="7"/>
       <c r="B421" s="3"/>
-      <c r="C421" s="10"/>
+      <c r="C421" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A422" s="10"/>
+      <c r="A422" s="7"/>
       <c r="B422" s="3"/>
-      <c r="C422" s="10"/>
+      <c r="C422" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A423" s="10"/>
+      <c r="A423" s="7"/>
       <c r="B423" s="3"/>
-      <c r="C423" s="10"/>
+      <c r="C423" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A424" s="10"/>
+      <c r="A424" s="7"/>
       <c r="B424" s="3"/>
-      <c r="C424" s="10"/>
+      <c r="C424" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A425" s="10"/>
+      <c r="A425" s="7"/>
       <c r="B425" s="3"/>
-      <c r="C425" s="10"/>
+      <c r="C425" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A426" s="10"/>
+      <c r="A426" s="7"/>
       <c r="B426" s="3"/>
-      <c r="C426" s="10"/>
+      <c r="C426" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A427" s="10"/>
+      <c r="A427" s="7"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="10"/>
+      <c r="C427" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A428" s="10"/>
+      <c r="A428" s="7"/>
       <c r="B428" s="3"/>
-      <c r="C428" s="10"/>
+      <c r="C428" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A429" s="10"/>
+      <c r="A429" s="7"/>
       <c r="B429" s="3"/>
-      <c r="C429" s="10"/>
+      <c r="C429" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A430" s="10"/>
+      <c r="A430" s="7"/>
       <c r="B430" s="3"/>
-      <c r="C430" s="10"/>
+      <c r="C430" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A431" s="10"/>
+      <c r="A431" s="7"/>
       <c r="B431" s="3"/>
-      <c r="C431" s="10"/>
+      <c r="C431" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A432" s="10"/>
+      <c r="A432" s="7"/>
       <c r="B432" s="3"/>
-      <c r="C432" s="10"/>
+      <c r="C432" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A433" s="10"/>
+      <c r="A433" s="7"/>
       <c r="B433" s="3"/>
-      <c r="C433" s="10"/>
+      <c r="C433" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A434" s="10"/>
+      <c r="A434" s="7"/>
       <c r="B434" s="3"/>
-      <c r="C434" s="10"/>
+      <c r="C434" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A435" s="10"/>
+      <c r="A435" s="7"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="10"/>
+      <c r="C435" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A436" s="10"/>
+      <c r="A436" s="7"/>
       <c r="B436" s="3"/>
-      <c r="C436" s="10"/>
+      <c r="C436" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A437" s="10"/>
+      <c r="A437" s="7"/>
       <c r="B437" s="3"/>
-      <c r="C437" s="10"/>
+      <c r="C437" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A438" s="10"/>
+      <c r="A438" s="7"/>
       <c r="B438" s="3"/>
-      <c r="C438" s="10"/>
+      <c r="C438" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A439" s="10"/>
+      <c r="A439" s="7"/>
       <c r="B439" s="3"/>
-      <c r="C439" s="10"/>
+      <c r="C439" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A440" s="10"/>
+      <c r="A440" s="7"/>
       <c r="B440" s="3"/>
-      <c r="C440" s="10"/>
+      <c r="C440" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A441" s="10"/>
+      <c r="A441" s="7"/>
       <c r="B441" s="3"/>
-      <c r="C441" s="10"/>
+      <c r="C441" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A442" s="10"/>
+      <c r="A442" s="7"/>
       <c r="B442" s="3"/>
-      <c r="C442" s="10"/>
+      <c r="C442" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A443" s="10"/>
+      <c r="A443" s="7"/>
       <c r="B443" s="3"/>
-      <c r="C443" s="10"/>
+      <c r="C443" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A444" s="10"/>
+      <c r="A444" s="7"/>
       <c r="B444" s="3"/>
-      <c r="C444" s="10"/>
+      <c r="C444" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A445" s="10"/>
+      <c r="A445" s="7"/>
       <c r="B445" s="3"/>
-      <c r="C445" s="10"/>
+      <c r="C445" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A446" s="10"/>
+      <c r="A446" s="7"/>
       <c r="B446" s="3"/>
-      <c r="C446" s="10"/>
+      <c r="C446" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A447" s="10"/>
+      <c r="A447" s="7"/>
       <c r="B447" s="3"/>
-      <c r="C447" s="10"/>
+      <c r="C447" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A448" s="10"/>
+      <c r="A448" s="7"/>
       <c r="B448" s="3"/>
-      <c r="C448" s="10"/>
+      <c r="C448" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A449" s="10"/>
+      <c r="A449" s="7"/>
       <c r="B449" s="3"/>
-      <c r="C449" s="10"/>
+      <c r="C449" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A450" s="10"/>
+      <c r="A450" s="7"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="10"/>
+      <c r="C450" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A451" s="10"/>
+      <c r="A451" s="7"/>
       <c r="B451" s="3"/>
-      <c r="C451" s="10"/>
+      <c r="C451" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A452" s="10"/>
+      <c r="A452" s="7"/>
       <c r="B452" s="3"/>
-      <c r="C452" s="10"/>
+      <c r="C452" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A453" s="10"/>
+      <c r="A453" s="7"/>
       <c r="B453" s="3"/>
-      <c r="C453" s="10"/>
+      <c r="C453" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A454" s="10"/>
+      <c r="A454" s="7"/>
       <c r="B454" s="3"/>
-      <c r="C454" s="10"/>
+      <c r="C454" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A455" s="10"/>
+      <c r="A455" s="7"/>
       <c r="B455" s="3"/>
-      <c r="C455" s="10"/>
+      <c r="C455" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A456" s="10"/>
+      <c r="A456" s="7"/>
       <c r="B456" s="3"/>
-      <c r="C456" s="10"/>
+      <c r="C456" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A457" s="10"/>
+      <c r="A457" s="7"/>
       <c r="B457" s="3"/>
-      <c r="C457" s="10"/>
+      <c r="C457" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A458" s="10"/>
+      <c r="A458" s="7"/>
       <c r="B458" s="3"/>
-      <c r="C458" s="10"/>
+      <c r="C458" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A459" s="10"/>
+      <c r="A459" s="7"/>
       <c r="B459" s="3"/>
-      <c r="C459" s="10"/>
+      <c r="C459" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A460" s="10"/>
+      <c r="A460" s="7"/>
       <c r="B460" s="3"/>
-      <c r="C460" s="10"/>
+      <c r="C460" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A461" s="10"/>
+      <c r="A461" s="7"/>
       <c r="B461" s="3"/>
-      <c r="C461" s="10"/>
+      <c r="C461" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A462" s="10"/>
+      <c r="A462" s="7"/>
       <c r="B462" s="3"/>
-      <c r="C462" s="10"/>
+      <c r="C462" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A463" s="10"/>
+      <c r="A463" s="7"/>
       <c r="B463" s="3"/>
-      <c r="C463" s="10"/>
+      <c r="C463" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A464" s="10"/>
+      <c r="A464" s="7"/>
       <c r="B464" s="3"/>
-      <c r="C464" s="10"/>
+      <c r="C464" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A465" s="10"/>
+      <c r="A465" s="7"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="10"/>
+      <c r="C465" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A466" s="10"/>
+      <c r="A466" s="7"/>
       <c r="B466" s="3"/>
-      <c r="C466" s="10"/>
+      <c r="C466" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A467" s="10"/>
+      <c r="A467" s="7"/>
       <c r="B467" s="3"/>
-      <c r="C467" s="10"/>
+      <c r="C467" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A468" s="10"/>
+      <c r="A468" s="7"/>
       <c r="B468" s="3"/>
-      <c r="C468" s="10"/>
+      <c r="C468" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A469" s="10"/>
+      <c r="A469" s="7"/>
       <c r="B469" s="3"/>
-      <c r="C469" s="10"/>
+      <c r="C469" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A470" s="10"/>
+      <c r="A470" s="7"/>
       <c r="B470" s="3"/>
-      <c r="C470" s="10"/>
+      <c r="C470" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A471" s="10"/>
+      <c r="A471" s="7"/>
       <c r="B471" s="3"/>
-      <c r="C471" s="10"/>
+      <c r="C471" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A472" s="10"/>
+      <c r="A472" s="7"/>
       <c r="B472" s="3"/>
-      <c r="C472" s="10"/>
+      <c r="C472" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A473" s="10"/>
+      <c r="A473" s="7"/>
       <c r="B473" s="3"/>
-      <c r="C473" s="10"/>
+      <c r="C473" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A474" s="10"/>
+      <c r="A474" s="7"/>
       <c r="B474" s="3"/>
-      <c r="C474" s="10"/>
+      <c r="C474" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A475" s="10"/>
+      <c r="A475" s="7"/>
       <c r="B475" s="3"/>
-      <c r="C475" s="10"/>
+      <c r="C475" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A476" s="10"/>
+      <c r="A476" s="7"/>
       <c r="B476" s="3"/>
-      <c r="C476" s="10"/>
+      <c r="C476" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A477" s="10"/>
+      <c r="A477" s="7"/>
       <c r="B477" s="3"/>
-      <c r="C477" s="10"/>
+      <c r="C477" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A478" s="10"/>
+      <c r="A478" s="7"/>
       <c r="B478" s="3"/>
-      <c r="C478" s="10"/>
+      <c r="C478" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A479" s="10"/>
+      <c r="A479" s="7"/>
       <c r="B479" s="3"/>
-      <c r="C479" s="10"/>
+      <c r="C479" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A480" s="10"/>
+      <c r="A480" s="7"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="10"/>
+      <c r="C480" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A481" s="10"/>
+      <c r="A481" s="7"/>
       <c r="B481" s="3"/>
-      <c r="C481" s="10"/>
+      <c r="C481" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A482" s="10"/>
+      <c r="A482" s="7"/>
       <c r="B482" s="3"/>
-      <c r="C482" s="10"/>
+      <c r="C482" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A483" s="10"/>
+      <c r="A483" s="7"/>
       <c r="B483" s="3"/>
-      <c r="C483" s="10"/>
+      <c r="C483" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A484" s="10"/>
+      <c r="A484" s="7"/>
       <c r="B484" s="3"/>
-      <c r="C484" s="10"/>
+      <c r="C484" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A485" s="10"/>
+      <c r="A485" s="7"/>
       <c r="B485" s="3"/>
-      <c r="C485" s="10"/>
+      <c r="C485" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A486" s="10"/>
+      <c r="A486" s="7"/>
       <c r="B486" s="3"/>
-      <c r="C486" s="10"/>
+      <c r="C486" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A487" s="10"/>
+      <c r="A487" s="7"/>
       <c r="B487" s="3"/>
-      <c r="C487" s="10"/>
+      <c r="C487" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A488" s="10"/>
+      <c r="A488" s="7"/>
       <c r="B488" s="3"/>
-      <c r="C488" s="10"/>
+      <c r="C488" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A489" s="10"/>
+      <c r="A489" s="7"/>
       <c r="B489" s="3"/>
-      <c r="C489" s="10"/>
+      <c r="C489" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A490" s="10"/>
+      <c r="A490" s="7"/>
       <c r="B490" s="3"/>
-      <c r="C490" s="10"/>
+      <c r="C490" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A491" s="10"/>
+      <c r="A491" s="7"/>
       <c r="B491" s="3"/>
-      <c r="C491" s="10"/>
+      <c r="C491" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A492" s="10"/>
+      <c r="A492" s="7"/>
       <c r="B492" s="3"/>
-      <c r="C492" s="10"/>
+      <c r="C492" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A493" s="10"/>
+      <c r="A493" s="7"/>
       <c r="B493" s="3"/>
-      <c r="C493" s="10"/>
+      <c r="C493" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A494" s="10"/>
+      <c r="A494" s="7"/>
       <c r="B494" s="3"/>
-      <c r="C494" s="10"/>
+      <c r="C494" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A495" s="10"/>
+      <c r="A495" s="7"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="10"/>
+      <c r="C495" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A496" s="10"/>
+      <c r="A496" s="7"/>
       <c r="B496" s="3"/>
-      <c r="C496" s="10"/>
+      <c r="C496" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A497" s="10"/>
+      <c r="A497" s="7"/>
       <c r="B497" s="3"/>
-      <c r="C497" s="10"/>
+      <c r="C497" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A498" s="10"/>
+      <c r="A498" s="7"/>
       <c r="B498" s="3"/>
-      <c r="C498" s="10"/>
+      <c r="C498" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A499" s="10"/>
+      <c r="A499" s="7"/>
       <c r="B499" s="3"/>
-      <c r="C499" s="10"/>
+      <c r="C499" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A500" s="10"/>
+      <c r="A500" s="7"/>
       <c r="B500" s="3"/>
-      <c r="C500" s="10"/>
+      <c r="C500" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A501" s="10"/>
+      <c r="A501" s="7"/>
       <c r="B501" s="3"/>
-      <c r="C501" s="10"/>
+      <c r="C501" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A502" s="10"/>
+      <c r="A502" s="7"/>
       <c r="B502" s="3"/>
-      <c r="C502" s="10"/>
+      <c r="C502" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A503" s="10"/>
+      <c r="A503" s="7"/>
       <c r="B503" s="3"/>
-      <c r="C503" s="10"/>
+      <c r="C503" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A504" s="10"/>
+      <c r="A504" s="7"/>
       <c r="B504" s="3"/>
-      <c r="C504" s="10"/>
+      <c r="C504" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A505" s="10"/>
+      <c r="A505" s="7"/>
       <c r="B505" s="3"/>
-      <c r="C505" s="10"/>
+      <c r="C505" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A506" s="10"/>
+      <c r="A506" s="7"/>
       <c r="B506" s="3"/>
-      <c r="C506" s="10"/>
+      <c r="C506" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A507" s="10"/>
+      <c r="A507" s="7"/>
       <c r="B507" s="3"/>
-      <c r="C507" s="10"/>
+      <c r="C507" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A508" s="10"/>
+      <c r="A508" s="7"/>
       <c r="B508" s="3"/>
-      <c r="C508" s="10"/>
+      <c r="C508" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A509" s="10"/>
+      <c r="A509" s="7"/>
       <c r="B509" s="3"/>
-      <c r="C509" s="10"/>
+      <c r="C509" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A510" s="10"/>
+      <c r="A510" s="7"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="10"/>
+      <c r="C510" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A511" s="10"/>
+      <c r="A511" s="7"/>
       <c r="B511" s="3"/>
-      <c r="C511" s="10"/>
+      <c r="C511" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A512" s="10"/>
+      <c r="A512" s="7"/>
       <c r="B512" s="3"/>
-      <c r="C512" s="10"/>
+      <c r="C512" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A513" s="10"/>
+      <c r="A513" s="7"/>
       <c r="B513" s="3"/>
-      <c r="C513" s="10"/>
+      <c r="C513" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A514" s="10"/>
+      <c r="A514" s="7"/>
       <c r="B514" s="3"/>
-      <c r="C514" s="10"/>
+      <c r="C514" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A515" s="10"/>
+      <c r="A515" s="7"/>
       <c r="B515" s="3"/>
-      <c r="C515" s="10"/>
+      <c r="C515" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A516" s="10"/>
+      <c r="A516" s="7"/>
       <c r="B516" s="3"/>
-      <c r="C516" s="10"/>
+      <c r="C516" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A517" s="10"/>
+      <c r="A517" s="7"/>
       <c r="B517" s="3"/>
-      <c r="C517" s="10"/>
+      <c r="C517" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A518" s="10"/>
+      <c r="A518" s="7"/>
       <c r="B518" s="3"/>
-      <c r="C518" s="10"/>
+      <c r="C518" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A519" s="10"/>
+      <c r="A519" s="7"/>
       <c r="B519" s="3"/>
-      <c r="C519" s="10"/>
+      <c r="C519" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A520" s="10"/>
+      <c r="A520" s="7"/>
       <c r="B520" s="3"/>
-      <c r="C520" s="10"/>
+      <c r="C520" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A521" s="10"/>
+      <c r="A521" s="7"/>
       <c r="B521" s="3"/>
-      <c r="C521" s="10"/>
+      <c r="C521" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A522" s="10"/>
+      <c r="A522" s="7"/>
       <c r="B522" s="3"/>
-      <c r="C522" s="10"/>
+      <c r="C522" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A523" s="10"/>
+      <c r="A523" s="7"/>
       <c r="B523" s="3"/>
-      <c r="C523" s="10"/>
+      <c r="C523" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A524" s="10"/>
+      <c r="A524" s="7"/>
       <c r="B524" s="3"/>
-      <c r="C524" s="10"/>
+      <c r="C524" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A525" s="10"/>
+      <c r="A525" s="7"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="10"/>
+      <c r="C525" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A526" s="10"/>
+      <c r="A526" s="7"/>
       <c r="B526" s="3"/>
-      <c r="C526" s="10"/>
+      <c r="C526" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A527" s="10"/>
+      <c r="A527" s="7"/>
       <c r="B527" s="3"/>
-      <c r="C527" s="10"/>
+      <c r="C527" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A528" s="10"/>
+      <c r="A528" s="7"/>
       <c r="B528" s="3"/>
-      <c r="C528" s="10"/>
+      <c r="C528" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A529" s="10"/>
+      <c r="A529" s="7"/>
       <c r="B529" s="3"/>
-      <c r="C529" s="10"/>
+      <c r="C529" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A530" s="10"/>
+      <c r="A530" s="7"/>
       <c r="B530" s="3"/>
-      <c r="C530" s="10"/>
+      <c r="C530" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A531" s="10"/>
+      <c r="A531" s="7"/>
       <c r="B531" s="3"/>
-      <c r="C531" s="10"/>
+      <c r="C531" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A532" s="10"/>
+      <c r="A532" s="7"/>
       <c r="B532" s="3"/>
-      <c r="C532" s="10"/>
+      <c r="C532" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A533" s="10"/>
+      <c r="A533" s="7"/>
       <c r="B533" s="3"/>
-      <c r="C533" s="10"/>
+      <c r="C533" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A534" s="10"/>
+      <c r="A534" s="7"/>
       <c r="B534" s="3"/>
-      <c r="C534" s="10"/>
+      <c r="C534" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A535" s="10"/>
+      <c r="A535" s="7"/>
       <c r="B535" s="3"/>
-      <c r="C535" s="10"/>
+      <c r="C535" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A536" s="10"/>
+      <c r="A536" s="7"/>
       <c r="B536" s="3"/>
-      <c r="C536" s="10"/>
+      <c r="C536" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A537" s="10"/>
+      <c r="A537" s="7"/>
       <c r="B537" s="3"/>
-      <c r="C537" s="10"/>
+      <c r="C537" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A538" s="10"/>
+      <c r="A538" s="7"/>
       <c r="B538" s="3"/>
-      <c r="C538" s="10"/>
+      <c r="C538" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A539" s="10"/>
+      <c r="A539" s="7"/>
       <c r="B539" s="3"/>
-      <c r="C539" s="10"/>
+      <c r="C539" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A540" s="10"/>
+      <c r="A540" s="7"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="10"/>
+      <c r="C540" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A541" s="10"/>
+      <c r="A541" s="7"/>
       <c r="B541" s="3"/>
-      <c r="C541" s="10"/>
+      <c r="C541" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A542" s="10"/>
+      <c r="A542" s="7"/>
       <c r="B542" s="3"/>
-      <c r="C542" s="10"/>
+      <c r="C542" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A543" s="10"/>
+      <c r="A543" s="7"/>
       <c r="B543" s="3"/>
-      <c r="C543" s="10"/>
+      <c r="C543" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A544" s="10"/>
+      <c r="A544" s="7"/>
       <c r="B544" s="3"/>
-      <c r="C544" s="10"/>
+      <c r="C544" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A545" s="10"/>
+      <c r="A545" s="7"/>
       <c r="B545" s="3"/>
-      <c r="C545" s="10"/>
+      <c r="C545" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A546" s="10"/>
+      <c r="A546" s="7"/>
       <c r="B546" s="3"/>
-      <c r="C546" s="10"/>
+      <c r="C546" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A547" s="10"/>
+      <c r="A547" s="7"/>
       <c r="B547" s="3"/>
-      <c r="C547" s="10"/>
+      <c r="C547" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A548" s="10"/>
+      <c r="A548" s="7"/>
       <c r="B548" s="3"/>
-      <c r="C548" s="10"/>
+      <c r="C548" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A549" s="10"/>
+      <c r="A549" s="7"/>
       <c r="B549" s="3"/>
-      <c r="C549" s="10"/>
+      <c r="C549" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A550" s="10"/>
+      <c r="A550" s="7"/>
       <c r="B550" s="3"/>
-      <c r="C550" s="10"/>
+      <c r="C550" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A551" s="10"/>
+      <c r="A551" s="7"/>
       <c r="B551" s="3"/>
-      <c r="C551" s="10"/>
+      <c r="C551" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A552" s="10"/>
+      <c r="A552" s="7"/>
       <c r="B552" s="3"/>
-      <c r="C552" s="10"/>
+      <c r="C552" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A553" s="10"/>
+      <c r="A553" s="7"/>
       <c r="B553" s="3"/>
-      <c r="C553" s="10"/>
+      <c r="C553" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A554" s="10"/>
+      <c r="A554" s="7"/>
       <c r="B554" s="3"/>
-      <c r="C554" s="10"/>
+      <c r="C554" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A555" s="10"/>
+      <c r="A555" s="7"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="10"/>
+      <c r="C555" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A556" s="10"/>
+      <c r="A556" s="7"/>
       <c r="B556" s="3"/>
-      <c r="C556" s="10"/>
+      <c r="C556" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A557" s="10"/>
+      <c r="A557" s="7"/>
       <c r="B557" s="3"/>
-      <c r="C557" s="10"/>
+      <c r="C557" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A558" s="10"/>
+      <c r="A558" s="7"/>
       <c r="B558" s="3"/>
-      <c r="C558" s="10"/>
+      <c r="C558" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A559" s="10"/>
+      <c r="A559" s="7"/>
       <c r="B559" s="3"/>
-      <c r="C559" s="10"/>
+      <c r="C559" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A560" s="10"/>
+      <c r="A560" s="7"/>
       <c r="B560" s="3"/>
-      <c r="C560" s="10"/>
+      <c r="C560" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A561" s="10"/>
+      <c r="A561" s="7"/>
       <c r="B561" s="3"/>
-      <c r="C561" s="10"/>
+      <c r="C561" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A562" s="10"/>
+      <c r="A562" s="7"/>
       <c r="B562" s="3"/>
-      <c r="C562" s="10"/>
+      <c r="C562" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A563" s="10"/>
+      <c r="A563" s="7"/>
       <c r="B563" s="3"/>
-      <c r="C563" s="10"/>
+      <c r="C563" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A564" s="10"/>
+      <c r="A564" s="7"/>
       <c r="B564" s="3"/>
-      <c r="C564" s="10"/>
+      <c r="C564" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A565" s="10"/>
+      <c r="A565" s="7"/>
       <c r="B565" s="3"/>
-      <c r="C565" s="10"/>
+      <c r="C565" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A566" s="10"/>
+      <c r="A566" s="7"/>
       <c r="B566" s="3"/>
-      <c r="C566" s="10"/>
+      <c r="C566" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A567" s="10"/>
+      <c r="A567" s="7"/>
       <c r="B567" s="3"/>
-      <c r="C567" s="10"/>
+      <c r="C567" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A568" s="10"/>
+      <c r="A568" s="7"/>
       <c r="B568" s="3"/>
-      <c r="C568" s="10"/>
+      <c r="C568" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A569" s="10"/>
+      <c r="A569" s="7"/>
       <c r="B569" s="3"/>
-      <c r="C569" s="10"/>
+      <c r="C569" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A570" s="10"/>
+      <c r="A570" s="7"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="10"/>
+      <c r="C570" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A571" s="10"/>
+      <c r="A571" s="7"/>
       <c r="B571" s="3"/>
-      <c r="C571" s="10"/>
+      <c r="C571" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A572" s="10"/>
+      <c r="A572" s="7"/>
       <c r="B572" s="3"/>
-      <c r="C572" s="10"/>
+      <c r="C572" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A573" s="10"/>
+      <c r="A573" s="7"/>
       <c r="B573" s="3"/>
-      <c r="C573" s="10"/>
+      <c r="C573" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A574" s="10"/>
+      <c r="A574" s="7"/>
       <c r="B574" s="3"/>
-      <c r="C574" s="10"/>
+      <c r="C574" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A575" s="10"/>
+      <c r="A575" s="7"/>
       <c r="B575" s="3"/>
-      <c r="C575" s="10"/>
+      <c r="C575" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A576" s="10"/>
+      <c r="A576" s="7"/>
       <c r="B576" s="3"/>
-      <c r="C576" s="10"/>
+      <c r="C576" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A577" s="10"/>
+      <c r="A577" s="7"/>
       <c r="B577" s="3"/>
-      <c r="C577" s="10"/>
+      <c r="C577" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A578" s="10"/>
+      <c r="A578" s="7"/>
       <c r="B578" s="3"/>
-      <c r="C578" s="10"/>
+      <c r="C578" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A579" s="10"/>
+      <c r="A579" s="7"/>
       <c r="B579" s="3"/>
-      <c r="C579" s="10"/>
+      <c r="C579" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A580" s="10"/>
+      <c r="A580" s="7"/>
       <c r="B580" s="3"/>
-      <c r="C580" s="10"/>
+      <c r="C580" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A581" s="10"/>
+      <c r="A581" s="7"/>
       <c r="B581" s="3"/>
-      <c r="C581" s="10"/>
+      <c r="C581" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A582" s="10"/>
+      <c r="A582" s="7"/>
       <c r="B582" s="3"/>
-      <c r="C582" s="10"/>
+      <c r="C582" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A583" s="10"/>
+      <c r="A583" s="7"/>
       <c r="B583" s="3"/>
-      <c r="C583" s="10"/>
+      <c r="C583" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A584" s="10"/>
+      <c r="A584" s="7"/>
       <c r="B584" s="3"/>
-      <c r="C584" s="10"/>
+      <c r="C584" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A585" s="10"/>
+      <c r="A585" s="7"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="10"/>
+      <c r="C585" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A586" s="10"/>
+      <c r="A586" s="7"/>
       <c r="B586" s="3"/>
-      <c r="C586" s="10"/>
+      <c r="C586" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A587" s="10"/>
+      <c r="A587" s="7"/>
       <c r="B587" s="3"/>
-      <c r="C587" s="10"/>
+      <c r="C587" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A588" s="10"/>
+      <c r="A588" s="7"/>
       <c r="B588" s="3"/>
-      <c r="C588" s="10"/>
+      <c r="C588" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A589" s="10"/>
+      <c r="A589" s="7"/>
       <c r="B589" s="3"/>
-      <c r="C589" s="10"/>
+      <c r="C589" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A590" s="10"/>
+      <c r="A590" s="7"/>
       <c r="B590" s="3"/>
-      <c r="C590" s="10"/>
+      <c r="C590" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A591" s="10"/>
+      <c r="A591" s="7"/>
       <c r="B591" s="3"/>
-      <c r="C591" s="10"/>
+      <c r="C591" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A592" s="10"/>
+      <c r="A592" s="7"/>
       <c r="B592" s="3"/>
-      <c r="C592" s="10"/>
+      <c r="C592" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A593" s="10"/>
+      <c r="A593" s="7"/>
       <c r="B593" s="3"/>
-      <c r="C593" s="10"/>
+      <c r="C593" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A594" s="10"/>
+      <c r="A594" s="7"/>
       <c r="B594" s="3"/>
-      <c r="C594" s="10"/>
+      <c r="C594" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A595" s="10"/>
+      <c r="A595" s="7"/>
       <c r="B595" s="3"/>
-      <c r="C595" s="10"/>
+      <c r="C595" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A596" s="10"/>
+      <c r="A596" s="7"/>
       <c r="B596" s="3"/>
-      <c r="C596" s="10"/>
+      <c r="C596" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A597" s="10"/>
+      <c r="A597" s="7"/>
       <c r="B597" s="3"/>
-      <c r="C597" s="10"/>
+      <c r="C597" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A598" s="10"/>
+      <c r="A598" s="7"/>
       <c r="B598" s="3"/>
-      <c r="C598" s="10"/>
+      <c r="C598" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A599" s="10"/>
+      <c r="A599" s="7"/>
       <c r="B599" s="3"/>
-      <c r="C599" s="10"/>
+      <c r="C599" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A600" s="10"/>
+      <c r="A600" s="7"/>
       <c r="B600" s="3"/>
-      <c r="C600" s="10"/>
+      <c r="C600" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A601" s="10"/>
+      <c r="A601" s="7"/>
       <c r="B601" s="3"/>
-      <c r="C601" s="10"/>
+      <c r="C601" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A602" s="10"/>
+      <c r="A602" s="7"/>
       <c r="B602" s="3"/>
-      <c r="C602" s="10"/>
+      <c r="C602" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A603" s="10"/>
+      <c r="A603" s="7"/>
       <c r="B603" s="3"/>
-      <c r="C603" s="10"/>
+      <c r="C603" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A604" s="10"/>
+      <c r="A604" s="7"/>
       <c r="B604" s="3"/>
-      <c r="C604" s="10"/>
+      <c r="C604" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A605" s="10"/>
+      <c r="A605" s="7"/>
       <c r="B605" s="3"/>
-      <c r="C605" s="10"/>
+      <c r="C605" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A606" s="10"/>
+      <c r="A606" s="7"/>
       <c r="B606" s="3"/>
-      <c r="C606" s="10"/>
+      <c r="C606" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A607" s="10"/>
+      <c r="A607" s="7"/>
       <c r="B607" s="3"/>
-      <c r="C607" s="10"/>
+      <c r="C607" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A608" s="10"/>
+      <c r="A608" s="7"/>
       <c r="B608" s="3"/>
-      <c r="C608" s="10"/>
+      <c r="C608" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A609" s="10"/>
+      <c r="A609" s="7"/>
       <c r="B609" s="3"/>
-      <c r="C609" s="10"/>
+      <c r="C609" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A610" s="10"/>
+      <c r="A610" s="7"/>
       <c r="B610" s="3"/>
-      <c r="C610" s="10"/>
+      <c r="C610" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A611" s="10"/>
+      <c r="A611" s="7"/>
       <c r="B611" s="3"/>
-      <c r="C611" s="10"/>
+      <c r="C611" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A612" s="10"/>
+      <c r="A612" s="7"/>
       <c r="B612" s="3"/>
-      <c r="C612" s="10"/>
+      <c r="C612" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A613" s="10"/>
+      <c r="A613" s="7"/>
       <c r="B613" s="3"/>
-      <c r="C613" s="10"/>
+      <c r="C613" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A614" s="10"/>
+      <c r="A614" s="7"/>
       <c r="B614" s="3"/>
-      <c r="C614" s="10"/>
+      <c r="C614" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A615" s="10"/>
+      <c r="A615" s="7"/>
       <c r="B615" s="3"/>
-      <c r="C615" s="10"/>
+      <c r="C615" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A616" s="10"/>
+      <c r="A616" s="7"/>
       <c r="B616" s="3"/>
-      <c r="C616" s="10"/>
+      <c r="C616" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A617" s="10"/>
+      <c r="A617" s="7"/>
       <c r="B617" s="3"/>
-      <c r="C617" s="10"/>
+      <c r="C617" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A618" s="10"/>
+      <c r="A618" s="7"/>
       <c r="B618" s="3"/>
-      <c r="C618" s="10"/>
+      <c r="C618" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A619" s="10"/>
+      <c r="A619" s="7"/>
       <c r="B619" s="3"/>
-      <c r="C619" s="10"/>
+      <c r="C619" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A620" s="10"/>
+      <c r="A620" s="7"/>
       <c r="B620" s="3"/>
-      <c r="C620" s="10"/>
+      <c r="C620" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A621" s="10"/>
+      <c r="A621" s="7"/>
       <c r="B621" s="3"/>
-      <c r="C621" s="10"/>
+      <c r="C621" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A622" s="10"/>
+      <c r="A622" s="7"/>
       <c r="B622" s="3"/>
-      <c r="C622" s="10"/>
+      <c r="C622" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A623" s="10"/>
+      <c r="A623" s="7"/>
       <c r="B623" s="3"/>
-      <c r="C623" s="10"/>
+      <c r="C623" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A624" s="10"/>
+      <c r="A624" s="7"/>
       <c r="B624" s="3"/>
-      <c r="C624" s="10"/>
+      <c r="C624" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A625" s="10"/>
+      <c r="A625" s="7"/>
       <c r="B625" s="3"/>
-      <c r="C625" s="10"/>
+      <c r="C625" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A626" s="10"/>
+      <c r="A626" s="7"/>
       <c r="B626" s="3"/>
-      <c r="C626" s="10"/>
+      <c r="C626" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A627" s="10"/>
+      <c r="A627" s="7"/>
       <c r="B627" s="3"/>
-      <c r="C627" s="10"/>
+      <c r="C627" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A628" s="10"/>
+      <c r="A628" s="7"/>
       <c r="B628" s="3"/>
-      <c r="C628" s="10"/>
+      <c r="C628" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A629" s="10"/>
+      <c r="A629" s="7"/>
       <c r="B629" s="3"/>
-      <c r="C629" s="10"/>
+      <c r="C629" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A630" s="10"/>
+      <c r="A630" s="7"/>
       <c r="B630" s="3"/>
-      <c r="C630" s="10"/>
+      <c r="C630" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A631" s="10"/>
+      <c r="A631" s="7"/>
       <c r="B631" s="3"/>
-      <c r="C631" s="10"/>
+      <c r="C631" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A632" s="10"/>
+      <c r="A632" s="7"/>
       <c r="B632" s="3"/>
-      <c r="C632" s="10"/>
+      <c r="C632" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A633" s="10"/>
+      <c r="A633" s="7"/>
       <c r="B633" s="3"/>
-      <c r="C633" s="10"/>
+      <c r="C633" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A634" s="10"/>
+      <c r="A634" s="7"/>
       <c r="B634" s="3"/>
-      <c r="C634" s="10"/>
+      <c r="C634" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A635" s="10"/>
+      <c r="A635" s="7"/>
       <c r="B635" s="3"/>
-      <c r="C635" s="10"/>
+      <c r="C635" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A636" s="10"/>
+      <c r="A636" s="7"/>
       <c r="B636" s="3"/>
-      <c r="C636" s="10"/>
+      <c r="C636" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A637" s="10"/>
+      <c r="A637" s="7"/>
       <c r="B637" s="3"/>
-      <c r="C637" s="10"/>
+      <c r="C637" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A638" s="10"/>
+      <c r="A638" s="7"/>
       <c r="B638" s="3"/>
-      <c r="C638" s="10"/>
+      <c r="C638" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A639" s="10"/>
+      <c r="A639" s="7"/>
       <c r="B639" s="3"/>
-      <c r="C639" s="10"/>
+      <c r="C639" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A640" s="10"/>
+      <c r="A640" s="7"/>
       <c r="B640" s="3"/>
-      <c r="C640" s="10"/>
+      <c r="C640" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A641" s="10"/>
+      <c r="A641" s="7"/>
       <c r="B641" s="3"/>
-      <c r="C641" s="10"/>
+      <c r="C641" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A642" s="10"/>
+      <c r="A642" s="7"/>
       <c r="B642" s="3"/>
-      <c r="C642" s="10"/>
+      <c r="C642" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A643" s="10"/>
+      <c r="A643" s="7"/>
       <c r="B643" s="3"/>
-      <c r="C643" s="10"/>
+      <c r="C643" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A644" s="10"/>
+      <c r="A644" s="7"/>
       <c r="B644" s="3"/>
-      <c r="C644" s="10"/>
+      <c r="C644" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A645" s="10"/>
+      <c r="A645" s="7"/>
       <c r="B645" s="3"/>
-      <c r="C645" s="10"/>
+      <c r="C645" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A646" s="10"/>
+      <c r="A646" s="7"/>
       <c r="B646" s="3"/>
-      <c r="C646" s="10"/>
+      <c r="C646" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A647" s="10"/>
+      <c r="A647" s="7"/>
       <c r="B647" s="3"/>
-      <c r="C647" s="10"/>
+      <c r="C647" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A648" s="10"/>
+      <c r="A648" s="7"/>
       <c r="B648" s="3"/>
-      <c r="C648" s="10"/>
+      <c r="C648" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A649" s="10"/>
+      <c r="A649" s="7"/>
       <c r="B649" s="3"/>
-      <c r="C649" s="10"/>
+      <c r="C649" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A650" s="10"/>
+      <c r="A650" s="7"/>
       <c r="B650" s="3"/>
-      <c r="C650" s="10"/>
+      <c r="C650" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A651" s="10"/>
+      <c r="A651" s="7"/>
       <c r="B651" s="3"/>
-      <c r="C651" s="10"/>
+      <c r="C651" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A652" s="10"/>
+      <c r="A652" s="7"/>
       <c r="B652" s="3"/>
-      <c r="C652" s="10"/>
+      <c r="C652" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A653" s="10"/>
+      <c r="A653" s="7"/>
       <c r="B653" s="3"/>
-      <c r="C653" s="10"/>
+      <c r="C653" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A654" s="10"/>
+      <c r="A654" s="7"/>
       <c r="B654" s="3"/>
-      <c r="C654" s="10"/>
+      <c r="C654" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A655" s="10"/>
+      <c r="A655" s="7"/>
       <c r="B655" s="3"/>
-      <c r="C655" s="10"/>
+      <c r="C655" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A656" s="10"/>
+      <c r="A656" s="7"/>
       <c r="B656" s="3"/>
-      <c r="C656" s="10"/>
+      <c r="C656" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A657" s="10"/>
+      <c r="A657" s="7"/>
       <c r="B657" s="3"/>
-      <c r="C657" s="10"/>
+      <c r="C657" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A658" s="10"/>
+      <c r="A658" s="7"/>
       <c r="B658" s="3"/>
-      <c r="C658" s="10"/>
+      <c r="C658" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A659" s="10"/>
+      <c r="A659" s="7"/>
       <c r="B659" s="3"/>
-      <c r="C659" s="10"/>
+      <c r="C659" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A660" s="10"/>
+      <c r="A660" s="7"/>
       <c r="B660" s="3"/>
-      <c r="C660" s="10"/>
+      <c r="C660" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A661" s="10"/>
+      <c r="A661" s="7"/>
       <c r="B661" s="3"/>
-      <c r="C661" s="10"/>
+      <c r="C661" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A662" s="10"/>
+      <c r="A662" s="7"/>
       <c r="B662" s="3"/>
-      <c r="C662" s="10"/>
+      <c r="C662" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A663" s="10"/>
+      <c r="A663" s="7"/>
       <c r="B663" s="3"/>
-      <c r="C663" s="10"/>
+      <c r="C663" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A664" s="10"/>
+      <c r="A664" s="7"/>
       <c r="B664" s="3"/>
-      <c r="C664" s="10"/>
+      <c r="C664" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A665" s="10"/>
+      <c r="A665" s="7"/>
       <c r="B665" s="3"/>
-      <c r="C665" s="10"/>
+      <c r="C665" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A666" s="10"/>
+      <c r="A666" s="7"/>
       <c r="B666" s="3"/>
-      <c r="C666" s="10"/>
+      <c r="C666" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A667" s="10"/>
+      <c r="A667" s="7"/>
       <c r="B667" s="3"/>
-      <c r="C667" s="10"/>
+      <c r="C667" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A668" s="10"/>
+      <c r="A668" s="7"/>
       <c r="B668" s="3"/>
-      <c r="C668" s="10"/>
+      <c r="C668" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A669" s="10"/>
+      <c r="A669" s="7"/>
       <c r="B669" s="3"/>
-      <c r="C669" s="10"/>
+      <c r="C669" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A670" s="10"/>
+      <c r="A670" s="7"/>
       <c r="B670" s="3"/>
-      <c r="C670" s="10"/>
+      <c r="C670" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A671" s="10"/>
+      <c r="A671" s="7"/>
       <c r="B671" s="3"/>
-      <c r="C671" s="10"/>
+      <c r="C671" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A672" s="10"/>
+      <c r="A672" s="7"/>
       <c r="B672" s="3"/>
-      <c r="C672" s="10"/>
+      <c r="C672" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A673" s="10"/>
+      <c r="A673" s="7"/>
       <c r="B673" s="3"/>
-      <c r="C673" s="10"/>
+      <c r="C673" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A674" s="10"/>
+      <c r="A674" s="7"/>
       <c r="B674" s="3"/>
-      <c r="C674" s="10"/>
+      <c r="C674" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A675" s="10"/>
+      <c r="A675" s="7"/>
       <c r="B675" s="3"/>
-      <c r="C675" s="10"/>
+      <c r="C675" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A676" s="10"/>
+      <c r="A676" s="7"/>
       <c r="B676" s="3"/>
-      <c r="C676" s="10"/>
+      <c r="C676" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A677" s="10"/>
+      <c r="A677" s="7"/>
       <c r="B677" s="3"/>
-      <c r="C677" s="10"/>
+      <c r="C677" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A678" s="10"/>
+      <c r="A678" s="7"/>
       <c r="B678" s="3"/>
-      <c r="C678" s="10"/>
+      <c r="C678" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A679" s="10"/>
+      <c r="A679" s="7"/>
       <c r="B679" s="3"/>
-      <c r="C679" s="10"/>
+      <c r="C679" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A680" s="10"/>
+      <c r="A680" s="7"/>
       <c r="B680" s="3"/>
-      <c r="C680" s="10"/>
+      <c r="C680" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A681" s="10"/>
+      <c r="A681" s="7"/>
       <c r="B681" s="3"/>
-      <c r="C681" s="10"/>
+      <c r="C681" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A682" s="10"/>
+      <c r="A682" s="7"/>
       <c r="B682" s="3"/>
-      <c r="C682" s="10"/>
+      <c r="C682" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A683" s="10"/>
+      <c r="A683" s="7"/>
       <c r="B683" s="3"/>
-      <c r="C683" s="10"/>
+      <c r="C683" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A684" s="10"/>
+      <c r="A684" s="7"/>
       <c r="B684" s="3"/>
-      <c r="C684" s="10"/>
+      <c r="C684" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A685" s="10"/>
+      <c r="A685" s="7"/>
       <c r="B685" s="3"/>
-      <c r="C685" s="10"/>
+      <c r="C685" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A686" s="10"/>
+      <c r="A686" s="7"/>
       <c r="B686" s="3"/>
-      <c r="C686" s="10"/>
+      <c r="C686" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A687" s="10"/>
+      <c r="A687" s="7"/>
       <c r="B687" s="3"/>
-      <c r="C687" s="10"/>
+      <c r="C687" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A688" s="10"/>
+      <c r="A688" s="7"/>
       <c r="B688" s="3"/>
-      <c r="C688" s="10"/>
+      <c r="C688" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A689" s="10"/>
+      <c r="A689" s="7"/>
       <c r="B689" s="3"/>
-      <c r="C689" s="10"/>
+      <c r="C689" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A690" s="10"/>
+      <c r="A690" s="7"/>
       <c r="B690" s="3"/>
-      <c r="C690" s="10"/>
+      <c r="C690" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A691" s="10"/>
+      <c r="A691" s="7"/>
       <c r="B691" s="3"/>
-      <c r="C691" s="10"/>
+      <c r="C691" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A692" s="10"/>
+      <c r="A692" s="7"/>
       <c r="B692" s="3"/>
-      <c r="C692" s="10"/>
+      <c r="C692" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A693" s="10"/>
+      <c r="A693" s="7"/>
       <c r="B693" s="3"/>
-      <c r="C693" s="10"/>
+      <c r="C693" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A694" s="10"/>
+      <c r="A694" s="7"/>
       <c r="B694" s="3"/>
-      <c r="C694" s="10"/>
+      <c r="C694" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A695" s="10"/>
+      <c r="A695" s="7"/>
       <c r="B695" s="3"/>
-      <c r="C695" s="10"/>
+      <c r="C695" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A696" s="10"/>
+      <c r="A696" s="7"/>
       <c r="B696" s="3"/>
-      <c r="C696" s="10"/>
+      <c r="C696" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A697" s="10"/>
+      <c r="A697" s="7"/>
       <c r="B697" s="3"/>
-      <c r="C697" s="10"/>
+      <c r="C697" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A698" s="10"/>
+      <c r="A698" s="7"/>
       <c r="B698" s="3"/>
-      <c r="C698" s="10"/>
+      <c r="C698" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A699" s="10"/>
+      <c r="A699" s="7"/>
       <c r="B699" s="3"/>
-      <c r="C699" s="10"/>
+      <c r="C699" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A700" s="10"/>
+      <c r="A700" s="7"/>
       <c r="B700" s="3"/>
-      <c r="C700" s="10"/>
+      <c r="C700" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A701" s="10"/>
+      <c r="A701" s="7"/>
       <c r="B701" s="3"/>
-      <c r="C701" s="10"/>
+      <c r="C701" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A702" s="10"/>
+      <c r="A702" s="7"/>
       <c r="B702" s="3"/>
-      <c r="C702" s="10"/>
+      <c r="C702" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A703" s="10"/>
+      <c r="A703" s="7"/>
       <c r="B703" s="3"/>
-      <c r="C703" s="10"/>
+      <c r="C703" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A704" s="10"/>
+      <c r="A704" s="7"/>
       <c r="B704" s="3"/>
-      <c r="C704" s="10"/>
+      <c r="C704" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A705" s="10"/>
+      <c r="A705" s="7"/>
       <c r="B705" s="3"/>
-      <c r="C705" s="10"/>
+      <c r="C705" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A706" s="10"/>
+      <c r="A706" s="7"/>
       <c r="B706" s="3"/>
-      <c r="C706" s="10"/>
+      <c r="C706" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A707" s="10"/>
+      <c r="A707" s="7"/>
       <c r="B707" s="3"/>
-      <c r="C707" s="10"/>
+      <c r="C707" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A708" s="10"/>
+      <c r="A708" s="7"/>
       <c r="B708" s="3"/>
-      <c r="C708" s="10"/>
+      <c r="C708" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A709" s="10"/>
+      <c r="A709" s="7"/>
       <c r="B709" s="3"/>
-      <c r="C709" s="10"/>
+      <c r="C709" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A710" s="10"/>
+      <c r="A710" s="7"/>
       <c r="B710" s="3"/>
-      <c r="C710" s="10"/>
+      <c r="C710" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A711" s="10"/>
+      <c r="A711" s="7"/>
       <c r="B711" s="3"/>
-      <c r="C711" s="10"/>
+      <c r="C711" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A712" s="10"/>
+      <c r="A712" s="7"/>
       <c r="B712" s="3"/>
-      <c r="C712" s="10"/>
+      <c r="C712" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A713" s="10"/>
+      <c r="A713" s="7"/>
       <c r="B713" s="3"/>
-      <c r="C713" s="10"/>
+      <c r="C713" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A714" s="10"/>
+      <c r="A714" s="7"/>
       <c r="B714" s="3"/>
-      <c r="C714" s="10"/>
+      <c r="C714" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A715" s="10"/>
+      <c r="A715" s="7"/>
       <c r="B715" s="3"/>
-      <c r="C715" s="10"/>
+      <c r="C715" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A716" s="10"/>
+      <c r="A716" s="7"/>
       <c r="B716" s="3"/>
-      <c r="C716" s="10"/>
+      <c r="C716" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A717" s="10"/>
+      <c r="A717" s="7"/>
       <c r="B717" s="3"/>
-      <c r="C717" s="10"/>
+      <c r="C717" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A718" s="10"/>
+      <c r="A718" s="7"/>
       <c r="B718" s="3"/>
-      <c r="C718" s="10"/>
+      <c r="C718" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A719" s="10"/>
+      <c r="A719" s="7"/>
       <c r="B719" s="3"/>
-      <c r="C719" s="10"/>
+      <c r="C719" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A720" s="10"/>
+      <c r="A720" s="7"/>
       <c r="B720" s="3"/>
-      <c r="C720" s="10"/>
+      <c r="C720" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A721" s="10"/>
+      <c r="A721" s="7"/>
       <c r="B721" s="3"/>
-      <c r="C721" s="10"/>
+      <c r="C721" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A722" s="10"/>
+      <c r="A722" s="7"/>
       <c r="B722" s="3"/>
-      <c r="C722" s="10"/>
+      <c r="C722" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A723" s="10"/>
+      <c r="A723" s="7"/>
       <c r="B723" s="3"/>
-      <c r="C723" s="10"/>
+      <c r="C723" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A724" s="10"/>
+      <c r="A724" s="7"/>
       <c r="B724" s="3"/>
-      <c r="C724" s="10"/>
+      <c r="C724" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A725" s="10"/>
+      <c r="A725" s="7"/>
       <c r="B725" s="3"/>
-      <c r="C725" s="10"/>
+      <c r="C725" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A726" s="10"/>
+      <c r="A726" s="7"/>
       <c r="B726" s="3"/>
-      <c r="C726" s="10"/>
+      <c r="C726" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A727" s="10"/>
+      <c r="A727" s="7"/>
       <c r="B727" s="3"/>
-      <c r="C727" s="10"/>
+      <c r="C727" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A728" s="10"/>
+      <c r="A728" s="7"/>
       <c r="B728" s="3"/>
-      <c r="C728" s="10"/>
+      <c r="C728" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A729" s="10"/>
+      <c r="A729" s="7"/>
       <c r="B729" s="3"/>
-      <c r="C729" s="10"/>
+      <c r="C729" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A730" s="10"/>
+      <c r="A730" s="7"/>
       <c r="B730" s="3"/>
-      <c r="C730" s="10"/>
+      <c r="C730" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A731" s="10"/>
+      <c r="A731" s="7"/>
       <c r="B731" s="3"/>
-      <c r="C731" s="10"/>
+      <c r="C731" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A732" s="10"/>
+      <c r="A732" s="7"/>
       <c r="B732" s="3"/>
-      <c r="C732" s="10"/>
+      <c r="C732" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A733" s="10"/>
+      <c r="A733" s="7"/>
       <c r="B733" s="3"/>
-      <c r="C733" s="10"/>
+      <c r="C733" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A734" s="10"/>
+      <c r="A734" s="7"/>
       <c r="B734" s="3"/>
-      <c r="C734" s="10"/>
+      <c r="C734" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A735" s="10"/>
+      <c r="A735" s="7"/>
       <c r="B735" s="3"/>
-      <c r="C735" s="10"/>
+      <c r="C735" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A736" s="10"/>
+      <c r="A736" s="7"/>
       <c r="B736" s="3"/>
-      <c r="C736" s="10"/>
+      <c r="C736" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A737" s="10"/>
+      <c r="A737" s="7"/>
       <c r="B737" s="3"/>
-      <c r="C737" s="10"/>
+      <c r="C737" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A738" s="10"/>
+      <c r="A738" s="7"/>
       <c r="B738" s="3"/>
-      <c r="C738" s="10"/>
+      <c r="C738" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A739" s="10"/>
+      <c r="A739" s="7"/>
       <c r="B739" s="3"/>
-      <c r="C739" s="10"/>
+      <c r="C739" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A740" s="10"/>
+      <c r="A740" s="7"/>
       <c r="B740" s="3"/>
-      <c r="C740" s="10"/>
+      <c r="C740" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A741" s="10"/>
+      <c r="A741" s="7"/>
       <c r="B741" s="3"/>
-      <c r="C741" s="10"/>
+      <c r="C741" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A742" s="10"/>
+      <c r="A742" s="7"/>
       <c r="B742" s="3"/>
-      <c r="C742" s="10"/>
+      <c r="C742" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A743" s="10"/>
+      <c r="A743" s="7"/>
       <c r="B743" s="3"/>
-      <c r="C743" s="10"/>
+      <c r="C743" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A744" s="10"/>
+      <c r="A744" s="7"/>
       <c r="B744" s="3"/>
-      <c r="C744" s="10"/>
+      <c r="C744" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A745" s="10"/>
+      <c r="A745" s="7"/>
       <c r="B745" s="3"/>
-      <c r="C745" s="10"/>
+      <c r="C745" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A746" s="10"/>
+      <c r="A746" s="7"/>
       <c r="B746" s="3"/>
-      <c r="C746" s="10"/>
+      <c r="C746" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A747" s="10"/>
+      <c r="A747" s="7"/>
       <c r="B747" s="3"/>
-      <c r="C747" s="10"/>
+      <c r="C747" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A748" s="10"/>
+      <c r="A748" s="7"/>
       <c r="B748" s="3"/>
-      <c r="C748" s="10"/>
+      <c r="C748" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A749" s="10"/>
+      <c r="A749" s="7"/>
       <c r="B749" s="3"/>
-      <c r="C749" s="10"/>
+      <c r="C749" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A750" s="10"/>
+      <c r="A750" s="7"/>
       <c r="B750" s="3"/>
-      <c r="C750" s="10"/>
+      <c r="C750" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A751" s="10"/>
+      <c r="A751" s="7"/>
       <c r="B751" s="3"/>
-      <c r="C751" s="10"/>
+      <c r="C751" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A752" s="10"/>
+      <c r="A752" s="7"/>
       <c r="B752" s="3"/>
-      <c r="C752" s="10"/>
+      <c r="C752" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A753" s="10"/>
+      <c r="A753" s="7"/>
       <c r="B753" s="3"/>
-      <c r="C753" s="10"/>
+      <c r="C753" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A754" s="10"/>
+      <c r="A754" s="7"/>
       <c r="B754" s="3"/>
-      <c r="C754" s="10"/>
+      <c r="C754" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A755" s="10"/>
+      <c r="A755" s="7"/>
       <c r="B755" s="3"/>
-      <c r="C755" s="10"/>
+      <c r="C755" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A756" s="10"/>
+      <c r="A756" s="7"/>
       <c r="B756" s="3"/>
-      <c r="C756" s="10"/>
+      <c r="C756" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A757" s="10"/>
+      <c r="A757" s="7"/>
       <c r="B757" s="3"/>
-      <c r="C757" s="10"/>
+      <c r="C757" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A758" s="10"/>
+      <c r="A758" s="7"/>
       <c r="B758" s="3"/>
-      <c r="C758" s="10"/>
+      <c r="C758" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A759" s="10"/>
+      <c r="A759" s="7"/>
       <c r="B759" s="3"/>
-      <c r="C759" s="10"/>
+      <c r="C759" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A760" s="10"/>
+      <c r="A760" s="7"/>
       <c r="B760" s="3"/>
-      <c r="C760" s="10"/>
+      <c r="C760" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A761" s="10"/>
+      <c r="A761" s="7"/>
       <c r="B761" s="3"/>
-      <c r="C761" s="10"/>
+      <c r="C761" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A762" s="10"/>
+      <c r="A762" s="7"/>
       <c r="B762" s="3"/>
-      <c r="C762" s="10"/>
+      <c r="C762" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A763" s="10"/>
+      <c r="A763" s="7"/>
       <c r="B763" s="3"/>
-      <c r="C763" s="10"/>
+      <c r="C763" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A764" s="10"/>
+      <c r="A764" s="7"/>
       <c r="B764" s="3"/>
-      <c r="C764" s="10"/>
+      <c r="C764" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A765" s="10"/>
+      <c r="A765" s="7"/>
       <c r="B765" s="3"/>
-      <c r="C765" s="10"/>
+      <c r="C765" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A766" s="10"/>
+      <c r="A766" s="7"/>
       <c r="B766" s="3"/>
-      <c r="C766" s="10"/>
+      <c r="C766" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A767" s="10"/>
+      <c r="A767" s="7"/>
       <c r="B767" s="3"/>
-      <c r="C767" s="10"/>
+      <c r="C767" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A768" s="10"/>
+      <c r="A768" s="7"/>
       <c r="B768" s="3"/>
-      <c r="C768" s="10"/>
+      <c r="C768" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A769" s="10"/>
+      <c r="A769" s="7"/>
       <c r="B769" s="3"/>
-      <c r="C769" s="10"/>
+      <c r="C769" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A770" s="10"/>
+      <c r="A770" s="7"/>
       <c r="B770" s="3"/>
-      <c r="C770" s="10"/>
+      <c r="C770" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A771" s="10"/>
+      <c r="A771" s="7"/>
       <c r="B771" s="3"/>
-      <c r="C771" s="10"/>
+      <c r="C771" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A772" s="10"/>
+      <c r="A772" s="7"/>
       <c r="B772" s="3"/>
-      <c r="C772" s="10"/>
+      <c r="C772" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A773" s="10"/>
+      <c r="A773" s="7"/>
       <c r="B773" s="3"/>
-      <c r="C773" s="10"/>
+      <c r="C773" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A774" s="10"/>
+      <c r="A774" s="7"/>
       <c r="B774" s="3"/>
-      <c r="C774" s="10"/>
+      <c r="C774" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A775" s="10"/>
+      <c r="A775" s="7"/>
       <c r="B775" s="3"/>
-      <c r="C775" s="10"/>
+      <c r="C775" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A776" s="10"/>
+      <c r="A776" s="7"/>
       <c r="B776" s="3"/>
-      <c r="C776" s="10"/>
+      <c r="C776" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A777" s="10"/>
+      <c r="A777" s="7"/>
       <c r="B777" s="3"/>
-      <c r="C777" s="10"/>
+      <c r="C777" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A778" s="10"/>
+      <c r="A778" s="7"/>
       <c r="B778" s="3"/>
-      <c r="C778" s="10"/>
+      <c r="C778" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A779" s="10"/>
+      <c r="A779" s="7"/>
       <c r="B779" s="3"/>
-      <c r="C779" s="10"/>
+      <c r="C779" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A780" s="10"/>
+      <c r="A780" s="7"/>
       <c r="B780" s="3"/>
-      <c r="C780" s="10"/>
+      <c r="C780" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A781" s="10"/>
+      <c r="A781" s="7"/>
       <c r="B781" s="3"/>
-      <c r="C781" s="10"/>
+      <c r="C781" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A782" s="10"/>
+      <c r="A782" s="7"/>
       <c r="B782" s="3"/>
-      <c r="C782" s="10"/>
+      <c r="C782" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A783" s="10"/>
+      <c r="A783" s="7"/>
       <c r="B783" s="3"/>
-      <c r="C783" s="10"/>
+      <c r="C783" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A784" s="10"/>
+      <c r="A784" s="7"/>
       <c r="B784" s="3"/>
-      <c r="C784" s="10"/>
+      <c r="C784" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A785" s="10"/>
+      <c r="A785" s="7"/>
       <c r="B785" s="3"/>
-      <c r="C785" s="10"/>
+      <c r="C785" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A786" s="10"/>
+      <c r="A786" s="7"/>
       <c r="B786" s="3"/>
-      <c r="C786" s="10"/>
+      <c r="C786" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A787" s="10"/>
+      <c r="A787" s="7"/>
       <c r="B787" s="3"/>
-      <c r="C787" s="10"/>
+      <c r="C787" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A788" s="10"/>
+      <c r="A788" s="7"/>
       <c r="B788" s="3"/>
-      <c r="C788" s="10"/>
+      <c r="C788" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A789" s="10"/>
+      <c r="A789" s="7"/>
       <c r="B789" s="3"/>
-      <c r="C789" s="10"/>
+      <c r="C789" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A790" s="10"/>
+      <c r="A790" s="7"/>
       <c r="B790" s="3"/>
-      <c r="C790" s="10"/>
+      <c r="C790" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A791" s="10"/>
+      <c r="A791" s="7"/>
       <c r="B791" s="3"/>
-      <c r="C791" s="10"/>
+      <c r="C791" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A792" s="10"/>
+      <c r="A792" s="7"/>
       <c r="B792" s="3"/>
-      <c r="C792" s="10"/>
+      <c r="C792" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A793" s="10"/>
+      <c r="A793" s="7"/>
       <c r="B793" s="3"/>
-      <c r="C793" s="10"/>
+      <c r="C793" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A794" s="10"/>
+      <c r="A794" s="7"/>
       <c r="B794" s="3"/>
-      <c r="C794" s="10"/>
+      <c r="C794" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A795" s="10"/>
+      <c r="A795" s="7"/>
       <c r="B795" s="3"/>
-      <c r="C795" s="10"/>
+      <c r="C795" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A796" s="10"/>
+      <c r="A796" s="7"/>
       <c r="B796" s="3"/>
-      <c r="C796" s="10"/>
+      <c r="C796" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A797" s="10"/>
+      <c r="A797" s="7"/>
       <c r="B797" s="3"/>
-      <c r="C797" s="10"/>
+      <c r="C797" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A798" s="10"/>
+      <c r="A798" s="7"/>
       <c r="B798" s="3"/>
-      <c r="C798" s="10"/>
+      <c r="C798" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A799" s="10"/>
+      <c r="A799" s="7"/>
       <c r="B799" s="3"/>
-      <c r="C799" s="10"/>
+      <c r="C799" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A800" s="10"/>
+      <c r="A800" s="7"/>
       <c r="B800" s="3"/>
-      <c r="C800" s="10"/>
+      <c r="C800" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A801" s="10"/>
+      <c r="A801" s="7"/>
       <c r="B801" s="3"/>
-      <c r="C801" s="10"/>
+      <c r="C801" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A802" s="10"/>
+      <c r="A802" s="7"/>
       <c r="B802" s="3"/>
-      <c r="C802" s="10"/>
+      <c r="C802" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A803" s="10"/>
+      <c r="A803" s="7"/>
       <c r="B803" s="3"/>
-      <c r="C803" s="10"/>
+      <c r="C803" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A804" s="10"/>
+      <c r="A804" s="7"/>
       <c r="B804" s="3"/>
-      <c r="C804" s="10"/>
+      <c r="C804" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A805" s="10"/>
+      <c r="A805" s="7"/>
       <c r="B805" s="3"/>
-      <c r="C805" s="10"/>
+      <c r="C805" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A806" s="10"/>
+      <c r="A806" s="7"/>
       <c r="B806" s="3"/>
-      <c r="C806" s="10"/>
+      <c r="C806" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A807" s="10"/>
+      <c r="A807" s="7"/>
       <c r="B807" s="3"/>
-      <c r="C807" s="10"/>
+      <c r="C807" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A808" s="10"/>
+      <c r="A808" s="7"/>
       <c r="B808" s="3"/>
-      <c r="C808" s="10"/>
+      <c r="C808" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A809" s="10"/>
+      <c r="A809" s="7"/>
       <c r="B809" s="3"/>
-      <c r="C809" s="10"/>
+      <c r="C809" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A810" s="10"/>
+      <c r="A810" s="7"/>
       <c r="B810" s="3"/>
-      <c r="C810" s="10"/>
+      <c r="C810" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A811" s="10"/>
+      <c r="A811" s="7"/>
       <c r="B811" s="3"/>
-      <c r="C811" s="10"/>
+      <c r="C811" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A812" s="10"/>
+      <c r="A812" s="7"/>
       <c r="B812" s="3"/>
-      <c r="C812" s="10"/>
+      <c r="C812" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A813" s="10"/>
+      <c r="A813" s="7"/>
       <c r="B813" s="3"/>
-      <c r="C813" s="10"/>
+      <c r="C813" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A814" s="10"/>
+      <c r="A814" s="7"/>
       <c r="B814" s="3"/>
-      <c r="C814" s="10"/>
+      <c r="C814" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A815" s="10"/>
+      <c r="A815" s="7"/>
       <c r="B815" s="3"/>
-      <c r="C815" s="10"/>
+      <c r="C815" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A816" s="10"/>
+      <c r="A816" s="7"/>
       <c r="B816" s="3"/>
-      <c r="C816" s="10"/>
+      <c r="C816" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A817" s="10"/>
+      <c r="A817" s="7"/>
       <c r="B817" s="3"/>
-      <c r="C817" s="10"/>
+      <c r="C817" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A818" s="10"/>
+      <c r="A818" s="7"/>
       <c r="B818" s="3"/>
-      <c r="C818" s="10"/>
+      <c r="C818" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A819" s="10"/>
+      <c r="A819" s="7"/>
       <c r="B819" s="3"/>
-      <c r="C819" s="10"/>
+      <c r="C819" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A820" s="10"/>
+      <c r="A820" s="7"/>
       <c r="B820" s="3"/>
-      <c r="C820" s="10"/>
+      <c r="C820" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A821" s="10"/>
+      <c r="A821" s="7"/>
       <c r="B821" s="3"/>
-      <c r="C821" s="10"/>
+      <c r="C821" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A822" s="10"/>
+      <c r="A822" s="7"/>
       <c r="B822" s="3"/>
-      <c r="C822" s="10"/>
+      <c r="C822" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A823" s="10"/>
+      <c r="A823" s="7"/>
       <c r="B823" s="3"/>
-      <c r="C823" s="10"/>
+      <c r="C823" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A824" s="10"/>
+      <c r="A824" s="7"/>
       <c r="B824" s="3"/>
-      <c r="C824" s="10"/>
+      <c r="C824" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A825" s="10"/>
+      <c r="A825" s="7"/>
       <c r="B825" s="3"/>
-      <c r="C825" s="10"/>
+      <c r="C825" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A826" s="10"/>
+      <c r="A826" s="7"/>
       <c r="B826" s="3"/>
-      <c r="C826" s="10"/>
+      <c r="C826" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A827" s="10"/>
+      <c r="A827" s="7"/>
       <c r="B827" s="3"/>
-      <c r="C827" s="10"/>
+      <c r="C827" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A828" s="10"/>
+      <c r="A828" s="7"/>
       <c r="B828" s="3"/>
-      <c r="C828" s="10"/>
+      <c r="C828" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A829" s="10"/>
+      <c r="A829" s="7"/>
       <c r="B829" s="3"/>
-      <c r="C829" s="10"/>
+      <c r="C829" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A830" s="10"/>
+      <c r="A830" s="7"/>
       <c r="B830" s="3"/>
-      <c r="C830" s="10"/>
+      <c r="C830" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A831" s="10"/>
+      <c r="A831" s="7"/>
       <c r="B831" s="3"/>
-      <c r="C831" s="10"/>
+      <c r="C831" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A832" s="10"/>
+      <c r="A832" s="7"/>
       <c r="B832" s="3"/>
-      <c r="C832" s="10"/>
+      <c r="C832" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A833" s="10"/>
+      <c r="A833" s="7"/>
       <c r="B833" s="3"/>
-      <c r="C833" s="10"/>
+      <c r="C833" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KnowledgeBaseFilkom_eval.xlsx
+++ b/KnowledgeBaseFilkom_eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\FLUENT-Chatbot-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F15A0-6630-46BF-8F41-AFE4FC9484B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150901C-0ACD-47FE-B963-FF63CA0F6E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
   <si>
     <t>Pertanyaan</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>menjadi fakultas yang berdaya saing internasional dan berkontribusi kepada pengembangan teknologi informasi dan ilmu komputer untuk menunjang industri dan masyarakat dengan menyelaraskan pelaksanaan pendidikan, penelitian, dan pengabdian kepada masyarakat</t>
-  </si>
-  <si>
-    <t>visi dari filkokm</t>
   </si>
   <si>
     <t>apa saja visi filkom</t>
@@ -269,9 +266,6 @@
   </si>
   <si>
     <t>ir. widhy hayuhardhika nugraha putra, s.kom., m.kom.</t>
-  </si>
-  <si>
-    <t>berikan saya informasi alumni</t>
   </si>
   <si>
     <t>other</t>
@@ -300,21 +294,6 @@
 https://s.ub.ac.id/prop-keg-mhs</t>
   </si>
   <si>
-    <t>informasi dokumen kemahasiswaan dapat dilihat pada tautan berikut :
-https://s.ub.ac.id/dok-kemahasiswaan</t>
-  </si>
-  <si>
-    <t>informasi pengajuan surat tugas dosen pembimbing lomba dapat dilihat pada tautan berikut : 
-https://s.ub.ac.id/prestasi</t>
-  </si>
-  <si>
-    <t>permohonan validasi data skm dapat dilihat pada tautan berikut : 
-s.ub.ac.id/new34</t>
-  </si>
-  <si>
-    <t>berikan informasi mengenai validasi syarat wisuda</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. unggah dokumen di siam
 2. mengisi gform pengajuan di tautan berikut  https://s.ub.ac.id/new35
 3. mengisi data tracer studi melalui https://bit.ly/tracerfilkom
@@ -322,35 +301,7 @@
 5. informasi antrian wisuda dapat diakses di https://filkom.ub.ac.id/kemahasiswaan/informasi-wisuda/  </t>
   </si>
   <si>
-    <t>tracer study fakultas dapat diakses pada tautan berikut : 
-http://bit.ly/tracerfilkom</t>
-  </si>
-  <si>
     <t>pendaftaran wisuda ulang dapat diakses pada tautan berikut : https://s.ub.ac.id/wisudaulang</t>
-  </si>
-  <si>
-    <t>berikan informasi mengenai layanan bimbingan dan konseling</t>
-  </si>
-  <si>
-    <t>layanan bimbingan dan konseling dapat diaksespada tautan berikut : 
-https://s.ub.ac.id/konselingfilkom</t>
-  </si>
-  <si>
-    <t>berikan informasi mengenai layanan ultksp (unit layanan terpadu kekerasan seksual dan perudungan)</t>
-  </si>
-  <si>
-    <t>layanan ultksp dapat diaksespada tautan berikut : 
-https://s.ub.ac.id/ultkspfilkom</t>
-  </si>
-  <si>
-    <t>berikan informasi mengenai tracking layanan kemahasiswaan</t>
-  </si>
-  <si>
-    <t>tracking layanan kemahasiswaan dapat diaksespada tautan berikut : 
-https://s.ub.ac.id/tracking-kemahasiswaan</t>
-  </si>
-  <si>
-    <t>berikan informasi mengenai bimbingan dan konseling di filkom</t>
   </si>
   <si>
     <t>dalam perjalanannya menuntut ilmu, mahasiswa tidak akan luput dari permasalahan yang terjadi di kehidupan sehari-hari baik secara akademik maupun non akademik. masalah yang terjadi tersebut dapat mempengaruhi prestasi mahasiswa. bentuk penyelesaian masalah tersebut tidak lepas dari kemampuan mahasiswa itu sendiri. terkadang mahasiswa dalam menyelesaikan permasalahannya tidak selalu berujung positif.
@@ -387,28 +338,12 @@
 3. kerahasiaan identitas dan masalah terjaga</t>
   </si>
   <si>
-    <t>berikan informasi mengenai layanan konseling</t>
-  </si>
-  <si>
-    <t>informasi mengenai layanan konseling dapat diakses pada tautan berikut :
-https://filkom.ub.ac.id/kemahasiswaan/layanan-bimbingan-dan-konseling/</t>
-  </si>
-  <si>
-    <t>ada 2 konselor bimbingan dan konseling di filkom :
-1. wiwin lukitohadi, s.psi.
-2. prasetyo iskandar, s.t.</t>
-  </si>
-  <si>
     <t>koordinator konselor sebaya adalah muhammad davala sava</t>
   </si>
   <si>
     <t>berikan rincian layanan ultksp</t>
   </si>
   <si>
-    <t>rincian layanan ultksp dapat diakses pada tautan berikut :
-https://filkom.ub.ac.id/kemahasiswaan/layanan-ultksp/</t>
-  </si>
-  <si>
     <t>apa saja sasaran dari filkom</t>
   </si>
   <si>
@@ -448,9 +383,6 @@
     <t>siapa wakil dekan 2 filkom</t>
   </si>
   <si>
-    <t>saya butuh informasi alumni</t>
-  </si>
-  <si>
     <t>siapa ketua program studi pendidikan teknologi informasi</t>
   </si>
   <si>
@@ -484,49 +416,157 @@
     <t>siapa ketua program studi sarjana teknologi informasi</t>
   </si>
   <si>
-    <t>layanan kemahasiswaan filkom ub</t>
-  </si>
-  <si>
-    <t>bagaimana pengajuan proposal mahasiswa</t>
-  </si>
-  <si>
-    <t>apa saja layanan kemahasiswaan filkom ub</t>
-  </si>
-  <si>
-    <t>bagaimana pengajuan proposal dan lpj kegiatan kemahasiswaan</t>
-  </si>
-  <si>
-    <t>berikan informasi dokumen kemahasiswaan</t>
-  </si>
-  <si>
-    <t>bagaimana pengajuan surat tugas dosen pembimbing lomba</t>
-  </si>
-  <si>
-    <t>bagaimana permohonan validasi data skm</t>
-  </si>
-  <si>
-    <t>bagaimana mengakses tracer study fakultas</t>
-  </si>
-  <si>
-    <t>bagaimana cara pendaftaran wisuda ulang</t>
-  </si>
-  <si>
-    <t>apa tujuan unit konseling</t>
-  </si>
-  <si>
-    <t>apa fungsi bimbingan dan konseling serta penasehat akademik</t>
-  </si>
-  <si>
-    <t>apa saja program layanan unit konseling</t>
-  </si>
-  <si>
-    <t>apa manfaat konseling filkom</t>
-  </si>
-  <si>
-    <t>siapa konselor bimbingan dan konseling di filkom</t>
-  </si>
-  <si>
-    <t>siapa koordinator konselor sebaya</t>
+    <t>tracking layanan kemahasiswaan dapat diaksespada tautan berikut : https://s.ub.ac.id/tracking-kemahasiswaan</t>
+  </si>
+  <si>
+    <t>layanan bimbingan dan konseling dapat diaksespada tautan berikut : https://s.ub.ac.id/konselingfilkom</t>
+  </si>
+  <si>
+    <t>layanan ultksp dapat diaksespada tautan berikut : https://s.ub.ac.id/ultkspfilkom</t>
+  </si>
+  <si>
+    <t>informasi dokumen kemahasiswaan dapat dilihat pada tautan berikut : https://s.ub.ac.id/dok-kemahasiswaan</t>
+  </si>
+  <si>
+    <t>informasi pengajuan surat tugas dosen pembimbing lomba dapat dilihat pada tautan berikut : https://s.ub.ac.id/prestasi</t>
+  </si>
+  <si>
+    <t>permohonan validasi data skm dapat dilihat pada tautan berikut : s.ub.ac.id/new34</t>
+  </si>
+  <si>
+    <t>tracer study fakultas dapat diakses pada tautan berikut : http://bit.ly/tracerfilkom</t>
+  </si>
+  <si>
+    <t>informasi mengenai layanan konseling dapat diakses pada tautan berikut :https://filkom.ub.ac.id/kemahasiswaan/layanan-bimbingan-dan-konseling/</t>
+  </si>
+  <si>
+    <t>ada 2 konselor bimbingan dan konseling di filkom : wiwin lukitohadi, s.psi. &amp; prasetyo iskandar, s.t.</t>
+  </si>
+  <si>
+    <t>rincian layanan ultksp dapat diakses pada tautan berikut : https://filkom.ub.ac.id/kemahasiswaan/layanan-ultksp/</t>
+  </si>
+  <si>
+    <t>visi dari filkom</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi tentang alumni.</t>
+  </si>
+  <si>
+    <t>mohon informasi mengenai alumni.</t>
+  </si>
+  <si>
+    <t>apa saja layanan kemahasiswaan yang tersedia di filkom ub?</t>
+  </si>
+  <si>
+    <t>dapatkah anda menjelaskan layanan kemahasiswaan di filkom ub?</t>
+  </si>
+  <si>
+    <t>bagaimana prosedur pengajuan proposal oleh mahasiswa?</t>
+  </si>
+  <si>
+    <t>apa prosedur untuk mengajukan proposal dan laporan pertanggungjawaban (lpj) kegiatan kemahasiswaan?</t>
+  </si>
+  <si>
+    <t>tolong sediakan informasi mengenai dokumen kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>mohon informasi terkait dokumen kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>apa prosedur pengajuan surat tugas untuk dosen pembimbing lomba?</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengajukan surat tugas dosen pembimbing lomba?</t>
+  </si>
+  <si>
+    <t>apa langkah-langkah untuk mengajukan permohonan validasi data skm?</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengajukan permohonan validasi data skm?</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi tentang validasi syarat wisuda.</t>
+  </si>
+  <si>
+    <t>mohon informasi terkait validasi syarat wisuda.</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengakses tracer study fakultas?</t>
+  </si>
+  <si>
+    <t>apa langkah-langkah untuk mengakses tracer study fakultas?</t>
+  </si>
+  <si>
+    <t>bagaimana prosedur pendaftaran wisuda ulang?</t>
+  </si>
+  <si>
+    <t>apa langkah-langkah untuk mendaftar wisuda ulang?</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi tentang layanan bimbingan dan konseling.</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang layanan ultksp (unit layanan terpadu kekerasan seksual dan perundungan).</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi mengenai layanan ultksp (unit layanan terpadu kekerasan seksual dan perundungan).</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang pelacakan layanan kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>tolong sediakan informasi tentang pelacakan layanan kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang layanan bimbingan dan konseling di filkom.</t>
+  </si>
+  <si>
+    <t>tolong sediakan informasi terkait bimbingan dan konseling di filkom.</t>
+  </si>
+  <si>
+    <t>apa tujuan dari unit konseling?</t>
+  </si>
+  <si>
+    <t>apa fungsi utama unit konseling?</t>
+  </si>
+  <si>
+    <t>apa peran bimbingan dan konseling serta penasehat akademik?</t>
+  </si>
+  <si>
+    <t>apa tugas bimbingan dan konseling serta penasehat akademik?</t>
+  </si>
+  <si>
+    <t>apa saja program yang disediakan oleh unit konseling?</t>
+  </si>
+  <si>
+    <t>apa layanan yang ditawarkan oleh unit konseling?</t>
+  </si>
+  <si>
+    <t>apa manfaat layanan konseling di filkom?</t>
+  </si>
+  <si>
+    <t>apa keuntungan dari layanan konseling di filkom?</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang layanan konseling.</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi mengenai layanan konseling.</t>
+  </si>
+  <si>
+    <t>siapa saja konselor bimbingan dan konseling di filkom?</t>
+  </si>
+  <si>
+    <t>dapatkah anda memberi tahu siapa konselor bimbingan dan konseling di filkom?</t>
+  </si>
+  <si>
+    <t>siapa yang menjadi koordinator konselor sebaya?</t>
+  </si>
+  <si>
+    <t>siapa koordinator untuk konselor sebaya?</t>
+  </si>
+  <si>
+    <t>mohon rincian mengenai layanan ultksp.</t>
   </si>
 </sst>
 </file>
@@ -945,8 +985,8 @@
   <dimension ref="A1:C837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1020,7 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -991,7 +1031,7 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1002,750 +1042,750 @@
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="B69" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1753,10 +1793,10 @@
         <v>145</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,107 +1804,209 @@
         <v>146</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
+      <c r="A76" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="77" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
+      <c r="A77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="78" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="6"/>
+      <c r="A78" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="79" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
+      <c r="A79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="80" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="6"/>
+      <c r="A80" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="81" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="6"/>
+      <c r="A81" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="82" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="6"/>
+      <c r="A82" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="83" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="6"/>
+      <c r="A83" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="84" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
+      <c r="A84" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="85" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="6"/>
+      <c r="A85" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="6"/>
+      <c r="A86" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="6"/>
+      <c r="A87" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="6"/>
+      <c r="A88" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="89" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="6"/>
+      <c r="A89" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="6"/>
+      <c r="A90" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="6"/>
+      <c r="A91" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="6"/>
+      <c r="A92" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="93" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>

--- a/KnowledgeBaseFilkom_eval.xlsx
+++ b/KnowledgeBaseFilkom_eval.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\FLUENT-Chatbot-2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150901C-0ACD-47FE-B963-FF63CA0F6E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="162">
   <si>
     <t>Pertanyaan</t>
   </si>
@@ -38,6 +32,9 @@
   </si>
   <si>
     <t>menjadi fakultas yang berdaya saing internasional dan berkontribusi kepada pengembangan teknologi informasi dan ilmu komputer untuk menunjang industri dan masyarakat dengan menyelaraskan pelaksanaan pendidikan, penelitian, dan pengabdian kepada masyarakat</t>
+  </si>
+  <si>
+    <t>visi dari filkom</t>
   </si>
   <si>
     <t>apa saja visi filkom</t>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>apa misi filkom</t>
-  </si>
-  <si>
-    <t>menyelenggarakan pendidikan di bidang teknologi informasi dan ilmu komputer yang berkualitas dan berstandar internasional secara berkelanjutan.
-meningkatkan kemampuan sivitas akademika dalam pengembangan penelitian dan pengabdian yang selaras dengan kebutuhan industri dan masyarakat.
-mengintegrasikan pengembangan pendidikan, penelitian, dan pengabdian kepada masyarakat yang ditunjang dengan tatakelola organisasi yang transparan, akuntabel, efektif, dan efisien.
-mewujudkan kerja sama yang berkelanjutan di bidang pendidikan, penelitian, dan pengabdian kepada masyarakat dalam skala nasional dan internasional.</t>
   </si>
   <si>
     <t>bagaimana tujuan filkom</t>
@@ -83,14 +74,7 @@
     <t>apa tujuan filkom</t>
   </si>
   <si>
-    <t>menghasilkan lulusan yang kompeten , profesional, berbudi pekerti luhur, berjiwa entrepreneur dan berdaya saing internasional.
-menghasilkan sivitas akademika yang mampu mengembangkan penelitiandan pengabdian yang berorientasi pada pembaruan dan teknologi tepat guna untuk industri dan masyarakat.
-terwujudnya suasana akademik yang kondusif dalam bidang pendidikan, penelitian, dan pengabdian kepada masyarakat yang berdaya saing unggul.
-terwujudnya tata kelola organisasi yang transparan, akuntabel, efektif, dan efisien.
-meningkatnya kuantitas dan kualitas kerja sama yang berkelanjutan di bidang pendidikan, penelitian, dan pengabdian kepada masyarakat dalam skala nasional dan internasional.</t>
-  </si>
-  <si>
-    <t>apa sasaran pendidikan filkom</t>
+    <t>pendidikan saran filkom</t>
   </si>
   <si>
     <t>sasaran_pendidikan</t>
@@ -100,13 +84,28 @@
 meningkatkan prestasi mahasiswa meningkatkan mutu kelembagaan</t>
   </si>
   <si>
+    <t>apa saja sasaran dari filkom</t>
+  </si>
+  <si>
+    <t>apa sasaran pendidikan filkom</t>
+  </si>
+  <si>
+    <t>apa email pak fitra</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fitra.bachtiar[at]ub.ac.id</t>
+  </si>
+  <si>
+    <t>email e pak fitra teh naon</t>
+  </si>
+  <si>
     <t>apa email fitra a. bachtiar</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fitra.bachtiar[at]ub.ac.id</t>
+    <t>pak fitra penelitian di bidang apa</t>
   </si>
   <si>
     <t>bidang</t>
@@ -115,16 +114,22 @@
     <t>affective computing, affective engineering, intelligent system, data mining, educational data mining</t>
   </si>
   <si>
+    <t>bidang penelitian pak fitra</t>
+  </si>
+  <si>
+    <t>tanggal tanggal pembentukan ptiik</t>
+  </si>
+  <si>
+    <t>tanggal_bentuk</t>
+  </si>
+  <si>
+    <t>27 oktober 2011</t>
+  </si>
+  <si>
     <t>tanggal dibentuk ptiik</t>
   </si>
   <si>
-    <t>tanggal_bentuk</t>
-  </si>
-  <si>
-    <t>27 oktober 2011</t>
-  </si>
-  <si>
-    <t>apa saja sasaran pengabdian filkom</t>
+    <t>sasaran filkom untuk pengabdian apa saja</t>
   </si>
   <si>
     <t>sabdi</t>
@@ -135,7 +140,10 @@
 3. menyediakan dana, sarana dan prasarana pengabdian masyarakat</t>
   </si>
   <si>
-    <t>apa saja sasaran kerjasama filkom</t>
+    <t>apa saja sasaran pengabdian filkom</t>
+  </si>
+  <si>
+    <t>sasaran dari kerjasama filkom apa saja ya</t>
   </si>
   <si>
     <t>aker</t>
@@ -145,13 +153,22 @@
 2. peningkatan kerjasama dengan industri dalam pengembangan produk</t>
   </si>
   <si>
+    <t>apa saja sasaran kerjasama filkom</t>
+  </si>
+  <si>
+    <t>dekan filkom the saha</t>
+  </si>
+  <si>
+    <t>saker</t>
+  </si>
+  <si>
+    <t>prof. ir. wayan firdaus mahmudy, s.si., mt., ph.d.</t>
+  </si>
+  <si>
     <t>siapa dekan fakultas ilmu komputer filkom</t>
   </si>
   <si>
-    <t>saker</t>
-  </si>
-  <si>
-    <t>prof. ir. wayan firdaus mahmudy, s.si., mt., ph.d.</t>
+    <t>wajuk dekan 1 filkom saha</t>
   </si>
   <si>
     <t>wd_a</t>
@@ -160,112 +177,154 @@
     <t>dr. eng. ir. herman tolle, st., mt.</t>
   </si>
   <si>
+    <t>wakil dekan bidang akademik filkom siapa ya</t>
+  </si>
+  <si>
+    <t>siapa wakil dekan 2 filkom</t>
+  </si>
+  <si>
+    <t>wd_u</t>
+  </si>
+  <si>
+    <t>agus wahyu widodo, st., m.cs.</t>
+  </si>
+  <si>
     <t>wakil dekan bidang umum, keuangan, dan sumber daya / wakil dekan 2</t>
   </si>
   <si>
-    <t>wd_u</t>
-  </si>
-  <si>
-    <t>agus wahyu widodo, st., m.cs.</t>
+    <t>siapa wakil dekan bidang kemahasiswaan 3</t>
+  </si>
+  <si>
+    <t>wd_m</t>
+  </si>
+  <si>
+    <t>drs. muh. arif rahman, m.kom.</t>
   </si>
   <si>
     <t>wakil dekan bidang kemahasiswaan, alumni, dan kewirausahaan mahasiswa / wakil dekan 3</t>
   </si>
   <si>
-    <t>wd_m</t>
-  </si>
-  <si>
-    <t>drs. muh. arif rahman, m.kom.</t>
+    <t>siapa ketua departemen teknik informatika</t>
+  </si>
+  <si>
+    <t>kadep_tif</t>
+  </si>
+  <si>
+    <t>achmad basuki, s.t., m.mg., ph.d.</t>
   </si>
   <si>
     <t>ketua departemen teknik informatika</t>
   </si>
   <si>
-    <t>kadep_tif</t>
-  </si>
-  <si>
-    <t>achmad basuki, s.t., m.mg., ph.d.</t>
+    <t>siapa sekretaris departemen teknik informatika</t>
+  </si>
+  <si>
+    <t>sekdep_tif</t>
+  </si>
+  <si>
+    <t>ir. primantara hari trisnawan, m.sc.</t>
   </si>
   <si>
     <t>sekretaris departemen teknik informatika</t>
   </si>
   <si>
-    <t>sekdep_tif</t>
-  </si>
-  <si>
-    <t>ir. primantara hari trisnawan, m.sc.</t>
+    <t>siapa ketua program studi magister ilmu komputer</t>
+  </si>
+  <si>
+    <t>kps_m</t>
+  </si>
+  <si>
+    <t>sabriansyah rizqika akbar, s.t., m.eng., ph.d</t>
   </si>
   <si>
     <t>ketua program studi magister ilmu komputer</t>
   </si>
   <si>
-    <t>kps_m</t>
-  </si>
-  <si>
-    <t>sabriansyah rizqika akbar, s.t., m.eng., ph.d</t>
+    <t>siapa ketua program studi sarjana teknik informatika</t>
+  </si>
+  <si>
+    <t>kps_tif</t>
+  </si>
+  <si>
+    <t>adhitya bhawiyuga, s.kom., m.sc.</t>
   </si>
   <si>
     <t>ketua program studi sarjana teknik informatika</t>
   </si>
   <si>
-    <t>kps_tif</t>
-  </si>
-  <si>
-    <t>adhitya bhawiyuga, s.kom., m.sc.</t>
+    <t>siapa ketua program studi sarjana teknik komputer</t>
+  </si>
+  <si>
+    <t>kps_tekom</t>
+  </si>
+  <si>
+    <t>barlian henryranu prasetio, s.t., m.t., ph.d</t>
   </si>
   <si>
     <t>ketua program studi sarjana teknik komputer</t>
   </si>
   <si>
-    <t>kps_tekom</t>
-  </si>
-  <si>
-    <t>barlian henryranu prasetio, s.t., m.t., ph.d</t>
+    <t>siapa ketua departemen sistem informasi</t>
+  </si>
+  <si>
+    <t>kadep_si</t>
+  </si>
+  <si>
+    <t>issa arwani, s.kom., m.sc.</t>
   </si>
   <si>
     <t>ketua departemen sistem informasi</t>
   </si>
   <si>
-    <t>kadep_si</t>
-  </si>
-  <si>
-    <t>issa arwani, s.kom., m.sc.</t>
+    <t>siapa seketaris departemen sistem informasi</t>
+  </si>
+  <si>
+    <t>sekdep_si</t>
+  </si>
+  <si>
+    <t>satrio agung wicaksono, s.kom., m.kom</t>
   </si>
   <si>
     <t>seketaris departemen sistem informasi</t>
   </si>
   <si>
-    <t>sekdep_si</t>
-  </si>
-  <si>
-    <t>satrio agung wicaksono, s.kom., m.kom</t>
+    <t>siapa ketia program studi sarjana sistem informasi</t>
+  </si>
+  <si>
+    <t>kps_si</t>
+  </si>
+  <si>
+    <t>yusi tyroni mursityo, s.kom., m.s.</t>
   </si>
   <si>
     <t>ketua program studi sarjana sistem informasi</t>
   </si>
   <si>
-    <t>kps_si</t>
-  </si>
-  <si>
-    <t>yusi tyroni mursityo, s.kom., m.s.</t>
+    <t>siapa ketua program studi pendidikan teknologi informasi</t>
+  </si>
+  <si>
+    <t>kps_pti</t>
+  </si>
+  <si>
+    <t>ir. admaja dwi herlambang, s.pd., m.pd.</t>
   </si>
   <si>
     <t>ketua program studi sarjana pendidikan teknologi informasi</t>
   </si>
   <si>
-    <t>kps_pti</t>
-  </si>
-  <si>
-    <t>ir. admaja dwi herlambang, s.pd., m.pd.</t>
+    <t>siapa ketua program studi sarjana teknologi informasi</t>
+  </si>
+  <si>
+    <t>kps_ti</t>
+  </si>
+  <si>
+    <t>ir. widhy hayuhardhika nugraha putra, s.kom., m.kom.</t>
   </si>
   <si>
     <t>ketua program studi sarjana teknologi informasi</t>
   </si>
   <si>
-    <t>kps_ti</t>
-  </si>
-  <si>
-    <t>ir. widhy hayuhardhika nugraha putra, s.kom., m.kom.</t>
+    <t>tolong berikan informasi tentang alumni.</t>
   </si>
   <si>
     <t>other</t>
@@ -273,6 +332,12 @@
   <si>
     <t>informasi alumni dapat diakses pada link berikut :
 https://filkom.ub.ac.id/kemahasiswaan/info-alumni/</t>
+  </si>
+  <si>
+    <t>mohon informasi mengenai alumni.</t>
+  </si>
+  <si>
+    <t>apa saja layanan kemahasiswaan yang tersedia di filkom ub?</t>
   </si>
   <si>
     <t>1. pengajuan proposal dan lpj kegiatan kemahasiswaan
@@ -289,9 +354,48 @@
 https://filkom.ub.ac.id/kemahasiswaan/layanan-kemahasiswaan/</t>
   </si>
   <si>
+    <t>dapatkah anda menjelaskan layanan kemahasiswaan di filkom ub?</t>
+  </si>
+  <si>
+    <t>bagaimana prosedur pengajuan proposal oleh mahasiswa?</t>
+  </si>
+  <si>
     <t>pengajuan proposal kegiatan kemahasiswaan
 pengajuan lpj kegiatan kemahasiswaan dapat dilihat pada tautan berikut :
 https://s.ub.ac.id/prop-keg-mhs</t>
+  </si>
+  <si>
+    <t>apa prosedur untuk mengajukan proposal dan laporan pertanggungjawaban (lpj) kegiatan kemahasiswaan?</t>
+  </si>
+  <si>
+    <t>tolong sediakan informasi mengenai dokumen kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>informasi dokumen kemahasiswaan dapat dilihat pada tautan berikut : https://s.ub.ac.id/dok-kemahasiswaan</t>
+  </si>
+  <si>
+    <t>mohon informasi terkait dokumen kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>apa prosedur pengajuan surat tugas untuk dosen pembimbing lomba?</t>
+  </si>
+  <si>
+    <t>informasi pengajuan surat tugas dosen pembimbing lomba dapat dilihat pada tautan berikut : https://s.ub.ac.id/prestasi</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengajukan surat tugas dosen pembimbing lomba?</t>
+  </si>
+  <si>
+    <t>apa langkah-langkah untuk mengajukan permohonan validasi data skm?</t>
+  </si>
+  <si>
+    <t>permohonan validasi data skm dapat dilihat pada tautan berikut : s.ub.ac.id/new34</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengajukan permohonan validasi data skm?</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi tentang validasi syarat wisuda.</t>
   </si>
   <si>
     <t xml:space="preserve">1. unggah dokumen di siam
@@ -301,11 +405,62 @@
 5. informasi antrian wisuda dapat diakses di https://filkom.ub.ac.id/kemahasiswaan/informasi-wisuda/  </t>
   </si>
   <si>
+    <t>mohon informasi terkait validasi syarat wisuda.</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengakses tracer study fakultas?</t>
+  </si>
+  <si>
+    <t>tracer study fakultas dapat diakses pada tautan berikut : http://bit.ly/tracerfilkom</t>
+  </si>
+  <si>
+    <t>apa langkah-langkah untuk mengakses tracer study fakultas?</t>
+  </si>
+  <si>
+    <t>bagaimana prosedur pendaftaran wisuda ulang?</t>
+  </si>
+  <si>
     <t>pendaftaran wisuda ulang dapat diakses pada tautan berikut : https://s.ub.ac.id/wisudaulang</t>
+  </si>
+  <si>
+    <t>apa langkah-langkah untuk mendaftar wisuda ulang?</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi tentang layanan bimbingan dan konseling.</t>
+  </si>
+  <si>
+    <t>layanan bimbingan dan konseling dapat diaksespada tautan berikut : https://s.ub.ac.id/konselingfilkom</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang layanan ultksp (unit layanan terpadu kekerasan seksual dan perundungan).</t>
+  </si>
+  <si>
+    <t>layanan ultksp dapat diaksespada tautan berikut : https://s.ub.ac.id/ultkspfilkom</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi mengenai layanan ultksp (unit layanan terpadu kekerasan seksual dan perundungan).</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang pelacakan layanan kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>tracking layanan kemahasiswaan dapat diaksespada tautan berikut : https://s.ub.ac.id/tracking-kemahasiswaan</t>
+  </si>
+  <si>
+    <t>tolong sediakan informasi tentang pelacakan layanan kemahasiswaan.</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang layanan bimbingan dan konseling di filkom.</t>
   </si>
   <si>
     <t>dalam perjalanannya menuntut ilmu, mahasiswa tidak akan luput dari permasalahan yang terjadi di kehidupan sehari-hari baik secara akademik maupun non akademik. masalah yang terjadi tersebut dapat mempengaruhi prestasi mahasiswa. bentuk penyelesaian masalah tersebut tidak lepas dari kemampuan mahasiswa itu sendiri. terkadang mahasiswa dalam menyelesaikan permasalahannya tidak selalu berujung positif.
 fakultas ilmu komputer universitas brawijaya (filkom ub) sebagai bagian dari sebuah institusi pendidikan berskala internasional yang peduli terhadap kebutuhan dan permasalahan mahasiswa menyediakan wadah yang bertujuan untuk membantu mahasiswa dalam menyelesaikan masalah yang dihadapi baik permasalahan akademik maupun non akademik. diharapkan dengan adanya wadah ini dapat memberikan dukungan bagi mahasiswa untuk meningkatkan kemandirian dalam menjalani studi dan mencegah atau mengatasi masalah yang dapat mempengaruhi proses pembelajaran.</t>
+  </si>
+  <si>
+    <t>tolong sediakan informasi terkait bimbingan dan konseling di filkom.</t>
+  </si>
+  <si>
+    <t>apa tujuan dari unit konseling?</t>
   </si>
   <si>
     <t xml:space="preserve">1. mewujudkan potensi dirinya secara optimal, baik untuk kepentingan dirinya maupun masyarakat.
@@ -317,6 +472,12 @@
 </t>
   </si>
   <si>
+    <t>apa fungsi utama unit konseling?</t>
+  </si>
+  <si>
+    <t>apa peran bimbingan dan konseling serta penasehat akademik?</t>
+  </si>
+  <si>
     <t>1. penyaluran: bimbingan berfungsi dalam membantu mahasiswa mendapatkan lingkungan yang sesuai dengan keadaan dirinya.
 2. penyesuaian (adaptasi): bimbingan berfungsi dalam rangka membantu mahasiswa menyesuaikan diri dengan lingkungannya, baik lingkungan sosial pemukiman maupun lingkungan belajar.
 3. pencegahan: bimbingan berfungsi dalam rangka membantu mahasiswa menghindari kemungkinan terjadinya hambatan dalam perkembangan diri untuk mencapai sukses belajar.
@@ -326,6 +487,12 @@
 7. petugas bimbingan dan konseling tetap menjaga kerahasiaan dari mahasiswa yang terkait dengan keperluan bimbingan dan konseling itu</t>
   </si>
   <si>
+    <t>apa tugas bimbingan dan konseling serta penasehat akademik?</t>
+  </si>
+  <si>
+    <t>apa saja program yang disediakan oleh unit konseling?</t>
+  </si>
+  <si>
     <t>1. pelayanan bantuan pemecahan masalah, baik yang bersifat akademik maupun non akademik melalui konseling/konsultasi.
 2. pemberian informasi kepada mahasiswa tentang berbagai hal yang berguna bagi pengembangan pribadi, sosial, studi dan karir mahasiswa.
 3. pemberian pelatihan-pelatihan kecil kepada mahasiswa secara berkelompok (10-15 orang) untuk pengembangan pribadi, sosial, studi dan karirnya, dengan tema-tema seperti tips sukses studi, pengembangan kepribadian yang menyenangkan, bagaimana meningkatkan kecerdasan emosional, dan sebagainya.
@@ -333,246 +500,61 @@
 5. menyediakan alat-alat tes psikologis seperti tes kepribadian, tes watak, tes minat dan potensi, tes gaya belajar, dan lainnya sebagai alat bantu dan penunjang proses belajar mahasiswa.</t>
   </si>
   <si>
+    <t>apa layanan yang ditawarkan oleh unit konseling?</t>
+  </si>
+  <si>
+    <t>apa manfaat layanan konseling di filkom?</t>
+  </si>
+  <si>
     <t>1. masalah ditangani oleh ahli yang kompeten di bidangnya.
 2. memberikan solusi yang lebih terarah dan profesional.
 3. kerahasiaan identitas dan masalah terjaga</t>
   </si>
   <si>
+    <t>apa keuntungan dari layanan konseling di filkom?</t>
+  </si>
+  <si>
+    <t>mohon informasi tentang layanan konseling.</t>
+  </si>
+  <si>
+    <t>informasi mengenai layanan konseling dapat diakses pada tautan berikut :https://filkom.ub.ac.id/kemahasiswaan/layanan-bimbingan-dan-konseling/</t>
+  </si>
+  <si>
+    <t>tolong berikan informasi mengenai layanan konseling.</t>
+  </si>
+  <si>
+    <t>siapa saja konselor bimbingan dan konseling di filkom?</t>
+  </si>
+  <si>
+    <t>ada 2 konselor bimbingan dan konseling di filkom : wiwin lukitohadi, s.psi. &amp; prasetyo iskandar, s.t.</t>
+  </si>
+  <si>
+    <t>dapatkah anda memberi tahu siapa konselor bimbingan dan konseling di filkom?</t>
+  </si>
+  <si>
+    <t>siapa yang menjadi koordinator konselor sebaya?</t>
+  </si>
+  <si>
     <t>koordinator konselor sebaya adalah muhammad davala sava</t>
   </si>
   <si>
+    <t>siapa koordinator untuk konselor sebaya?</t>
+  </si>
+  <si>
+    <t>mohon rincian mengenai layanan ultksp.</t>
+  </si>
+  <si>
+    <t>rincian layanan ultksp dapat diakses pada tautan berikut : https://filkom.ub.ac.id/kemahasiswaan/layanan-ultksp/</t>
+  </si>
+  <si>
     <t>berikan rincian layanan ultksp</t>
-  </si>
-  <si>
-    <t>apa saja sasaran dari filkom</t>
-  </si>
-  <si>
-    <t>pendidikan saran filkom</t>
-  </si>
-  <si>
-    <t>apa email pak fitra</t>
-  </si>
-  <si>
-    <t>dekan filkom the saha</t>
-  </si>
-  <si>
-    <t>tanggal tanggal pembentukan ptiik</t>
-  </si>
-  <si>
-    <t>pak fitra penelitian di bidang apa</t>
-  </si>
-  <si>
-    <t>bidang penelitian pak fitra</t>
-  </si>
-  <si>
-    <t>email e pak fitra teh naon</t>
-  </si>
-  <si>
-    <t>sasaran filkom untuk pengabdian apa saja</t>
-  </si>
-  <si>
-    <t>sasaran dari kerjasama filkom apa saja ya</t>
-  </si>
-  <si>
-    <t>wajuk dekan 1 filkom saha</t>
-  </si>
-  <si>
-    <t>wakil dekan bidang akademik filkom siapa ya</t>
-  </si>
-  <si>
-    <t>siapa wakil dekan 2 filkom</t>
-  </si>
-  <si>
-    <t>siapa ketua program studi pendidikan teknologi informasi</t>
-  </si>
-  <si>
-    <t>siapa ketia program studi sarjana sistem informasi</t>
-  </si>
-  <si>
-    <t>siapa seketaris departemen sistem informasi</t>
-  </si>
-  <si>
-    <t>siapa ketua departemen sistem informasi</t>
-  </si>
-  <si>
-    <t>siapa ketua program studi sarjana teknik komputer</t>
-  </si>
-  <si>
-    <t>siapa ketua program studi sarjana teknik informatika</t>
-  </si>
-  <si>
-    <t>siapa ketua program studi magister ilmu komputer</t>
-  </si>
-  <si>
-    <t>siapa sekretaris departemen teknik informatika</t>
-  </si>
-  <si>
-    <t>siapa ketua departemen teknik informatika</t>
-  </si>
-  <si>
-    <t>siapa wakil dekan bidang kemahasiswaan 3</t>
-  </si>
-  <si>
-    <t>siapa ketua program studi sarjana teknologi informasi</t>
-  </si>
-  <si>
-    <t>tracking layanan kemahasiswaan dapat diaksespada tautan berikut : https://s.ub.ac.id/tracking-kemahasiswaan</t>
-  </si>
-  <si>
-    <t>layanan bimbingan dan konseling dapat diaksespada tautan berikut : https://s.ub.ac.id/konselingfilkom</t>
-  </si>
-  <si>
-    <t>layanan ultksp dapat diaksespada tautan berikut : https://s.ub.ac.id/ultkspfilkom</t>
-  </si>
-  <si>
-    <t>informasi dokumen kemahasiswaan dapat dilihat pada tautan berikut : https://s.ub.ac.id/dok-kemahasiswaan</t>
-  </si>
-  <si>
-    <t>informasi pengajuan surat tugas dosen pembimbing lomba dapat dilihat pada tautan berikut : https://s.ub.ac.id/prestasi</t>
-  </si>
-  <si>
-    <t>permohonan validasi data skm dapat dilihat pada tautan berikut : s.ub.ac.id/new34</t>
-  </si>
-  <si>
-    <t>tracer study fakultas dapat diakses pada tautan berikut : http://bit.ly/tracerfilkom</t>
-  </si>
-  <si>
-    <t>informasi mengenai layanan konseling dapat diakses pada tautan berikut :https://filkom.ub.ac.id/kemahasiswaan/layanan-bimbingan-dan-konseling/</t>
-  </si>
-  <si>
-    <t>ada 2 konselor bimbingan dan konseling di filkom : wiwin lukitohadi, s.psi. &amp; prasetyo iskandar, s.t.</t>
-  </si>
-  <si>
-    <t>rincian layanan ultksp dapat diakses pada tautan berikut : https://filkom.ub.ac.id/kemahasiswaan/layanan-ultksp/</t>
-  </si>
-  <si>
-    <t>visi dari filkom</t>
-  </si>
-  <si>
-    <t>tolong berikan informasi tentang alumni.</t>
-  </si>
-  <si>
-    <t>mohon informasi mengenai alumni.</t>
-  </si>
-  <si>
-    <t>apa saja layanan kemahasiswaan yang tersedia di filkom ub?</t>
-  </si>
-  <si>
-    <t>dapatkah anda menjelaskan layanan kemahasiswaan di filkom ub?</t>
-  </si>
-  <si>
-    <t>bagaimana prosedur pengajuan proposal oleh mahasiswa?</t>
-  </si>
-  <si>
-    <t>apa prosedur untuk mengajukan proposal dan laporan pertanggungjawaban (lpj) kegiatan kemahasiswaan?</t>
-  </si>
-  <si>
-    <t>tolong sediakan informasi mengenai dokumen kemahasiswaan.</t>
-  </si>
-  <si>
-    <t>mohon informasi terkait dokumen kemahasiswaan.</t>
-  </si>
-  <si>
-    <t>apa prosedur pengajuan surat tugas untuk dosen pembimbing lomba?</t>
-  </si>
-  <si>
-    <t>bagaimana cara mengajukan surat tugas dosen pembimbing lomba?</t>
-  </si>
-  <si>
-    <t>apa langkah-langkah untuk mengajukan permohonan validasi data skm?</t>
-  </si>
-  <si>
-    <t>bagaimana cara mengajukan permohonan validasi data skm?</t>
-  </si>
-  <si>
-    <t>tolong berikan informasi tentang validasi syarat wisuda.</t>
-  </si>
-  <si>
-    <t>mohon informasi terkait validasi syarat wisuda.</t>
-  </si>
-  <si>
-    <t>bagaimana cara mengakses tracer study fakultas?</t>
-  </si>
-  <si>
-    <t>apa langkah-langkah untuk mengakses tracer study fakultas?</t>
-  </si>
-  <si>
-    <t>bagaimana prosedur pendaftaran wisuda ulang?</t>
-  </si>
-  <si>
-    <t>apa langkah-langkah untuk mendaftar wisuda ulang?</t>
-  </si>
-  <si>
-    <t>tolong berikan informasi tentang layanan bimbingan dan konseling.</t>
-  </si>
-  <si>
-    <t>mohon informasi tentang layanan ultksp (unit layanan terpadu kekerasan seksual dan perundungan).</t>
-  </si>
-  <si>
-    <t>tolong berikan informasi mengenai layanan ultksp (unit layanan terpadu kekerasan seksual dan perundungan).</t>
-  </si>
-  <si>
-    <t>mohon informasi tentang pelacakan layanan kemahasiswaan.</t>
-  </si>
-  <si>
-    <t>tolong sediakan informasi tentang pelacakan layanan kemahasiswaan.</t>
-  </si>
-  <si>
-    <t>mohon informasi tentang layanan bimbingan dan konseling di filkom.</t>
-  </si>
-  <si>
-    <t>tolong sediakan informasi terkait bimbingan dan konseling di filkom.</t>
-  </si>
-  <si>
-    <t>apa tujuan dari unit konseling?</t>
-  </si>
-  <si>
-    <t>apa fungsi utama unit konseling?</t>
-  </si>
-  <si>
-    <t>apa peran bimbingan dan konseling serta penasehat akademik?</t>
-  </si>
-  <si>
-    <t>apa tugas bimbingan dan konseling serta penasehat akademik?</t>
-  </si>
-  <si>
-    <t>apa saja program yang disediakan oleh unit konseling?</t>
-  </si>
-  <si>
-    <t>apa layanan yang ditawarkan oleh unit konseling?</t>
-  </si>
-  <si>
-    <t>apa manfaat layanan konseling di filkom?</t>
-  </si>
-  <si>
-    <t>apa keuntungan dari layanan konseling di filkom?</t>
-  </si>
-  <si>
-    <t>mohon informasi tentang layanan konseling.</t>
-  </si>
-  <si>
-    <t>tolong berikan informasi mengenai layanan konseling.</t>
-  </si>
-  <si>
-    <t>siapa saja konselor bimbingan dan konseling di filkom?</t>
-  </si>
-  <si>
-    <t>dapatkah anda memberi tahu siapa konselor bimbingan dan konseling di filkom?</t>
-  </si>
-  <si>
-    <t>siapa yang menjadi koordinator konselor sebaya?</t>
-  </si>
-  <si>
-    <t>siapa koordinator untuk konselor sebaya?</t>
-  </si>
-  <si>
-    <t>mohon rincian mengenai layanan ultksp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,13 +572,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -616,7 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,16 +619,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,40 +637,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -699,10 +678,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -740,71 +719,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -832,7 +811,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -855,11 +834,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -868,13 +847,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -884,7 +863,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -893,7 +872,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -902,7 +881,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -910,10 +889,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -978,25 +957,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C837"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="182.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="63.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="182.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,4728 +985,4728 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="73.5" customFormat="1" s="1">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="73.5" customFormat="1" s="1">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="73.5" customFormat="1" s="1">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="73.5" customFormat="1" s="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A52" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A60" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="B60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B68" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="B69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A70" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="B70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A72" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="B72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A73" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="B73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="B74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A75" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="B75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="B76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B77" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="B78" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A79" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="B79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A80" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="B80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A81" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="B81" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A82" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="B82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A83" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="B83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A84" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="B84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A85" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="B85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A86" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="B86" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A87" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="B87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A88" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="B88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A89" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="B89" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A90" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="B90" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A91" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="B91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A92" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="B92" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A154" s="6"/>
       <c r="B154" s="3"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A155" s="6"/>
       <c r="B155" s="3"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A156" s="6"/>
       <c r="B156" s="3"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A157" s="6"/>
       <c r="B157" s="3"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A158" s="6"/>
       <c r="B158" s="3"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A159" s="6"/>
       <c r="B159" s="3"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A160" s="6"/>
       <c r="B160" s="3"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A161" s="6"/>
       <c r="B161" s="3"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A162" s="6"/>
       <c r="B162" s="3"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A163" s="6"/>
       <c r="B163" s="3"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A164" s="6"/>
       <c r="B164" s="3"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A165" s="6"/>
       <c r="B165" s="3"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A166" s="6"/>
       <c r="B166" s="3"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A167" s="6"/>
       <c r="B167" s="3"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A168" s="6"/>
       <c r="B168" s="3"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A169" s="6"/>
       <c r="B169" s="3"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A170" s="6"/>
       <c r="B170" s="3"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A171" s="6"/>
       <c r="B171" s="3"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A172" s="6"/>
       <c r="B172" s="3"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A173" s="6"/>
       <c r="B173" s="3"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A174" s="6"/>
       <c r="B174" s="3"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A175" s="6"/>
       <c r="B175" s="3"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A176" s="6"/>
       <c r="B176" s="3"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A177" s="6"/>
       <c r="B177" s="3"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A178" s="6"/>
       <c r="B178" s="3"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A179" s="6"/>
       <c r="B179" s="3"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A180" s="6"/>
       <c r="B180" s="3"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A181" s="6"/>
       <c r="B181" s="3"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A182" s="6"/>
       <c r="B182" s="3"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A183" s="6"/>
       <c r="B183" s="3"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A184" s="6"/>
       <c r="B184" s="3"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A185" s="6"/>
       <c r="B185" s="3"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A186" s="6"/>
       <c r="B186" s="3"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A187" s="6"/>
       <c r="B187" s="3"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A188" s="6"/>
       <c r="B188" s="3"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A189" s="6"/>
       <c r="B189" s="3"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A190" s="6"/>
       <c r="B190" s="3"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A191" s="6"/>
       <c r="B191" s="3"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A192" s="6"/>
       <c r="B192" s="3"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A193" s="6"/>
       <c r="B193" s="3"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A194" s="6"/>
       <c r="B194" s="3"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A195" s="6"/>
       <c r="B195" s="3"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A196" s="6"/>
       <c r="B196" s="3"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A197" s="6"/>
       <c r="B197" s="3"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A198" s="6"/>
       <c r="B198" s="3"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A199" s="6"/>
       <c r="B199" s="3"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A200" s="6"/>
       <c r="B200" s="3"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A201" s="6"/>
       <c r="B201" s="3"/>
       <c r="C201" s="6"/>
     </row>
-    <row r="202" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A202" s="6"/>
       <c r="B202" s="3"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A203" s="6"/>
       <c r="B203" s="3"/>
       <c r="C203" s="6"/>
     </row>
-    <row r="204" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A204" s="6"/>
       <c r="B204" s="3"/>
       <c r="C204" s="6"/>
     </row>
-    <row r="205" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A205" s="6"/>
       <c r="B205" s="3"/>
       <c r="C205" s="6"/>
     </row>
-    <row r="206" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A206" s="6"/>
       <c r="B206" s="3"/>
       <c r="C206" s="6"/>
     </row>
-    <row r="207" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A207" s="6"/>
       <c r="B207" s="3"/>
       <c r="C207" s="6"/>
     </row>
-    <row r="208" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A208" s="6"/>
       <c r="B208" s="3"/>
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A209" s="6"/>
       <c r="B209" s="3"/>
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A210" s="6"/>
       <c r="B210" s="3"/>
       <c r="C210" s="6"/>
     </row>
-    <row r="211" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A211" s="6"/>
       <c r="B211" s="3"/>
       <c r="C211" s="6"/>
     </row>
-    <row r="212" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A212" s="6"/>
       <c r="B212" s="3"/>
       <c r="C212" s="6"/>
     </row>
-    <row r="213" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A213" s="6"/>
       <c r="B213" s="3"/>
       <c r="C213" s="6"/>
     </row>
-    <row r="214" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A214" s="6"/>
       <c r="B214" s="3"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A215" s="6"/>
       <c r="B215" s="3"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A216" s="6"/>
       <c r="B216" s="3"/>
       <c r="C216" s="6"/>
     </row>
-    <row r="217" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A217" s="6"/>
       <c r="B217" s="3"/>
       <c r="C217" s="6"/>
     </row>
-    <row r="218" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A218" s="6"/>
       <c r="B218" s="3"/>
       <c r="C218" s="6"/>
     </row>
-    <row r="219" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A219" s="6"/>
       <c r="B219" s="3"/>
       <c r="C219" s="6"/>
     </row>
-    <row r="220" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A220" s="6"/>
       <c r="B220" s="3"/>
       <c r="C220" s="6"/>
     </row>
-    <row r="221" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A221" s="6"/>
       <c r="B221" s="3"/>
       <c r="C221" s="6"/>
     </row>
-    <row r="222" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A222" s="6"/>
       <c r="B222" s="3"/>
       <c r="C222" s="6"/>
     </row>
-    <row r="223" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A223" s="6"/>
       <c r="B223" s="3"/>
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A224" s="6"/>
       <c r="B224" s="3"/>
       <c r="C224" s="6"/>
     </row>
-    <row r="225" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A225" s="6"/>
       <c r="B225" s="3"/>
       <c r="C225" s="6"/>
     </row>
-    <row r="226" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A226" s="6"/>
       <c r="B226" s="3"/>
       <c r="C226" s="6"/>
     </row>
-    <row r="227" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A227" s="6"/>
       <c r="B227" s="3"/>
       <c r="C227" s="6"/>
     </row>
-    <row r="228" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A228" s="6"/>
       <c r="B228" s="3"/>
       <c r="C228" s="6"/>
     </row>
-    <row r="229" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A229" s="6"/>
       <c r="B229" s="3"/>
       <c r="C229" s="6"/>
     </row>
-    <row r="230" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A230" s="6"/>
       <c r="B230" s="3"/>
       <c r="C230" s="6"/>
     </row>
-    <row r="231" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A231" s="6"/>
       <c r="B231" s="3"/>
       <c r="C231" s="6"/>
     </row>
-    <row r="232" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A232" s="6"/>
       <c r="B232" s="3"/>
       <c r="C232" s="6"/>
     </row>
-    <row r="233" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A233" s="6"/>
       <c r="B233" s="3"/>
       <c r="C233" s="6"/>
     </row>
-    <row r="234" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A234" s="6"/>
       <c r="B234" s="3"/>
       <c r="C234" s="6"/>
     </row>
-    <row r="235" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A235" s="6"/>
       <c r="B235" s="3"/>
       <c r="C235" s="6"/>
     </row>
-    <row r="236" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A236" s="6"/>
       <c r="B236" s="3"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A237" s="6"/>
       <c r="B237" s="3"/>
       <c r="C237" s="6"/>
     </row>
-    <row r="238" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A238" s="6"/>
       <c r="B238" s="3"/>
       <c r="C238" s="6"/>
     </row>
-    <row r="239" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A239" s="6"/>
       <c r="B239" s="3"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A240" s="6"/>
       <c r="B240" s="3"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A241" s="6"/>
       <c r="B241" s="3"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A242" s="6"/>
       <c r="B242" s="3"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A243" s="6"/>
       <c r="B243" s="3"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A244" s="6"/>
       <c r="B244" s="3"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A245" s="6"/>
       <c r="B245" s="3"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A246" s="6"/>
       <c r="B246" s="3"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A247" s="6"/>
       <c r="B247" s="3"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A248" s="6"/>
       <c r="B248" s="3"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A249" s="6"/>
       <c r="B249" s="3"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A250" s="6"/>
       <c r="B250" s="3"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A251" s="6"/>
       <c r="B251" s="3"/>
       <c r="C251" s="6"/>
     </row>
-    <row r="252" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A252" s="6"/>
       <c r="B252" s="3"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A253" s="6"/>
       <c r="B253" s="3"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A254" s="6"/>
       <c r="B254" s="3"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A255" s="6"/>
       <c r="B255" s="3"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A257" s="6"/>
       <c r="B257" s="3"/>
       <c r="C257" s="6"/>
     </row>
-    <row r="258" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A258" s="6"/>
       <c r="B258" s="3"/>
       <c r="C258" s="6"/>
     </row>
-    <row r="259" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A259" s="6"/>
       <c r="B259" s="3"/>
       <c r="C259" s="6"/>
     </row>
-    <row r="260" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A260" s="6"/>
       <c r="B260" s="3"/>
       <c r="C260" s="6"/>
     </row>
-    <row r="261" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A261" s="6"/>
       <c r="B261" s="3"/>
       <c r="C261" s="6"/>
     </row>
-    <row r="262" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A262" s="6"/>
       <c r="B262" s="3"/>
       <c r="C262" s="6"/>
     </row>
-    <row r="263" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A263" s="6"/>
       <c r="B263" s="3"/>
       <c r="C263" s="6"/>
     </row>
-    <row r="264" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A264" s="6"/>
       <c r="B264" s="3"/>
       <c r="C264" s="6"/>
     </row>
-    <row r="265" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A265" s="6"/>
       <c r="B265" s="3"/>
       <c r="C265" s="6"/>
     </row>
-    <row r="266" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A266" s="6"/>
       <c r="B266" s="3"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A267" s="6"/>
       <c r="B267" s="3"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A268" s="6"/>
       <c r="B268" s="3"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A269" s="6"/>
       <c r="B269" s="3"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A270" s="6"/>
       <c r="B270" s="3"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A271" s="6"/>
       <c r="B271" s="3"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A272" s="6"/>
       <c r="B272" s="3"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A273" s="6"/>
       <c r="B273" s="3"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A274" s="6"/>
       <c r="B274" s="3"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A275" s="6"/>
       <c r="B275" s="3"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A276" s="6"/>
       <c r="B276" s="3"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A277" s="6"/>
       <c r="B277" s="3"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A278" s="6"/>
       <c r="B278" s="3"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A279" s="6"/>
       <c r="B279" s="3"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A280" s="6"/>
       <c r="B280" s="3"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A281" s="6"/>
       <c r="B281" s="3"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A282" s="6"/>
       <c r="B282" s="3"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A283" s="6"/>
       <c r="B283" s="3"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A284" s="6"/>
       <c r="B284" s="3"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A285" s="6"/>
       <c r="B285" s="3"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A286" s="6"/>
       <c r="B286" s="3"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A287" s="6"/>
       <c r="B287" s="3"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A288" s="6"/>
       <c r="B288" s="3"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A289" s="6"/>
       <c r="B289" s="3"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A290" s="6"/>
       <c r="B290" s="3"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A291" s="6"/>
       <c r="B291" s="3"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A292" s="6"/>
       <c r="B292" s="3"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A293" s="6"/>
       <c r="B293" s="3"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A294" s="6"/>
       <c r="B294" s="3"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A295" s="6"/>
       <c r="B295" s="3"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A297" s="6"/>
       <c r="B297" s="3"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A298" s="6"/>
       <c r="B298" s="3"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A302" s="6"/>
       <c r="B302" s="3"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A303" s="6"/>
       <c r="B303" s="3"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A304" s="6"/>
       <c r="B304" s="3"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A305" s="6"/>
       <c r="B305" s="3"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A306" s="6"/>
       <c r="B306" s="3"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A307" s="6"/>
       <c r="B307" s="3"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A308" s="6"/>
       <c r="B308" s="3"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A309" s="6"/>
       <c r="B309" s="3"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A310" s="6"/>
       <c r="B310" s="3"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A311" s="6"/>
       <c r="B311" s="3"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A312" s="6"/>
       <c r="B312" s="3"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A313" s="6"/>
       <c r="B313" s="3"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A314" s="6"/>
       <c r="B314" s="3"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A315" s="6"/>
       <c r="B315" s="3"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A316" s="6"/>
       <c r="B316" s="3"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A317" s="6"/>
       <c r="B317" s="3"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A318" s="6"/>
       <c r="B318" s="3"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A319" s="6"/>
       <c r="B319" s="3"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A320" s="6"/>
       <c r="B320" s="3"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A321" s="6"/>
       <c r="B321" s="3"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A322" s="6"/>
       <c r="B322" s="3"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A323" s="6"/>
       <c r="B323" s="3"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A324" s="6"/>
       <c r="B324" s="3"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A325" s="6"/>
       <c r="B325" s="3"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A326" s="6"/>
       <c r="B326" s="3"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A327" s="6"/>
       <c r="B327" s="3"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A328" s="6"/>
       <c r="B328" s="3"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A329" s="6"/>
       <c r="B329" s="3"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A330" s="6"/>
       <c r="B330" s="3"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A331" s="6"/>
       <c r="B331" s="3"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A332" s="6"/>
       <c r="B332" s="3"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A333" s="6"/>
       <c r="B333" s="3"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A334" s="6"/>
       <c r="B334" s="3"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A335" s="6"/>
       <c r="B335" s="3"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A336" s="6"/>
       <c r="B336" s="3"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A337" s="6"/>
       <c r="B337" s="3"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A338" s="6"/>
       <c r="B338" s="3"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A339" s="6"/>
       <c r="B339" s="3"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A340" s="6"/>
       <c r="B340" s="3"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A341" s="6"/>
       <c r="B341" s="3"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A342" s="6"/>
       <c r="B342" s="3"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A343" s="6"/>
       <c r="B343" s="3"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A344" s="6"/>
       <c r="B344" s="3"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A345" s="6"/>
       <c r="B345" s="3"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A346" s="6"/>
       <c r="B346" s="3"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A347" s="6"/>
       <c r="B347" s="3"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A348" s="6"/>
       <c r="B348" s="3"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A349" s="6"/>
       <c r="B349" s="3"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A350" s="6"/>
       <c r="B350" s="3"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A351" s="6"/>
       <c r="B351" s="3"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A352" s="6"/>
       <c r="B352" s="3"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A353" s="6"/>
       <c r="B353" s="3"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A354" s="6"/>
       <c r="B354" s="3"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A355" s="6"/>
       <c r="B355" s="3"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A356" s="6"/>
       <c r="B356" s="3"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A357" s="6"/>
       <c r="B357" s="3"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A358" s="6"/>
       <c r="B358" s="3"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A359" s="6"/>
       <c r="B359" s="3"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A360" s="6"/>
       <c r="B360" s="3"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A361" s="6"/>
       <c r="B361" s="3"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A362" s="6"/>
       <c r="B362" s="3"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A363" s="6"/>
       <c r="B363" s="3"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A364" s="6"/>
       <c r="B364" s="3"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A365" s="6"/>
       <c r="B365" s="3"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A366" s="6"/>
       <c r="B366" s="3"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A367" s="6"/>
       <c r="B367" s="3"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A368" s="6"/>
       <c r="B368" s="3"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A369" s="6"/>
       <c r="B369" s="3"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A370" s="6"/>
       <c r="B370" s="3"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A371" s="6"/>
       <c r="B371" s="3"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A372" s="6"/>
       <c r="B372" s="3"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A373" s="6"/>
       <c r="B373" s="3"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A374" s="6"/>
       <c r="B374" s="3"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A375" s="6"/>
       <c r="B375" s="3"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A376" s="6"/>
       <c r="B376" s="3"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A377" s="6"/>
       <c r="B377" s="3"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A378" s="6"/>
       <c r="B378" s="3"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A379" s="6"/>
       <c r="B379" s="3"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A380" s="6"/>
       <c r="B380" s="3"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A381" s="6"/>
       <c r="B381" s="3"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A382" s="6"/>
       <c r="B382" s="3"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A383" s="6"/>
       <c r="B383" s="3"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A384" s="6"/>
       <c r="B384" s="3"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A385" s="6"/>
       <c r="B385" s="3"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A386" s="6"/>
       <c r="B386" s="3"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A387" s="6"/>
       <c r="B387" s="3"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A388" s="6"/>
       <c r="B388" s="3"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A389" s="6"/>
       <c r="B389" s="3"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A390" s="6"/>
       <c r="B390" s="3"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A391" s="6"/>
       <c r="B391" s="3"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A392" s="6"/>
       <c r="B392" s="3"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A393" s="6"/>
       <c r="B393" s="3"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A394" s="6"/>
       <c r="B394" s="3"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A395" s="6"/>
       <c r="B395" s="3"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A396" s="6"/>
       <c r="B396" s="3"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A397" s="6"/>
       <c r="B397" s="3"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A398" s="6"/>
       <c r="B398" s="3"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A399" s="6"/>
       <c r="B399" s="3"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A400" s="6"/>
       <c r="B400" s="3"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A401" s="6"/>
       <c r="B401" s="3"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A402" s="6"/>
       <c r="B402" s="3"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A403" s="6"/>
       <c r="B403" s="3"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A404" s="6"/>
       <c r="B404" s="3"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A405" s="6"/>
       <c r="B405" s="3"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A406" s="6"/>
       <c r="B406" s="3"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A407" s="6"/>
       <c r="B407" s="3"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A408" s="6"/>
       <c r="B408" s="3"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A409" s="6"/>
       <c r="B409" s="3"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A410" s="6"/>
       <c r="B410" s="3"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A411" s="6"/>
       <c r="B411" s="3"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A412" s="6"/>
       <c r="B412" s="3"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A413" s="6"/>
       <c r="B413" s="3"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A414" s="6"/>
       <c r="B414" s="3"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A415" s="6"/>
       <c r="B415" s="3"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A416" s="6"/>
       <c r="B416" s="3"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A417" s="6"/>
       <c r="B417" s="3"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A418" s="6"/>
       <c r="B418" s="3"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A419" s="6"/>
       <c r="B419" s="3"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A420" s="6"/>
       <c r="B420" s="3"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A421" s="6"/>
       <c r="B421" s="3"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A422" s="6"/>
       <c r="B422" s="3"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A423" s="6"/>
       <c r="B423" s="3"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A424" s="6"/>
       <c r="B424" s="3"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A425" s="6"/>
       <c r="B425" s="3"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A426" s="6"/>
       <c r="B426" s="3"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A427" s="6"/>
       <c r="B427" s="3"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A428" s="6"/>
       <c r="B428" s="3"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A429" s="6"/>
       <c r="B429" s="3"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A430" s="6"/>
       <c r="B430" s="3"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A431" s="6"/>
       <c r="B431" s="3"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A432" s="6"/>
       <c r="B432" s="3"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A433" s="6"/>
       <c r="B433" s="3"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A434" s="6"/>
       <c r="B434" s="3"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A435" s="6"/>
       <c r="B435" s="3"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A436" s="6"/>
       <c r="B436" s="3"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A437" s="6"/>
       <c r="B437" s="3"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A438" s="6"/>
       <c r="B438" s="3"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A439" s="6"/>
       <c r="B439" s="3"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A440" s="6"/>
       <c r="B440" s="3"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A441" s="6"/>
       <c r="B441" s="3"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A442" s="6"/>
       <c r="B442" s="3"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A443" s="6"/>
       <c r="B443" s="3"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A444" s="6"/>
       <c r="B444" s="3"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A445" s="6"/>
       <c r="B445" s="3"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A446" s="6"/>
       <c r="B446" s="3"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A447" s="6"/>
       <c r="B447" s="3"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A448" s="6"/>
       <c r="B448" s="3"/>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A449" s="6"/>
       <c r="B449" s="3"/>
       <c r="C449" s="6"/>
     </row>
-    <row r="450" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A450" s="6"/>
       <c r="B450" s="3"/>
       <c r="C450" s="6"/>
     </row>
-    <row r="451" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A451" s="6"/>
       <c r="B451" s="3"/>
       <c r="C451" s="6"/>
     </row>
-    <row r="452" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A452" s="6"/>
       <c r="B452" s="3"/>
       <c r="C452" s="6"/>
     </row>
-    <row r="453" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A453" s="6"/>
       <c r="B453" s="3"/>
       <c r="C453" s="6"/>
     </row>
-    <row r="454" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A454" s="6"/>
       <c r="B454" s="3"/>
       <c r="C454" s="6"/>
     </row>
-    <row r="455" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A455" s="6"/>
       <c r="B455" s="3"/>
       <c r="C455" s="6"/>
     </row>
-    <row r="456" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A456" s="6"/>
       <c r="B456" s="3"/>
       <c r="C456" s="6"/>
     </row>
-    <row r="457" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A457" s="6"/>
       <c r="B457" s="3"/>
       <c r="C457" s="6"/>
     </row>
-    <row r="458" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A458" s="6"/>
       <c r="B458" s="3"/>
       <c r="C458" s="6"/>
     </row>
-    <row r="459" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A459" s="6"/>
       <c r="B459" s="3"/>
       <c r="C459" s="6"/>
     </row>
-    <row r="460" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A460" s="6"/>
       <c r="B460" s="3"/>
       <c r="C460" s="6"/>
     </row>
-    <row r="461" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A461" s="6"/>
       <c r="B461" s="3"/>
       <c r="C461" s="6"/>
     </row>
-    <row r="462" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A462" s="6"/>
       <c r="B462" s="3"/>
       <c r="C462" s="6"/>
     </row>
-    <row r="463" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A463" s="6"/>
       <c r="B463" s="3"/>
       <c r="C463" s="6"/>
     </row>
-    <row r="464" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A464" s="6"/>
       <c r="B464" s="3"/>
       <c r="C464" s="6"/>
     </row>
-    <row r="465" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A465" s="6"/>
       <c r="B465" s="3"/>
       <c r="C465" s="6"/>
     </row>
-    <row r="466" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A466" s="6"/>
       <c r="B466" s="3"/>
       <c r="C466" s="6"/>
     </row>
-    <row r="467" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A467" s="6"/>
       <c r="B467" s="3"/>
       <c r="C467" s="6"/>
     </row>
-    <row r="468" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A468" s="6"/>
       <c r="B468" s="3"/>
       <c r="C468" s="6"/>
     </row>
-    <row r="469" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A469" s="6"/>
       <c r="B469" s="3"/>
       <c r="C469" s="6"/>
     </row>
-    <row r="470" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A470" s="6"/>
       <c r="B470" s="3"/>
       <c r="C470" s="6"/>
     </row>
-    <row r="471" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A471" s="6"/>
       <c r="B471" s="3"/>
       <c r="C471" s="6"/>
     </row>
-    <row r="472" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A472" s="6"/>
       <c r="B472" s="3"/>
       <c r="C472" s="6"/>
     </row>
-    <row r="473" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A473" s="6"/>
       <c r="B473" s="3"/>
       <c r="C473" s="6"/>
     </row>
-    <row r="474" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A474" s="6"/>
       <c r="B474" s="3"/>
       <c r="C474" s="6"/>
     </row>
-    <row r="475" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A475" s="6"/>
       <c r="B475" s="3"/>
       <c r="C475" s="6"/>
     </row>
-    <row r="476" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A476" s="6"/>
       <c r="B476" s="3"/>
       <c r="C476" s="6"/>
     </row>
-    <row r="477" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A477" s="6"/>
       <c r="B477" s="3"/>
       <c r="C477" s="6"/>
     </row>
-    <row r="478" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A478" s="6"/>
       <c r="B478" s="3"/>
       <c r="C478" s="6"/>
     </row>
-    <row r="479" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A479" s="6"/>
       <c r="B479" s="3"/>
       <c r="C479" s="6"/>
     </row>
-    <row r="480" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A480" s="6"/>
       <c r="B480" s="3"/>
       <c r="C480" s="6"/>
     </row>
-    <row r="481" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A481" s="6"/>
       <c r="B481" s="3"/>
       <c r="C481" s="6"/>
     </row>
-    <row r="482" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A482" s="6"/>
       <c r="B482" s="3"/>
       <c r="C482" s="6"/>
     </row>
-    <row r="483" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A483" s="6"/>
       <c r="B483" s="3"/>
       <c r="C483" s="6"/>
     </row>
-    <row r="484" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A484" s="6"/>
       <c r="B484" s="3"/>
       <c r="C484" s="6"/>
     </row>
-    <row r="485" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A485" s="6"/>
       <c r="B485" s="3"/>
       <c r="C485" s="6"/>
     </row>
-    <row r="486" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A486" s="6"/>
       <c r="B486" s="3"/>
       <c r="C486" s="6"/>
     </row>
-    <row r="487" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A487" s="6"/>
       <c r="B487" s="3"/>
       <c r="C487" s="6"/>
     </row>
-    <row r="488" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A488" s="6"/>
       <c r="B488" s="3"/>
       <c r="C488" s="6"/>
     </row>
-    <row r="489" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A489" s="6"/>
       <c r="B489" s="3"/>
       <c r="C489" s="6"/>
     </row>
-    <row r="490" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A490" s="6"/>
       <c r="B490" s="3"/>
       <c r="C490" s="6"/>
     </row>
-    <row r="491" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A491" s="6"/>
       <c r="B491" s="3"/>
       <c r="C491" s="6"/>
     </row>
-    <row r="492" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A492" s="6"/>
       <c r="B492" s="3"/>
       <c r="C492" s="6"/>
     </row>
-    <row r="493" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A493" s="6"/>
       <c r="B493" s="3"/>
       <c r="C493" s="6"/>
     </row>
-    <row r="494" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A494" s="6"/>
       <c r="B494" s="3"/>
       <c r="C494" s="6"/>
     </row>
-    <row r="495" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A495" s="6"/>
       <c r="B495" s="3"/>
       <c r="C495" s="6"/>
     </row>
-    <row r="496" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A496" s="6"/>
       <c r="B496" s="3"/>
       <c r="C496" s="6"/>
     </row>
-    <row r="497" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A497" s="6"/>
       <c r="B497" s="3"/>
       <c r="C497" s="6"/>
     </row>
-    <row r="498" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A498" s="6"/>
       <c r="B498" s="3"/>
       <c r="C498" s="6"/>
     </row>
-    <row r="499" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A499" s="6"/>
       <c r="B499" s="3"/>
       <c r="C499" s="6"/>
     </row>
-    <row r="500" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A500" s="6"/>
       <c r="B500" s="3"/>
       <c r="C500" s="6"/>
     </row>
-    <row r="501" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A501" s="6"/>
       <c r="B501" s="3"/>
       <c r="C501" s="6"/>
     </row>
-    <row r="502" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A502" s="6"/>
       <c r="B502" s="3"/>
       <c r="C502" s="6"/>
     </row>
-    <row r="503" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A503" s="6"/>
       <c r="B503" s="3"/>
       <c r="C503" s="6"/>
     </row>
-    <row r="504" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A504" s="6"/>
       <c r="B504" s="3"/>
       <c r="C504" s="6"/>
     </row>
-    <row r="505" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A505" s="6"/>
       <c r="B505" s="3"/>
       <c r="C505" s="6"/>
     </row>
-    <row r="506" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A506" s="6"/>
       <c r="B506" s="3"/>
       <c r="C506" s="6"/>
     </row>
-    <row r="507" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A507" s="6"/>
       <c r="B507" s="3"/>
       <c r="C507" s="6"/>
     </row>
-    <row r="508" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A508" s="6"/>
       <c r="B508" s="3"/>
       <c r="C508" s="6"/>
     </row>
-    <row r="509" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A509" s="6"/>
       <c r="B509" s="3"/>
       <c r="C509" s="6"/>
     </row>
-    <row r="510" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A510" s="6"/>
       <c r="B510" s="3"/>
       <c r="C510" s="6"/>
     </row>
-    <row r="511" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A511" s="6"/>
       <c r="B511" s="3"/>
       <c r="C511" s="6"/>
     </row>
-    <row r="512" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A512" s="6"/>
       <c r="B512" s="3"/>
       <c r="C512" s="6"/>
     </row>
-    <row r="513" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A513" s="6"/>
       <c r="B513" s="3"/>
       <c r="C513" s="6"/>
     </row>
-    <row r="514" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A514" s="6"/>
       <c r="B514" s="3"/>
       <c r="C514" s="6"/>
     </row>
-    <row r="515" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A515" s="6"/>
       <c r="B515" s="3"/>
       <c r="C515" s="6"/>
     </row>
-    <row r="516" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A516" s="6"/>
       <c r="B516" s="3"/>
       <c r="C516" s="6"/>
     </row>
-    <row r="517" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A517" s="6"/>
       <c r="B517" s="3"/>
       <c r="C517" s="6"/>
     </row>
-    <row r="518" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A518" s="6"/>
       <c r="B518" s="3"/>
       <c r="C518" s="6"/>
     </row>
-    <row r="519" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A519" s="6"/>
       <c r="B519" s="3"/>
       <c r="C519" s="6"/>
     </row>
-    <row r="520" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A520" s="6"/>
       <c r="B520" s="3"/>
       <c r="C520" s="6"/>
     </row>
-    <row r="521" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A521" s="6"/>
       <c r="B521" s="3"/>
       <c r="C521" s="6"/>
     </row>
-    <row r="522" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A522" s="6"/>
       <c r="B522" s="3"/>
       <c r="C522" s="6"/>
     </row>
-    <row r="523" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A523" s="6"/>
       <c r="B523" s="3"/>
       <c r="C523" s="6"/>
     </row>
-    <row r="524" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A524" s="6"/>
       <c r="B524" s="3"/>
       <c r="C524" s="6"/>
     </row>
-    <row r="525" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A525" s="6"/>
       <c r="B525" s="3"/>
       <c r="C525" s="6"/>
     </row>
-    <row r="526" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A526" s="6"/>
       <c r="B526" s="3"/>
       <c r="C526" s="6"/>
     </row>
-    <row r="527" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A527" s="6"/>
       <c r="B527" s="3"/>
       <c r="C527" s="6"/>
     </row>
-    <row r="528" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A528" s="6"/>
       <c r="B528" s="3"/>
       <c r="C528" s="6"/>
     </row>
-    <row r="529" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A529" s="6"/>
       <c r="B529" s="3"/>
       <c r="C529" s="6"/>
     </row>
-    <row r="530" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A530" s="6"/>
       <c r="B530" s="3"/>
       <c r="C530" s="6"/>
     </row>
-    <row r="531" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A531" s="6"/>
       <c r="B531" s="3"/>
       <c r="C531" s="6"/>
     </row>
-    <row r="532" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A532" s="6"/>
       <c r="B532" s="3"/>
       <c r="C532" s="6"/>
     </row>
-    <row r="533" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A533" s="6"/>
       <c r="B533" s="3"/>
       <c r="C533" s="6"/>
     </row>
-    <row r="534" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A534" s="6"/>
       <c r="B534" s="3"/>
       <c r="C534" s="6"/>
     </row>
-    <row r="535" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A535" s="6"/>
       <c r="B535" s="3"/>
       <c r="C535" s="6"/>
     </row>
-    <row r="536" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A536" s="6"/>
       <c r="B536" s="3"/>
       <c r="C536" s="6"/>
     </row>
-    <row r="537" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A537" s="6"/>
       <c r="B537" s="3"/>
       <c r="C537" s="6"/>
     </row>
-    <row r="538" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A538" s="6"/>
       <c r="B538" s="3"/>
       <c r="C538" s="6"/>
     </row>
-    <row r="539" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A539" s="6"/>
       <c r="B539" s="3"/>
       <c r="C539" s="6"/>
     </row>
-    <row r="540" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A540" s="6"/>
       <c r="B540" s="3"/>
       <c r="C540" s="6"/>
     </row>
-    <row r="541" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A541" s="6"/>
       <c r="B541" s="3"/>
       <c r="C541" s="6"/>
     </row>
-    <row r="542" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A542" s="6"/>
       <c r="B542" s="3"/>
       <c r="C542" s="6"/>
     </row>
-    <row r="543" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A543" s="6"/>
       <c r="B543" s="3"/>
       <c r="C543" s="6"/>
     </row>
-    <row r="544" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A544" s="6"/>
       <c r="B544" s="3"/>
       <c r="C544" s="6"/>
     </row>
-    <row r="545" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A545" s="6"/>
       <c r="B545" s="3"/>
       <c r="C545" s="6"/>
     </row>
-    <row r="546" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A546" s="6"/>
       <c r="B546" s="3"/>
       <c r="C546" s="6"/>
     </row>
-    <row r="547" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A547" s="6"/>
       <c r="B547" s="3"/>
       <c r="C547" s="6"/>
     </row>
-    <row r="548" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A548" s="6"/>
       <c r="B548" s="3"/>
       <c r="C548" s="6"/>
     </row>
-    <row r="549" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A549" s="6"/>
       <c r="B549" s="3"/>
       <c r="C549" s="6"/>
     </row>
-    <row r="550" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A550" s="6"/>
       <c r="B550" s="3"/>
       <c r="C550" s="6"/>
     </row>
-    <row r="551" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A551" s="6"/>
       <c r="B551" s="3"/>
       <c r="C551" s="6"/>
     </row>
-    <row r="552" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A552" s="6"/>
       <c r="B552" s="3"/>
       <c r="C552" s="6"/>
     </row>
-    <row r="553" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A553" s="6"/>
       <c r="B553" s="3"/>
       <c r="C553" s="6"/>
     </row>
-    <row r="554" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A554" s="6"/>
       <c r="B554" s="3"/>
       <c r="C554" s="6"/>
     </row>
-    <row r="555" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A555" s="6"/>
       <c r="B555" s="3"/>
       <c r="C555" s="6"/>
     </row>
-    <row r="556" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A556" s="6"/>
       <c r="B556" s="3"/>
       <c r="C556" s="6"/>
     </row>
-    <row r="557" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A557" s="6"/>
       <c r="B557" s="3"/>
       <c r="C557" s="6"/>
     </row>
-    <row r="558" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A558" s="6"/>
       <c r="B558" s="3"/>
       <c r="C558" s="6"/>
     </row>
-    <row r="559" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A559" s="6"/>
       <c r="B559" s="3"/>
       <c r="C559" s="6"/>
     </row>
-    <row r="560" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A560" s="6"/>
       <c r="B560" s="3"/>
       <c r="C560" s="6"/>
     </row>
-    <row r="561" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A561" s="6"/>
       <c r="B561" s="3"/>
       <c r="C561" s="6"/>
     </row>
-    <row r="562" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A562" s="6"/>
       <c r="B562" s="3"/>
       <c r="C562" s="6"/>
     </row>
-    <row r="563" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A563" s="6"/>
       <c r="B563" s="3"/>
       <c r="C563" s="6"/>
     </row>
-    <row r="564" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A564" s="6"/>
       <c r="B564" s="3"/>
       <c r="C564" s="6"/>
     </row>
-    <row r="565" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A565" s="6"/>
       <c r="B565" s="3"/>
       <c r="C565" s="6"/>
     </row>
-    <row r="566" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A566" s="6"/>
       <c r="B566" s="3"/>
       <c r="C566" s="6"/>
     </row>
-    <row r="567" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A567" s="6"/>
       <c r="B567" s="3"/>
       <c r="C567" s="6"/>
     </row>
-    <row r="568" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A568" s="6"/>
       <c r="B568" s="3"/>
       <c r="C568" s="6"/>
     </row>
-    <row r="569" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A569" s="6"/>
       <c r="B569" s="3"/>
       <c r="C569" s="6"/>
     </row>
-    <row r="570" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A570" s="6"/>
       <c r="B570" s="3"/>
       <c r="C570" s="6"/>
     </row>
-    <row r="571" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A571" s="6"/>
       <c r="B571" s="3"/>
       <c r="C571" s="6"/>
     </row>
-    <row r="572" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A572" s="6"/>
       <c r="B572" s="3"/>
       <c r="C572" s="6"/>
     </row>
-    <row r="573" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A573" s="6"/>
       <c r="B573" s="3"/>
       <c r="C573" s="6"/>
     </row>
-    <row r="574" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A574" s="6"/>
       <c r="B574" s="3"/>
       <c r="C574" s="6"/>
     </row>
-    <row r="575" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A575" s="6"/>
       <c r="B575" s="3"/>
       <c r="C575" s="6"/>
     </row>
-    <row r="576" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A576" s="6"/>
       <c r="B576" s="3"/>
       <c r="C576" s="6"/>
     </row>
-    <row r="577" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A577" s="6"/>
       <c r="B577" s="3"/>
       <c r="C577" s="6"/>
     </row>
-    <row r="578" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A578" s="6"/>
       <c r="B578" s="3"/>
       <c r="C578" s="6"/>
     </row>
-    <row r="579" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A579" s="6"/>
       <c r="B579" s="3"/>
       <c r="C579" s="6"/>
     </row>
-    <row r="580" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A580" s="6"/>
       <c r="B580" s="3"/>
       <c r="C580" s="6"/>
     </row>
-    <row r="581" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A581" s="6"/>
       <c r="B581" s="3"/>
       <c r="C581" s="6"/>
     </row>
-    <row r="582" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A582" s="6"/>
       <c r="B582" s="3"/>
       <c r="C582" s="6"/>
     </row>
-    <row r="583" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A583" s="6"/>
       <c r="B583" s="3"/>
       <c r="C583" s="6"/>
     </row>
-    <row r="584" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A584" s="6"/>
       <c r="B584" s="3"/>
       <c r="C584" s="6"/>
     </row>
-    <row r="585" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A585" s="6"/>
       <c r="B585" s="3"/>
       <c r="C585" s="6"/>
     </row>
-    <row r="586" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A586" s="6"/>
       <c r="B586" s="3"/>
       <c r="C586" s="6"/>
     </row>
-    <row r="587" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A587" s="6"/>
       <c r="B587" s="3"/>
       <c r="C587" s="6"/>
     </row>
-    <row r="588" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A588" s="6"/>
       <c r="B588" s="3"/>
       <c r="C588" s="6"/>
     </row>
-    <row r="589" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A589" s="6"/>
       <c r="B589" s="3"/>
       <c r="C589" s="6"/>
     </row>
-    <row r="590" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A590" s="6"/>
       <c r="B590" s="3"/>
       <c r="C590" s="6"/>
     </row>
-    <row r="591" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A591" s="6"/>
       <c r="B591" s="3"/>
       <c r="C591" s="6"/>
     </row>
-    <row r="592" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A592" s="6"/>
       <c r="B592" s="3"/>
       <c r="C592" s="6"/>
     </row>
-    <row r="593" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A593" s="6"/>
       <c r="B593" s="3"/>
       <c r="C593" s="6"/>
     </row>
-    <row r="594" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A594" s="6"/>
       <c r="B594" s="3"/>
       <c r="C594" s="6"/>
     </row>
-    <row r="595" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A595" s="6"/>
       <c r="B595" s="3"/>
       <c r="C595" s="6"/>
     </row>
-    <row r="596" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A596" s="6"/>
       <c r="B596" s="3"/>
       <c r="C596" s="6"/>
     </row>
-    <row r="597" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A597" s="6"/>
       <c r="B597" s="3"/>
       <c r="C597" s="6"/>
     </row>
-    <row r="598" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A598" s="6"/>
       <c r="B598" s="3"/>
       <c r="C598" s="6"/>
     </row>
-    <row r="599" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A599" s="6"/>
       <c r="B599" s="3"/>
       <c r="C599" s="6"/>
     </row>
-    <row r="600" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A600" s="6"/>
       <c r="B600" s="3"/>
       <c r="C600" s="6"/>
     </row>
-    <row r="601" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A601" s="6"/>
       <c r="B601" s="3"/>
       <c r="C601" s="6"/>
     </row>
-    <row r="602" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A602" s="6"/>
       <c r="B602" s="3"/>
       <c r="C602" s="6"/>
     </row>
-    <row r="603" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A603" s="6"/>
       <c r="B603" s="3"/>
       <c r="C603" s="6"/>
     </row>
-    <row r="604" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A604" s="6"/>
       <c r="B604" s="3"/>
       <c r="C604" s="6"/>
     </row>
-    <row r="605" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A605" s="6"/>
       <c r="B605" s="3"/>
       <c r="C605" s="6"/>
     </row>
-    <row r="606" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A606" s="6"/>
       <c r="B606" s="3"/>
       <c r="C606" s="6"/>
     </row>
-    <row r="607" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A607" s="6"/>
       <c r="B607" s="3"/>
       <c r="C607" s="6"/>
     </row>
-    <row r="608" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A608" s="6"/>
       <c r="B608" s="3"/>
       <c r="C608" s="6"/>
     </row>
-    <row r="609" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A609" s="6"/>
       <c r="B609" s="3"/>
       <c r="C609" s="6"/>
     </row>
-    <row r="610" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A610" s="6"/>
       <c r="B610" s="3"/>
       <c r="C610" s="6"/>
     </row>
-    <row r="611" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A611" s="6"/>
       <c r="B611" s="3"/>
       <c r="C611" s="6"/>
     </row>
-    <row r="612" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A612" s="6"/>
       <c r="B612" s="3"/>
       <c r="C612" s="6"/>
     </row>
-    <row r="613" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A613" s="6"/>
       <c r="B613" s="3"/>
       <c r="C613" s="6"/>
     </row>
-    <row r="614" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A614" s="6"/>
       <c r="B614" s="3"/>
       <c r="C614" s="6"/>
     </row>
-    <row r="615" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A615" s="6"/>
       <c r="B615" s="3"/>
       <c r="C615" s="6"/>
     </row>
-    <row r="616" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A616" s="6"/>
       <c r="B616" s="3"/>
       <c r="C616" s="6"/>
     </row>
-    <row r="617" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A617" s="6"/>
       <c r="B617" s="3"/>
       <c r="C617" s="6"/>
     </row>
-    <row r="618" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A618" s="6"/>
       <c r="B618" s="3"/>
       <c r="C618" s="6"/>
     </row>
-    <row r="619" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A619" s="6"/>
       <c r="B619" s="3"/>
       <c r="C619" s="6"/>
     </row>
-    <row r="620" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A620" s="6"/>
       <c r="B620" s="3"/>
       <c r="C620" s="6"/>
     </row>
-    <row r="621" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A621" s="6"/>
       <c r="B621" s="3"/>
       <c r="C621" s="6"/>
     </row>
-    <row r="622" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A622" s="6"/>
       <c r="B622" s="3"/>
       <c r="C622" s="6"/>
     </row>
-    <row r="623" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A623" s="6"/>
       <c r="B623" s="3"/>
       <c r="C623" s="6"/>
     </row>
-    <row r="624" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A624" s="6"/>
       <c r="B624" s="3"/>
       <c r="C624" s="6"/>
     </row>
-    <row r="625" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A625" s="6"/>
       <c r="B625" s="3"/>
       <c r="C625" s="6"/>
     </row>
-    <row r="626" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A626" s="6"/>
       <c r="B626" s="3"/>
       <c r="C626" s="6"/>
     </row>
-    <row r="627" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A627" s="6"/>
       <c r="B627" s="3"/>
       <c r="C627" s="6"/>
     </row>
-    <row r="628" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A628" s="6"/>
       <c r="B628" s="3"/>
       <c r="C628" s="6"/>
     </row>
-    <row r="629" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A629" s="6"/>
       <c r="B629" s="3"/>
       <c r="C629" s="6"/>
     </row>
-    <row r="630" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A630" s="6"/>
       <c r="B630" s="3"/>
       <c r="C630" s="6"/>
     </row>
-    <row r="631" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A631" s="6"/>
       <c r="B631" s="3"/>
       <c r="C631" s="6"/>
     </row>
-    <row r="632" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A632" s="6"/>
       <c r="B632" s="3"/>
       <c r="C632" s="6"/>
     </row>
-    <row r="633" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A633" s="6"/>
       <c r="B633" s="3"/>
       <c r="C633" s="6"/>
     </row>
-    <row r="634" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A634" s="6"/>
       <c r="B634" s="3"/>
       <c r="C634" s="6"/>
     </row>
-    <row r="635" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A635" s="6"/>
       <c r="B635" s="3"/>
       <c r="C635" s="6"/>
     </row>
-    <row r="636" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A636" s="6"/>
       <c r="B636" s="3"/>
       <c r="C636" s="6"/>
     </row>
-    <row r="637" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A637" s="6"/>
       <c r="B637" s="3"/>
       <c r="C637" s="6"/>
     </row>
-    <row r="638" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A638" s="6"/>
       <c r="B638" s="3"/>
       <c r="C638" s="6"/>
     </row>
-    <row r="639" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A639" s="6"/>
       <c r="B639" s="3"/>
       <c r="C639" s="6"/>
     </row>
-    <row r="640" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A640" s="6"/>
       <c r="B640" s="3"/>
       <c r="C640" s="6"/>
     </row>
-    <row r="641" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A641" s="6"/>
       <c r="B641" s="3"/>
       <c r="C641" s="6"/>
     </row>
-    <row r="642" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A642" s="6"/>
       <c r="B642" s="3"/>
       <c r="C642" s="6"/>
     </row>
-    <row r="643" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A643" s="6"/>
       <c r="B643" s="3"/>
       <c r="C643" s="6"/>
     </row>
-    <row r="644" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A644" s="6"/>
       <c r="B644" s="3"/>
       <c r="C644" s="6"/>
     </row>
-    <row r="645" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A645" s="6"/>
       <c r="B645" s="3"/>
       <c r="C645" s="6"/>
     </row>
-    <row r="646" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A646" s="6"/>
       <c r="B646" s="3"/>
       <c r="C646" s="6"/>
     </row>
-    <row r="647" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A647" s="6"/>
       <c r="B647" s="3"/>
       <c r="C647" s="6"/>
     </row>
-    <row r="648" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A648" s="6"/>
       <c r="B648" s="3"/>
       <c r="C648" s="6"/>
     </row>
-    <row r="649" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A649" s="6"/>
       <c r="B649" s="3"/>
       <c r="C649" s="6"/>
     </row>
-    <row r="650" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A650" s="6"/>
       <c r="B650" s="3"/>
       <c r="C650" s="6"/>
     </row>
-    <row r="651" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A651" s="6"/>
       <c r="B651" s="3"/>
       <c r="C651" s="6"/>
     </row>
-    <row r="652" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A652" s="6"/>
       <c r="B652" s="3"/>
       <c r="C652" s="6"/>
     </row>
-    <row r="653" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A653" s="6"/>
       <c r="B653" s="3"/>
       <c r="C653" s="6"/>
     </row>
-    <row r="654" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A654" s="6"/>
       <c r="B654" s="3"/>
       <c r="C654" s="6"/>
     </row>
-    <row r="655" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A655" s="6"/>
       <c r="B655" s="3"/>
       <c r="C655" s="6"/>
     </row>
-    <row r="656" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A656" s="6"/>
       <c r="B656" s="3"/>
       <c r="C656" s="6"/>
     </row>
-    <row r="657" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A657" s="6"/>
       <c r="B657" s="3"/>
       <c r="C657" s="6"/>
     </row>
-    <row r="658" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A658" s="6"/>
       <c r="B658" s="3"/>
       <c r="C658" s="6"/>
     </row>
-    <row r="659" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A659" s="6"/>
       <c r="B659" s="3"/>
       <c r="C659" s="6"/>
     </row>
-    <row r="660" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A660" s="6"/>
       <c r="B660" s="3"/>
       <c r="C660" s="6"/>
     </row>
-    <row r="661" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A661" s="6"/>
       <c r="B661" s="3"/>
       <c r="C661" s="6"/>
     </row>
-    <row r="662" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A662" s="6"/>
       <c r="B662" s="3"/>
       <c r="C662" s="6"/>
     </row>
-    <row r="663" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A663" s="6"/>
       <c r="B663" s="3"/>
       <c r="C663" s="6"/>
     </row>
-    <row r="664" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A664" s="6"/>
       <c r="B664" s="3"/>
       <c r="C664" s="6"/>
     </row>
-    <row r="665" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A665" s="6"/>
       <c r="B665" s="3"/>
       <c r="C665" s="6"/>
     </row>
-    <row r="666" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A666" s="6"/>
       <c r="B666" s="3"/>
       <c r="C666" s="6"/>
     </row>
-    <row r="667" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A667" s="6"/>
       <c r="B667" s="3"/>
       <c r="C667" s="6"/>
     </row>
-    <row r="668" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A668" s="6"/>
       <c r="B668" s="3"/>
       <c r="C668" s="6"/>
     </row>
-    <row r="669" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A669" s="6"/>
       <c r="B669" s="3"/>
       <c r="C669" s="6"/>
     </row>
-    <row r="670" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A670" s="6"/>
       <c r="B670" s="3"/>
       <c r="C670" s="6"/>
     </row>
-    <row r="671" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A671" s="6"/>
       <c r="B671" s="3"/>
       <c r="C671" s="6"/>
     </row>
-    <row r="672" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A672" s="6"/>
       <c r="B672" s="3"/>
       <c r="C672" s="6"/>
     </row>
-    <row r="673" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A673" s="6"/>
       <c r="B673" s="3"/>
       <c r="C673" s="6"/>
     </row>
-    <row r="674" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A674" s="6"/>
       <c r="B674" s="3"/>
       <c r="C674" s="6"/>
     </row>
-    <row r="675" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A675" s="6"/>
       <c r="B675" s="3"/>
       <c r="C675" s="6"/>
     </row>
-    <row r="676" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A676" s="6"/>
       <c r="B676" s="3"/>
       <c r="C676" s="6"/>
     </row>
-    <row r="677" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A677" s="6"/>
       <c r="B677" s="3"/>
       <c r="C677" s="6"/>
     </row>
-    <row r="678" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A678" s="6"/>
       <c r="B678" s="3"/>
       <c r="C678" s="6"/>
     </row>
-    <row r="679" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A679" s="6"/>
       <c r="B679" s="3"/>
       <c r="C679" s="6"/>
     </row>
-    <row r="680" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A680" s="6"/>
       <c r="B680" s="3"/>
       <c r="C680" s="6"/>
     </row>
-    <row r="681" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A681" s="6"/>
       <c r="B681" s="3"/>
       <c r="C681" s="6"/>
     </row>
-    <row r="682" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A682" s="6"/>
       <c r="B682" s="3"/>
       <c r="C682" s="6"/>
     </row>
-    <row r="683" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A683" s="6"/>
       <c r="B683" s="3"/>
       <c r="C683" s="6"/>
     </row>
-    <row r="684" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A684" s="6"/>
       <c r="B684" s="3"/>
       <c r="C684" s="6"/>
     </row>
-    <row r="685" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A685" s="6"/>
       <c r="B685" s="3"/>
       <c r="C685" s="6"/>
     </row>
-    <row r="686" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A686" s="6"/>
       <c r="B686" s="3"/>
       <c r="C686" s="6"/>
     </row>
-    <row r="687" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A687" s="6"/>
       <c r="B687" s="3"/>
       <c r="C687" s="6"/>
     </row>
-    <row r="688" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A688" s="6"/>
       <c r="B688" s="3"/>
       <c r="C688" s="6"/>
     </row>
-    <row r="689" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A689" s="6"/>
       <c r="B689" s="3"/>
       <c r="C689" s="6"/>
     </row>
-    <row r="690" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A690" s="6"/>
       <c r="B690" s="3"/>
       <c r="C690" s="6"/>
     </row>
-    <row r="691" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A691" s="6"/>
       <c r="B691" s="3"/>
       <c r="C691" s="6"/>
     </row>
-    <row r="692" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A692" s="6"/>
       <c r="B692" s="3"/>
       <c r="C692" s="6"/>
     </row>
-    <row r="693" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A693" s="6"/>
       <c r="B693" s="3"/>
       <c r="C693" s="6"/>
     </row>
-    <row r="694" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A694" s="6"/>
       <c r="B694" s="3"/>
       <c r="C694" s="6"/>
     </row>
-    <row r="695" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A695" s="6"/>
       <c r="B695" s="3"/>
       <c r="C695" s="6"/>
     </row>
-    <row r="696" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A696" s="6"/>
       <c r="B696" s="3"/>
       <c r="C696" s="6"/>
     </row>
-    <row r="697" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A697" s="6"/>
       <c r="B697" s="3"/>
       <c r="C697" s="6"/>
     </row>
-    <row r="698" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A698" s="6"/>
       <c r="B698" s="3"/>
       <c r="C698" s="6"/>
     </row>
-    <row r="699" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A699" s="6"/>
       <c r="B699" s="3"/>
       <c r="C699" s="6"/>
     </row>
-    <row r="700" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A700" s="6"/>
       <c r="B700" s="3"/>
       <c r="C700" s="6"/>
     </row>
-    <row r="701" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A701" s="6"/>
       <c r="B701" s="3"/>
       <c r="C701" s="6"/>
     </row>
-    <row r="702" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A702" s="6"/>
       <c r="B702" s="3"/>
       <c r="C702" s="6"/>
     </row>
-    <row r="703" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A703" s="6"/>
       <c r="B703" s="3"/>
       <c r="C703" s="6"/>
     </row>
-    <row r="704" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A704" s="6"/>
       <c r="B704" s="3"/>
       <c r="C704" s="6"/>
     </row>
-    <row r="705" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A705" s="6"/>
       <c r="B705" s="3"/>
       <c r="C705" s="6"/>
     </row>
-    <row r="706" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A706" s="6"/>
       <c r="B706" s="3"/>
       <c r="C706" s="6"/>
     </row>
-    <row r="707" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A707" s="6"/>
       <c r="B707" s="3"/>
       <c r="C707" s="6"/>
     </row>
-    <row r="708" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A708" s="6"/>
       <c r="B708" s="3"/>
       <c r="C708" s="6"/>
     </row>
-    <row r="709" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A709" s="6"/>
       <c r="B709" s="3"/>
       <c r="C709" s="6"/>
     </row>
-    <row r="710" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A710" s="6"/>
       <c r="B710" s="3"/>
       <c r="C710" s="6"/>
     </row>
-    <row r="711" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A711" s="6"/>
       <c r="B711" s="3"/>
       <c r="C711" s="6"/>
     </row>
-    <row r="712" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A712" s="6"/>
       <c r="B712" s="3"/>
       <c r="C712" s="6"/>
     </row>
-    <row r="713" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A713" s="6"/>
       <c r="B713" s="3"/>
       <c r="C713" s="6"/>
     </row>
-    <row r="714" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A714" s="6"/>
       <c r="B714" s="3"/>
       <c r="C714" s="6"/>
     </row>
-    <row r="715" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A715" s="6"/>
       <c r="B715" s="3"/>
       <c r="C715" s="6"/>
     </row>
-    <row r="716" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A716" s="6"/>
       <c r="B716" s="3"/>
       <c r="C716" s="6"/>
     </row>
-    <row r="717" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A717" s="6"/>
       <c r="B717" s="3"/>
       <c r="C717" s="6"/>
     </row>
-    <row r="718" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A718" s="6"/>
       <c r="B718" s="3"/>
       <c r="C718" s="6"/>
     </row>
-    <row r="719" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A719" s="6"/>
       <c r="B719" s="3"/>
       <c r="C719" s="6"/>
     </row>
-    <row r="720" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A720" s="6"/>
       <c r="B720" s="3"/>
       <c r="C720" s="6"/>
     </row>
-    <row r="721" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A721" s="6"/>
       <c r="B721" s="3"/>
       <c r="C721" s="6"/>
     </row>
-    <row r="722" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A722" s="6"/>
       <c r="B722" s="3"/>
       <c r="C722" s="6"/>
     </row>
-    <row r="723" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A723" s="6"/>
       <c r="B723" s="3"/>
       <c r="C723" s="6"/>
     </row>
-    <row r="724" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A724" s="6"/>
       <c r="B724" s="3"/>
       <c r="C724" s="6"/>
     </row>
-    <row r="725" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A725" s="6"/>
       <c r="B725" s="3"/>
       <c r="C725" s="6"/>
     </row>
-    <row r="726" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A726" s="6"/>
       <c r="B726" s="3"/>
       <c r="C726" s="6"/>
     </row>
-    <row r="727" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A727" s="6"/>
       <c r="B727" s="3"/>
       <c r="C727" s="6"/>
     </row>
-    <row r="728" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A728" s="6"/>
       <c r="B728" s="3"/>
       <c r="C728" s="6"/>
     </row>
-    <row r="729" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A729" s="6"/>
       <c r="B729" s="3"/>
       <c r="C729" s="6"/>
     </row>
-    <row r="730" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A730" s="6"/>
       <c r="B730" s="3"/>
       <c r="C730" s="6"/>
     </row>
-    <row r="731" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A731" s="6"/>
       <c r="B731" s="3"/>
       <c r="C731" s="6"/>
     </row>
-    <row r="732" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A732" s="6"/>
       <c r="B732" s="3"/>
       <c r="C732" s="6"/>
     </row>
-    <row r="733" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A733" s="6"/>
       <c r="B733" s="3"/>
       <c r="C733" s="6"/>
     </row>
-    <row r="734" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A734" s="6"/>
       <c r="B734" s="3"/>
       <c r="C734" s="6"/>
     </row>
-    <row r="735" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A735" s="6"/>
       <c r="B735" s="3"/>
       <c r="C735" s="6"/>
     </row>
-    <row r="736" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A736" s="6"/>
       <c r="B736" s="3"/>
       <c r="C736" s="6"/>
     </row>
-    <row r="737" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A737" s="6"/>
       <c r="B737" s="3"/>
       <c r="C737" s="6"/>
     </row>
-    <row r="738" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A738" s="6"/>
       <c r="B738" s="3"/>
       <c r="C738" s="6"/>
     </row>
-    <row r="739" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A739" s="6"/>
       <c r="B739" s="3"/>
       <c r="C739" s="6"/>
     </row>
-    <row r="740" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A740" s="6"/>
       <c r="B740" s="3"/>
       <c r="C740" s="6"/>
     </row>
-    <row r="741" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A741" s="6"/>
       <c r="B741" s="3"/>
       <c r="C741" s="6"/>
     </row>
-    <row r="742" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A742" s="6"/>
       <c r="B742" s="3"/>
       <c r="C742" s="6"/>
     </row>
-    <row r="743" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A743" s="6"/>
       <c r="B743" s="3"/>
       <c r="C743" s="6"/>
     </row>
-    <row r="744" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A744" s="6"/>
       <c r="B744" s="3"/>
       <c r="C744" s="6"/>
     </row>
-    <row r="745" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A745" s="6"/>
       <c r="B745" s="3"/>
       <c r="C745" s="6"/>
     </row>
-    <row r="746" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A746" s="6"/>
       <c r="B746" s="3"/>
       <c r="C746" s="6"/>
     </row>
-    <row r="747" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A747" s="6"/>
       <c r="B747" s="3"/>
       <c r="C747" s="6"/>
     </row>
-    <row r="748" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A748" s="6"/>
       <c r="B748" s="3"/>
       <c r="C748" s="6"/>
     </row>
-    <row r="749" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A749" s="6"/>
       <c r="B749" s="3"/>
       <c r="C749" s="6"/>
     </row>
-    <row r="750" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A750" s="6"/>
       <c r="B750" s="3"/>
       <c r="C750" s="6"/>
     </row>
-    <row r="751" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A751" s="6"/>
       <c r="B751" s="3"/>
       <c r="C751" s="6"/>
     </row>
-    <row r="752" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A752" s="6"/>
       <c r="B752" s="3"/>
       <c r="C752" s="6"/>
     </row>
-    <row r="753" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A753" s="6"/>
       <c r="B753" s="3"/>
       <c r="C753" s="6"/>
     </row>
-    <row r="754" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A754" s="6"/>
       <c r="B754" s="3"/>
       <c r="C754" s="6"/>
     </row>
-    <row r="755" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A755" s="6"/>
       <c r="B755" s="3"/>
       <c r="C755" s="6"/>
     </row>
-    <row r="756" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A756" s="6"/>
       <c r="B756" s="3"/>
       <c r="C756" s="6"/>
     </row>
-    <row r="757" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A757" s="6"/>
       <c r="B757" s="3"/>
       <c r="C757" s="6"/>
     </row>
-    <row r="758" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A758" s="6"/>
       <c r="B758" s="3"/>
       <c r="C758" s="6"/>
     </row>
-    <row r="759" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A759" s="6"/>
       <c r="B759" s="3"/>
       <c r="C759" s="6"/>
     </row>
-    <row r="760" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A760" s="6"/>
       <c r="B760" s="3"/>
       <c r="C760" s="6"/>
     </row>
-    <row r="761" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A761" s="6"/>
       <c r="B761" s="3"/>
       <c r="C761" s="6"/>
     </row>
-    <row r="762" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A762" s="6"/>
       <c r="B762" s="3"/>
       <c r="C762" s="6"/>
     </row>
-    <row r="763" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A763" s="6"/>
       <c r="B763" s="3"/>
       <c r="C763" s="6"/>
     </row>
-    <row r="764" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A764" s="6"/>
       <c r="B764" s="3"/>
       <c r="C764" s="6"/>
     </row>
-    <row r="765" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A765" s="6"/>
       <c r="B765" s="3"/>
       <c r="C765" s="6"/>
     </row>
-    <row r="766" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A766" s="6"/>
       <c r="B766" s="3"/>
       <c r="C766" s="6"/>
     </row>
-    <row r="767" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A767" s="6"/>
       <c r="B767" s="3"/>
       <c r="C767" s="6"/>
     </row>
-    <row r="768" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A768" s="6"/>
       <c r="B768" s="3"/>
       <c r="C768" s="6"/>
     </row>
-    <row r="769" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A769" s="6"/>
       <c r="B769" s="3"/>
       <c r="C769" s="6"/>
     </row>
-    <row r="770" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A770" s="6"/>
       <c r="B770" s="3"/>
       <c r="C770" s="6"/>
     </row>
-    <row r="771" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A771" s="6"/>
       <c r="B771" s="3"/>
       <c r="C771" s="6"/>
     </row>
-    <row r="772" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A772" s="6"/>
       <c r="B772" s="3"/>
       <c r="C772" s="6"/>
     </row>
-    <row r="773" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A773" s="6"/>
       <c r="B773" s="3"/>
       <c r="C773" s="6"/>
     </row>
-    <row r="774" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A774" s="6"/>
       <c r="B774" s="3"/>
       <c r="C774" s="6"/>
     </row>
-    <row r="775" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A775" s="6"/>
       <c r="B775" s="3"/>
       <c r="C775" s="6"/>
     </row>
-    <row r="776" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A776" s="6"/>
       <c r="B776" s="3"/>
       <c r="C776" s="6"/>
     </row>
-    <row r="777" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A777" s="6"/>
       <c r="B777" s="3"/>
       <c r="C777" s="6"/>
     </row>
-    <row r="778" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A778" s="6"/>
       <c r="B778" s="3"/>
       <c r="C778" s="6"/>
     </row>
-    <row r="779" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A779" s="6"/>
       <c r="B779" s="3"/>
       <c r="C779" s="6"/>
     </row>
-    <row r="780" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A780" s="6"/>
       <c r="B780" s="3"/>
       <c r="C780" s="6"/>
     </row>
-    <row r="781" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A781" s="6"/>
       <c r="B781" s="3"/>
       <c r="C781" s="6"/>
     </row>
-    <row r="782" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A782" s="6"/>
       <c r="B782" s="3"/>
       <c r="C782" s="6"/>
     </row>
-    <row r="783" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A783" s="6"/>
       <c r="B783" s="3"/>
       <c r="C783" s="6"/>
     </row>
-    <row r="784" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A784" s="6"/>
       <c r="B784" s="3"/>
       <c r="C784" s="6"/>
     </row>
-    <row r="785" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A785" s="6"/>
       <c r="B785" s="3"/>
       <c r="C785" s="6"/>
     </row>
-    <row r="786" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A786" s="6"/>
       <c r="B786" s="3"/>
       <c r="C786" s="6"/>
     </row>
-    <row r="787" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A787" s="6"/>
       <c r="B787" s="3"/>
       <c r="C787" s="6"/>
     </row>
-    <row r="788" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A788" s="6"/>
       <c r="B788" s="3"/>
       <c r="C788" s="6"/>
     </row>
-    <row r="789" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A789" s="6"/>
       <c r="B789" s="3"/>
       <c r="C789" s="6"/>
     </row>
-    <row r="790" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A790" s="6"/>
       <c r="B790" s="3"/>
       <c r="C790" s="6"/>
     </row>
-    <row r="791" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A791" s="6"/>
       <c r="B791" s="3"/>
       <c r="C791" s="6"/>
     </row>
-    <row r="792" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A792" s="6"/>
       <c r="B792" s="3"/>
       <c r="C792" s="6"/>
     </row>
-    <row r="793" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A793" s="6"/>
       <c r="B793" s="3"/>
       <c r="C793" s="6"/>
     </row>
-    <row r="794" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A794" s="6"/>
       <c r="B794" s="3"/>
       <c r="C794" s="6"/>
     </row>
-    <row r="795" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A795" s="6"/>
       <c r="B795" s="3"/>
       <c r="C795" s="6"/>
     </row>
-    <row r="796" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A796" s="6"/>
       <c r="B796" s="3"/>
       <c r="C796" s="6"/>
     </row>
-    <row r="797" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A797" s="6"/>
       <c r="B797" s="3"/>
       <c r="C797" s="6"/>
     </row>
-    <row r="798" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A798" s="6"/>
       <c r="B798" s="3"/>
       <c r="C798" s="6"/>
     </row>
-    <row r="799" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A799" s="6"/>
       <c r="B799" s="3"/>
       <c r="C799" s="6"/>
     </row>
-    <row r="800" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A800" s="6"/>
       <c r="B800" s="3"/>
       <c r="C800" s="6"/>
     </row>
-    <row r="801" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A801" s="6"/>
       <c r="B801" s="3"/>
       <c r="C801" s="6"/>
     </row>
-    <row r="802" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A802" s="6"/>
       <c r="B802" s="3"/>
       <c r="C802" s="6"/>
     </row>
-    <row r="803" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A803" s="6"/>
       <c r="B803" s="3"/>
       <c r="C803" s="6"/>
     </row>
-    <row r="804" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A804" s="6"/>
       <c r="B804" s="3"/>
       <c r="C804" s="6"/>
     </row>
-    <row r="805" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A805" s="6"/>
       <c r="B805" s="3"/>
       <c r="C805" s="6"/>
     </row>
-    <row r="806" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A806" s="6"/>
       <c r="B806" s="3"/>
       <c r="C806" s="6"/>
     </row>
-    <row r="807" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A807" s="6"/>
       <c r="B807" s="3"/>
       <c r="C807" s="6"/>
     </row>
-    <row r="808" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A808" s="6"/>
       <c r="B808" s="3"/>
       <c r="C808" s="6"/>
     </row>
-    <row r="809" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A809" s="6"/>
       <c r="B809" s="3"/>
       <c r="C809" s="6"/>
     </row>
-    <row r="810" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A810" s="6"/>
       <c r="B810" s="3"/>
       <c r="C810" s="6"/>
     </row>
-    <row r="811" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A811" s="6"/>
       <c r="B811" s="3"/>
       <c r="C811" s="6"/>
     </row>
-    <row r="812" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A812" s="6"/>
       <c r="B812" s="3"/>
       <c r="C812" s="6"/>
     </row>
-    <row r="813" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A813" s="6"/>
       <c r="B813" s="3"/>
       <c r="C813" s="6"/>
     </row>
-    <row r="814" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A814" s="6"/>
       <c r="B814" s="3"/>
       <c r="C814" s="6"/>
     </row>
-    <row r="815" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A815" s="6"/>
       <c r="B815" s="3"/>
       <c r="C815" s="6"/>
     </row>
-    <row r="816" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A816" s="6"/>
       <c r="B816" s="3"/>
       <c r="C816" s="6"/>
     </row>
-    <row r="817" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A817" s="6"/>
       <c r="B817" s="3"/>
       <c r="C817" s="6"/>
     </row>
-    <row r="818" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A818" s="6"/>
       <c r="B818" s="3"/>
       <c r="C818" s="6"/>
     </row>
-    <row r="819" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A819" s="6"/>
       <c r="B819" s="3"/>
       <c r="C819" s="6"/>
     </row>
-    <row r="820" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A820" s="6"/>
       <c r="B820" s="3"/>
       <c r="C820" s="6"/>
     </row>
-    <row r="821" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A821" s="6"/>
       <c r="B821" s="3"/>
       <c r="C821" s="6"/>
     </row>
-    <row r="822" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A822" s="6"/>
       <c r="B822" s="3"/>
       <c r="C822" s="6"/>
     </row>
-    <row r="823" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A823" s="6"/>
       <c r="B823" s="3"/>
       <c r="C823" s="6"/>
     </row>
-    <row r="824" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A824" s="6"/>
       <c r="B824" s="3"/>
       <c r="C824" s="6"/>
     </row>
-    <row r="825" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A825" s="6"/>
       <c r="B825" s="3"/>
       <c r="C825" s="6"/>
     </row>
-    <row r="826" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A826" s="6"/>
       <c r="B826" s="3"/>
       <c r="C826" s="6"/>
     </row>
-    <row r="827" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A827" s="6"/>
       <c r="B827" s="3"/>
       <c r="C827" s="6"/>
     </row>
-    <row r="828" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A828" s="6"/>
       <c r="B828" s="3"/>
       <c r="C828" s="6"/>
     </row>
-    <row r="829" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A829" s="6"/>
       <c r="B829" s="3"/>
       <c r="C829" s="6"/>
     </row>
-    <row r="830" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A830" s="6"/>
       <c r="B830" s="3"/>
       <c r="C830" s="6"/>
     </row>
-    <row r="831" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A831" s="6"/>
       <c r="B831" s="3"/>
       <c r="C831" s="6"/>
     </row>
-    <row r="832" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A832" s="6"/>
       <c r="B832" s="3"/>
       <c r="C832" s="6"/>
     </row>
-    <row r="833" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A833" s="6"/>
       <c r="B833" s="3"/>
       <c r="C833" s="6"/>
     </row>
-    <row r="834" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A834" s="6"/>
       <c r="B834" s="3"/>
       <c r="C834" s="6"/>
     </row>
-    <row r="835" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A835" s="6"/>
       <c r="B835" s="3"/>
       <c r="C835" s="6"/>
     </row>
-    <row r="836" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A836" s="6"/>
       <c r="B836" s="3"/>
       <c r="C836" s="6"/>
     </row>
-    <row r="837" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A837" s="6"/>
       <c r="B837" s="3"/>
       <c r="C837" s="6"/>
